--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="12">
   <si>
     <t>original size</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>compRate</t>
+  </si>
+  <si>
+    <t>qscale</t>
   </si>
 </sst>
 </file>
@@ -156,6 +159,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$G$5:$G$55</c:f>
@@ -169,151 +187,151 @@
                   <c:v>1.2012738853503184</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.1840358744394619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3529411764705883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3316522089973775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5557388640113128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5237765466297322</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8485018202184262</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7947253942359978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.292013888888889</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2.1901128069011282</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>3.0419354838709678</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>2.8637744034707158</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>4.4036024016010673</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>4.193773824650572</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>6.8688865764828302</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>6.8688865764828302</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>10.62962962962963</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="18">
                   <c:v>10.681229773462784</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
                   <c:v>15.531764705882352</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1840358744394619</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3529411764705883</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>15.568396226415095</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>21.431818181818183</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>22.003333333333334</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>29.734234234234233</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>31.136792452830189</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>39.765060240963855</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>44.904761904761905</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>51.976377952755904</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>55.940677966101696</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>64.715686274509807</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>66.676767676767682</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>77.658823529411762</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>79.53012048192771</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>92.971830985915489</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
                   <c:v>94.3</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
                   <c:v>110.01666666666667</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="36">
                   <c:v>111.88135593220339</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="37">
                   <c:v>132.02000000000001</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="38">
                   <c:v>129.43137254901961</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="39">
                   <c:v>157.16666666666666</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.3316522089973775</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.5557388640113128</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>150.02272727272728</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="41">
                   <c:v>183.36111111111111</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="42">
                   <c:v>173.71052631578948</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
                   <c:v>212.93548387096774</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>194.14705882352942</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="45">
                   <c:v>244.4814814814815</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
                   <c:v>227.62068965517241</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="47">
                   <c:v>287</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>253.88461538461539</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>330.05</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>314.33333333333331</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.5237765466297322</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.8485018202184262</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.7947253942359978</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.292013888888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,19 +364,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32407399999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32407399999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.32407399999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -370,112 +388,112 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.32407399999999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.64814799999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.64814799999999995</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.64814799999999995</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="#,##0">
+                <c:pt idx="26">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="#,##0">
                   <c:v>1.4351849999999999</c:v>
                 </c:pt>
-                <c:pt idx="22" formatCode="#,##0">
+                <c:pt idx="28" formatCode="#,##0">
                   <c:v>1.111111</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="#,##0">
+                <c:pt idx="29" formatCode="#,##0">
                   <c:v>1.4351849999999999</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="#,##0">
+                <c:pt idx="30" formatCode="#,##0">
                   <c:v>1.111111</c:v>
                 </c:pt>
-                <c:pt idx="25" formatCode="#,##0">
+                <c:pt idx="31" formatCode="#,##0">
                   <c:v>1.7592589999999999</c:v>
                 </c:pt>
-                <c:pt idx="26" formatCode="#,##0">
+                <c:pt idx="32" formatCode="#,##0">
                   <c:v>1.4351849999999999</c:v>
                 </c:pt>
-                <c:pt idx="27" formatCode="#,##0">
+                <c:pt idx="33" formatCode="#,##0">
                   <c:v>1.7592589999999999</c:v>
                 </c:pt>
-                <c:pt idx="28" formatCode="#,##0">
+                <c:pt idx="34" formatCode="#,##0">
                   <c:v>2.2222219999999999</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="#,##0">
+                <c:pt idx="35" formatCode="#,##0">
                   <c:v>3.6574070000000001</c:v>
                 </c:pt>
-                <c:pt idx="30" formatCode="#,##0">
+                <c:pt idx="36" formatCode="#,##0">
                   <c:v>1.8981479999999999</c:v>
                 </c:pt>
-                <c:pt idx="31" formatCode="#,##0">
+                <c:pt idx="37" formatCode="#,##0">
                   <c:v>3.7962959999999999</c:v>
                 </c:pt>
-                <c:pt idx="32" formatCode="#,##0">
+                <c:pt idx="38" formatCode="#,##0">
                   <c:v>2.8703699999999999</c:v>
                 </c:pt>
-                <c:pt idx="33" formatCode="#,##0">
+                <c:pt idx="39" formatCode="#,##0">
                   <c:v>7.4537040000000001</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="#,##0">
+                <c:pt idx="40" formatCode="#,##0">
                   <c:v>5.5555560000000002</c:v>
                 </c:pt>
-                <c:pt idx="37" formatCode="#,##0">
+                <c:pt idx="41" formatCode="#,##0">
                   <c:v>13.333333</c:v>
                 </c:pt>
-                <c:pt idx="38" formatCode="#,##0">
+                <c:pt idx="42" formatCode="#,##0">
                   <c:v>8.5648149999999994</c:v>
                 </c:pt>
-                <c:pt idx="39" formatCode="#,##0">
+                <c:pt idx="43" formatCode="#,##0">
                   <c:v>20.462962999999998</c:v>
                 </c:pt>
-                <c:pt idx="40" formatCode="#,##0">
+                <c:pt idx="44" formatCode="#,##0">
                   <c:v>15.092593000000001</c:v>
                 </c:pt>
-                <c:pt idx="41" formatCode="#,##0">
+                <c:pt idx="45" formatCode="#,##0">
                   <c:v>28.101852000000001</c:v>
                 </c:pt>
-                <c:pt idx="42" formatCode="#,##0">
+                <c:pt idx="46" formatCode="#,##0">
                   <c:v>21.759259</c:v>
                 </c:pt>
-                <c:pt idx="43" formatCode="#,##0">
+                <c:pt idx="47" formatCode="#,##0">
                   <c:v>34.120370000000001</c:v>
                 </c:pt>
-                <c:pt idx="44" formatCode="#,##0">
+                <c:pt idx="48" formatCode="#,##0">
                   <c:v>28.101852000000001</c:v>
                 </c:pt>
-                <c:pt idx="45" formatCode="#,##0">
+                <c:pt idx="49" formatCode="#,##0">
                   <c:v>41.435184999999997</c:v>
                 </c:pt>
-                <c:pt idx="46" formatCode="#,##0">
+                <c:pt idx="50" formatCode="#,##0">
                   <c:v>32.870370000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -515,6 +533,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$W$5:$W$66</c:f>
@@ -528,148 +561,148 @@
                   <c:v>6.6879432624113475</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5.0274181264280271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7151576805696847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.444620253164556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6930983847283407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.498977505112475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.917808219178083</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.555851063829788</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.66919191919192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.930232558139537</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.188953488372093</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.003787878787879</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.823343848580443</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.390041493775932</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.300675675675677</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.20940170940171</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.574999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.433333333333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>24.722846441947567</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
                   <c:v>31.433333333333334</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="22">
+                  <c:v>25.585271317829456</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.517241379310342</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>26.404</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="25">
                   <c:v>35.681081081081082</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="26">
+                  <c:v>27.164609053497941</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37.084269662921351</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>27.852320675105485</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="29">
                   <c:v>36.071038251366119</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="30">
+                  <c:v>28.452586206896552</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36.469613259668506</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>29.079295154185022</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="33">
                   <c:v>40.25</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="34">
+                  <c:v>29.46875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>30.004545454545454</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="37">
                   <c:v>42.044585987261144</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="38">
+                  <c:v>30.419354838709676</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.863636363636367</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>30.845794392523363</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="41">
                   <c:v>40.25</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="42">
+                  <c:v>31.284360189573459</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.006666666666668</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>31.583732057416267</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="45">
                   <c:v>44.601351351351354</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="46">
+                  <c:v>31.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45.524137931034481</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>32.200000000000003</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="49">
                   <c:v>46.16083916083916</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>32.840796019900495</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43.143790849673202</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33.338383838383841</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>48.182481751824817</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10.444620253164556</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>33.851282051282048</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>48.896296296296299</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12.917808219178083</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>17.555851063829788</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19.188953488372093</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>25.003787878787879</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>22.300675675675677</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>28.20940170940171</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>23.574999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31.433333333333334</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>25.585271317829456</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>32.517241379310342</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>27.164609053497941</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37.084269662921351</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>28.452586206896552</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>36.469613259668506</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>29.46875</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.0274181264280271</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.7151576805696847</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>30.419354838709676</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>42.863636363636367</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>31.284360189573459</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44.006666666666668</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>31.888888888888889</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45.524137931034481</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>32.517241379310342</c:v>
@@ -678,34 +711,34 @@
                   <c:v>43.42763157894737</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>32.840796019900495</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43.143790849673202</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>33.005000000000003</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>47.15</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
+                  <c:v>33.338383838383841</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>48.182481751824817</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>33.507614213197968</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>48.182481751824817</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>9.6930983847283407</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>13.498977505112475</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>16.66919191919192</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>21.930232558139537</c:v>
-                </c:pt>
                 <c:pt idx="60">
-                  <c:v>20.823343848580443</c:v>
+                  <c:v>33.851282051282048</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>27.390041493775932</c:v>
+                  <c:v>48.896296296296299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -722,149 +755,149 @@
                 <c:pt idx="1">
                   <c:v>0.32407399999999997</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="#,##0">
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
                   <c:v>1.111111</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="#,##0">
+                <c:pt idx="14">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
                   <c:v>1.7592589999999999</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="#,##0">
+                <c:pt idx="16">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
                   <c:v>1.4351849999999999</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#,##0">
+                <c:pt idx="20" formatCode="#,##0">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="#,##0">
+                  <c:v>1.7592589999999999</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="#,##0">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="#,##0">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="#,##0">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="#,##0">
                   <c:v>2.2222219999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="26" formatCode="#,##0">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="#,##0">
+                  <c:v>2.8703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.78703699999999999</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="#,##0">
+                <c:pt idx="29" formatCode="#,##0">
                   <c:v>2.5462959999999999</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="#,##0">
+                <c:pt idx="30" formatCode="#,##0">
                   <c:v>1.111111</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
+                <c:pt idx="31" formatCode="#,##0">
+                  <c:v>3.0092590000000001</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="#,##0">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="#,##0">
                   <c:v>3.6574070000000001</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
+                <c:pt idx="34" formatCode="#,##0">
                   <c:v>1.7592589999999999</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="#,##0">
+                <c:pt idx="35" formatCode="#,##0">
+                  <c:v>3.3333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="#,##0">
+                  <c:v>1.7592589999999999</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="#,##0">
                   <c:v>4.1203700000000003</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="#,##0">
+                <c:pt idx="38" formatCode="#,##0">
                   <c:v>1.7592589999999999</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="#,##0">
-                  <c:v>4.4444439999999998</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="#,##0">
-                  <c:v>1.111111</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="#,##0">
-                  <c:v>5.2314809999999996</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="#,##0">
-                  <c:v>1.8981479999999999</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="#,##0">
-                  <c:v>5.2314809999999996</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="#,##0">
-                  <c:v>1.111111</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="#,##0">
-                  <c:v>7.4537040000000001</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="#,##0">
-                  <c:v>3.0092590000000001</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="#,##0">
-                  <c:v>7.3148150000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.32407399999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.32407399999999997</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="#,##0">
-                  <c:v>3.7962959999999999</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="#,##0">
-                  <c:v>8.1018519999999992</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.78703699999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.78703699999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.32407399999999997</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="#,##0">
-                  <c:v>1.111111</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.78703699999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.78703699999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.64814799999999995</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="#,##0">
-                  <c:v>1.4351849999999999</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="#,##0">
-                  <c:v>1.111111</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="#,##0">
-                  <c:v>1.8981479999999999</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="#,##0">
-                  <c:v>1.4351849999999999</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="#,##0">
-                  <c:v>2.8703699999999999</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="#,##0">
-                  <c:v>1.111111</c:v>
-                </c:pt>
                 <c:pt idx="39" formatCode="#,##0">
-                  <c:v>3.0092590000000001</c:v>
+                  <c:v>4.1203700000000003</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="#,##0">
                   <c:v>1.7592589999999999</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="#,##0">
-                  <c:v>3.3333330000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="#,##0">
+                  <c:v>1.7592589999999999</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="#,##0">
+                  <c:v>4.9074070000000001</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="#,##0">
-                  <c:v>1.7592589999999999</c:v>
+                  <c:v>1.111111</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="#,##0">
+                  <c:v>5.2314809999999996</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="#,##0">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="#,##0">
                   <c:v>4.1203700000000003</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="#,##0">
-                  <c:v>1.7592589999999999</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="#,##0">
-                  <c:v>4.9074070000000001</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="#,##0">
                   <c:v>1.8981479999999999</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="#,##0">
-                  <c:v>4.1203700000000003</c:v>
+                  <c:v>5.2314809999999996</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="#,##0">
                   <c:v>2.5462959999999999</c:v>
@@ -873,34 +906,34 @@
                   <c:v>5.8796299999999997</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="#,##0">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="#,##0">
+                  <c:v>7.4537040000000001</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="#,##0">
                   <c:v>3.3333330000000001</c:v>
                 </c:pt>
-                <c:pt idx="53" formatCode="#,##0">
+                <c:pt idx="55" formatCode="#,##0">
                   <c:v>7.3148150000000003</c:v>
                 </c:pt>
-                <c:pt idx="54" formatCode="#,##0">
+                <c:pt idx="56" formatCode="#,##0">
                   <c:v>3.0092590000000001</c:v>
                 </c:pt>
-                <c:pt idx="55" formatCode="#,##0">
+                <c:pt idx="57" formatCode="#,##0">
+                  <c:v>7.3148150000000003</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="#,##0">
+                  <c:v>3.0092590000000001</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="#,##0">
                   <c:v>6.9907409999999999</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.32407399999999997</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.78703699999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.78703699999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.32407399999999997</c:v>
+                <c:pt idx="60" formatCode="#,##0">
+                  <c:v>3.7962959999999999</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="#,##0">
-                  <c:v>1.7592589999999999</c:v>
+                  <c:v>8.1018519999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,6 +973,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$O$5:$O$54</c:f>
@@ -953,148 +1001,148 @@
                   <c:v>1.6804989816700611</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2.0506368437402922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0506368437402922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5704828660436139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5704828660436139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.661723163841808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.661723163841808</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>6.640845070422535</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>6.640845070422535</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>9.5805515239477508</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>9.5805515239477508</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>13.838574423480084</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>13.838574423480084</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>20.125</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>20.125</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="18">
                   <c:v>27.735294117647058</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
                   <c:v>27.735294117647058</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.0506368437402922</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0506368437402922</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>36.469613259668506</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>36.469613259668506</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>46.485915492957744</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>46.485915492957744</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>58.415929203539825</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>58.415929203539825</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>72.538461538461533</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>72.538461538461533</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>88.013333333333335</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>88.013333333333335</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>106.46774193548387</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>106.46774193548387</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>129.43137254901961</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>129.43137254901961</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
                   <c:v>157.16666666666666</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
                   <c:v>157.16666666666666</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="36">
                   <c:v>188.6</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="37">
                   <c:v>188.6</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="38">
                   <c:v>227.62068965517241</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="39">
                   <c:v>227.62068965517241</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.5704828660436139</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.5704828660436139</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>275.04166666666669</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="41">
                   <c:v>275.04166666666669</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="42">
                   <c:v>330.05</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
                   <c:v>330.05</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>366.72222222222223</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="45">
                   <c:v>366.72222222222223</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
                   <c:v>412.5625</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="47">
                   <c:v>412.5625</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>440.06666666666666</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>440.06666666666666</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.3764705882352941</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.3764705882352941</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.661723163841808</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.661723163841808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1112,10 +1160,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32407399999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32407399999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1124,16 +1172,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32407399999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32407399999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.32407399999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32407399999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.32407399999999997</c:v>
@@ -1159,101 +1207,101 @@
                 <c:pt idx="17">
                   <c:v>0.32407399999999997</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="#,##0">
+                <c:pt idx="18">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="#,##0">
                   <c:v>1.4351849999999999</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="#,##0">
+                <c:pt idx="25" formatCode="#,##0">
                   <c:v>1.4351849999999999</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="#,##0">
+                <c:pt idx="26" formatCode="#,##0">
                   <c:v>2.0833330000000001</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="#,##0">
+                <c:pt idx="27" formatCode="#,##0">
                   <c:v>2.0833330000000001</c:v>
                 </c:pt>
-                <c:pt idx="22" formatCode="#,##0">
+                <c:pt idx="28" formatCode="#,##0">
                   <c:v>1.4351849999999999</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="#,##0">
+                <c:pt idx="29" formatCode="#,##0">
                   <c:v>1.4351849999999999</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="#,##0">
+                <c:pt idx="30" formatCode="#,##0">
                   <c:v>2.5462959999999999</c:v>
                 </c:pt>
-                <c:pt idx="25" formatCode="#,##0">
+                <c:pt idx="31" formatCode="#,##0">
                   <c:v>2.5462959999999999</c:v>
                 </c:pt>
-                <c:pt idx="26" formatCode="#,##0">
+                <c:pt idx="32" formatCode="#,##0">
                   <c:v>4.4444439999999998</c:v>
                 </c:pt>
-                <c:pt idx="27" formatCode="#,##0">
+                <c:pt idx="33" formatCode="#,##0">
                   <c:v>4.4444439999999998</c:v>
                 </c:pt>
-                <c:pt idx="28" formatCode="#,##0">
+                <c:pt idx="34" formatCode="#,##0">
                   <c:v>8.1018519999999992</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="#,##0">
+                <c:pt idx="35" formatCode="#,##0">
                   <c:v>8.1018519999999992</c:v>
                 </c:pt>
-                <c:pt idx="30" formatCode="#,##0">
+                <c:pt idx="36" formatCode="#,##0">
                   <c:v>11.898148000000001</c:v>
                 </c:pt>
-                <c:pt idx="31" formatCode="#,##0">
+                <c:pt idx="37" formatCode="#,##0">
                   <c:v>11.898148000000001</c:v>
                 </c:pt>
-                <c:pt idx="32" formatCode="#,##0">
+                <c:pt idx="38" formatCode="#,##0">
                   <c:v>22.222221999999999</c:v>
                 </c:pt>
-                <c:pt idx="33" formatCode="#,##0">
+                <c:pt idx="39" formatCode="#,##0">
                   <c:v>22.222221999999999</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="#,##0">
+                <c:pt idx="40" formatCode="#,##0">
                   <c:v>31.435185000000001</c:v>
                 </c:pt>
-                <c:pt idx="37" formatCode="#,##0">
+                <c:pt idx="41" formatCode="#,##0">
                   <c:v>31.435185000000001</c:v>
                 </c:pt>
-                <c:pt idx="38" formatCode="#,##0">
+                <c:pt idx="42" formatCode="#,##0">
                   <c:v>42.546295999999998</c:v>
                 </c:pt>
-                <c:pt idx="39" formatCode="#,##0">
+                <c:pt idx="43" formatCode="#,##0">
                   <c:v>42.546295999999998</c:v>
                 </c:pt>
-                <c:pt idx="40" formatCode="#,##0">
+                <c:pt idx="44" formatCode="#,##0">
                   <c:v>53.657406999999999</c:v>
                 </c:pt>
-                <c:pt idx="41" formatCode="#,##0">
+                <c:pt idx="45" formatCode="#,##0">
                   <c:v>53.657406999999999</c:v>
                 </c:pt>
-                <c:pt idx="42" formatCode="#,##0">
+                <c:pt idx="46" formatCode="#,##0">
                   <c:v>66.203704000000002</c:v>
                 </c:pt>
-                <c:pt idx="43" formatCode="#,##0">
+                <c:pt idx="47" formatCode="#,##0">
                   <c:v>66.203704000000002</c:v>
                 </c:pt>
-                <c:pt idx="44" formatCode="#,##0">
+                <c:pt idx="48" formatCode="#,##0">
                   <c:v>69.212963000000002</c:v>
                 </c:pt>
-                <c:pt idx="45" formatCode="#,##0">
+                <c:pt idx="49" formatCode="#,##0">
                   <c:v>69.212963000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2108,7 +2156,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2413,8 +2461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P68" sqref="P68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,7 +2524,7 @@
         <v>5</v>
       </c>
       <c r="S4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T4" t="s">
         <v>7</v>
@@ -2567,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G55" si="0">$C$3/E6</f>
+        <f>$C$3/E6</f>
         <v>1.2012738853503184</v>
       </c>
       <c r="J6" t="s">
@@ -2586,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O54" si="1">$C$3/M6</f>
+        <f>$C$3/M6</f>
         <v>1.6804989816700611</v>
       </c>
       <c r="R6" t="s">
@@ -2605,7 +2653,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:W66" si="2">$C$3/U6</f>
+        <f>$C$3/U6</f>
         <v>6.6879432624113475</v>
       </c>
     </row>
@@ -2614,58 +2662,58 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>12056</v>
+        <v>22300</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>2.1901128069011282</v>
+        <f>$C$3/E7</f>
+        <v>1.1840358744394619</v>
       </c>
       <c r="J7" t="s">
         <v>3</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3976</v>
+        <v>12876</v>
       </c>
       <c r="N7">
-        <v>0.32407399999999997</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
-        <v>6.640845070422535</v>
+        <f>$C$3/M7</f>
+        <v>2.0506368437402922</v>
       </c>
       <c r="R7" t="s">
         <v>4</v>
       </c>
       <c r="S7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7">
-        <v>1068</v>
-      </c>
-      <c r="V7" s="1">
-        <v>1.111111</v>
+        <v>5252</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="2"/>
-        <v>24.722846441947567</v>
+        <f>$C$3/U7</f>
+        <v>5.0274181264280271</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
@@ -2673,58 +2721,58 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>24</v>
       </c>
       <c r="E8">
-        <v>8680</v>
+        <v>19516</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>3.0419354838709678</v>
+        <f>$C$3/E8</f>
+        <v>1.3529411764705883</v>
       </c>
       <c r="J8" t="s">
         <v>3</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>24</v>
       </c>
       <c r="M8">
-        <v>3976</v>
+        <v>12876</v>
       </c>
       <c r="N8">
-        <v>0.32407399999999997</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
-        <v>6.640845070422535</v>
+        <f>$C$3/M8</f>
+        <v>2.0506368437402922</v>
       </c>
       <c r="R8" t="s">
         <v>4</v>
       </c>
       <c r="S8">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>24</v>
       </c>
       <c r="U8">
-        <v>840</v>
-      </c>
-      <c r="V8" s="1">
-        <v>1.7592589999999999</v>
+        <v>3932</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="2"/>
-        <v>31.433333333333334</v>
+        <f>$C$3/U8</f>
+        <v>6.7151576805696847</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
@@ -2732,58 +2780,58 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>9220</v>
+        <v>19828</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>2.8637744034707158</v>
+        <f>$C$3/E9</f>
+        <v>1.3316522089973775</v>
       </c>
       <c r="J9" t="s">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2756</v>
+        <v>10272</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
-        <v>9.5805515239477508</v>
+        <f>$C$3/M9</f>
+        <v>2.5704828660436139</v>
       </c>
       <c r="R9" t="s">
         <v>4</v>
       </c>
       <c r="S9">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="T9">
         <v>1</v>
       </c>
       <c r="U9">
-        <v>1000</v>
-      </c>
-      <c r="V9" s="1">
-        <v>1.4351849999999999</v>
+        <v>3444</v>
+      </c>
+      <c r="V9">
+        <v>0.32407399999999997</v>
       </c>
       <c r="W9">
-        <f t="shared" si="2"/>
-        <v>26.404</v>
+        <f>$C$3/U9</f>
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
@@ -2791,58 +2839,58 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>24</v>
       </c>
       <c r="E10">
-        <v>5996</v>
+        <v>16972</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>4.4036024016010673</v>
+        <f>$C$3/E10</f>
+        <v>1.5557388640113128</v>
       </c>
       <c r="J10" t="s">
         <v>3</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L10">
         <v>24</v>
       </c>
       <c r="M10">
-        <v>2756</v>
+        <v>10272</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
-        <v>9.5805515239477508</v>
+        <f>$C$3/M10</f>
+        <v>2.5704828660436139</v>
       </c>
       <c r="R10" t="s">
         <v>4</v>
       </c>
       <c r="S10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="T10">
         <v>24</v>
       </c>
       <c r="U10">
-        <v>740</v>
-      </c>
-      <c r="V10" s="1">
-        <v>2.2222219999999999</v>
+        <v>2528</v>
+      </c>
+      <c r="V10">
+        <v>0.32407399999999997</v>
       </c>
       <c r="W10">
-        <f t="shared" si="2"/>
-        <v>35.681081081081082</v>
+        <f>$C$3/U10</f>
+        <v>10.444620253164556</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
@@ -2850,58 +2898,58 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>6296</v>
+        <v>17328</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>4.193773824650572</v>
+        <f>$C$3/E11</f>
+        <v>1.5237765466297322</v>
       </c>
       <c r="J11" t="s">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1908</v>
+        <v>7820</v>
       </c>
       <c r="N11">
-        <v>0.32407399999999997</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
-        <v>13.838574423480084</v>
+        <f>$C$3/M11</f>
+        <v>3.3764705882352941</v>
       </c>
       <c r="R11" t="s">
         <v>4</v>
       </c>
       <c r="S11">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="T11">
         <v>1</v>
       </c>
       <c r="U11">
-        <v>948</v>
+        <v>2724</v>
       </c>
       <c r="V11">
-        <v>0.78703699999999999</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <f t="shared" si="2"/>
-        <v>27.852320675105485</v>
+        <f>$C$3/U11</f>
+        <v>9.6930983847283407</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
@@ -2909,58 +2957,58 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>24</v>
       </c>
       <c r="E12">
-        <v>3844</v>
+        <v>14284</v>
       </c>
       <c r="F12">
-        <v>0.32407399999999997</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>6.8688865764828302</v>
+        <f>$C$3/E12</f>
+        <v>1.8485018202184262</v>
       </c>
       <c r="J12" t="s">
         <v>3</v>
       </c>
       <c r="K12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>24</v>
       </c>
       <c r="M12">
-        <v>1908</v>
+        <v>7820</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>$C$3/M12</f>
+        <v>3.3764705882352941</v>
+      </c>
+      <c r="R12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>24</v>
+      </c>
+      <c r="U12">
+        <v>1956</v>
+      </c>
+      <c r="V12">
         <v>0.32407399999999997</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>13.838574423480084</v>
-      </c>
-      <c r="R12" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12">
-        <v>15</v>
-      </c>
-      <c r="T12">
-        <v>24</v>
-      </c>
-      <c r="U12">
-        <v>732</v>
-      </c>
-      <c r="V12" s="1">
-        <v>2.5462959999999999</v>
-      </c>
       <c r="W12">
-        <f t="shared" si="2"/>
-        <v>36.071038251366119</v>
+        <f>$C$3/U12</f>
+        <v>13.498977505112475</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
@@ -2968,58 +3016,58 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>3844</v>
+        <v>14712</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>6.8688865764828302</v>
+        <f>$C$3/E13</f>
+        <v>1.7947253942359978</v>
       </c>
       <c r="J13" t="s">
         <v>3</v>
       </c>
       <c r="K13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1312</v>
+        <v>5664</v>
       </c>
       <c r="N13">
-        <v>0.32407399999999997</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
-        <v>20.125</v>
+        <f>$C$3/M13</f>
+        <v>4.661723163841808</v>
       </c>
       <c r="R13" t="s">
         <v>4</v>
       </c>
       <c r="S13">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="T13">
         <v>1</v>
       </c>
       <c r="U13">
-        <v>908</v>
-      </c>
-      <c r="V13" s="1">
-        <v>1.111111</v>
+        <v>2044</v>
+      </c>
+      <c r="V13">
+        <v>0.78703699999999999</v>
       </c>
       <c r="W13">
-        <f t="shared" si="2"/>
-        <v>29.079295154185022</v>
+        <f>$C$3/U13</f>
+        <v>12.917808219178083</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
@@ -3027,58 +3075,58 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>24</v>
       </c>
       <c r="E14">
-        <v>2484</v>
+        <v>11520</v>
       </c>
       <c r="F14">
-        <v>0.32407399999999997</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>10.62962962962963</v>
+        <f>$C$3/E14</f>
+        <v>2.292013888888889</v>
       </c>
       <c r="J14" t="s">
         <v>3</v>
       </c>
       <c r="K14">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L14">
         <v>24</v>
       </c>
       <c r="M14">
-        <v>1312</v>
+        <v>5664</v>
       </c>
       <c r="N14">
-        <v>0.32407399999999997</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
-        <v>20.125</v>
+        <f>$C$3/M14</f>
+        <v>4.661723163841808</v>
       </c>
       <c r="R14" t="s">
         <v>4</v>
       </c>
       <c r="S14">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="T14">
         <v>24</v>
       </c>
       <c r="U14">
-        <v>656</v>
-      </c>
-      <c r="V14" s="1">
-        <v>3.6574070000000001</v>
+        <v>1504</v>
+      </c>
+      <c r="V14">
+        <v>0.78703699999999999</v>
       </c>
       <c r="W14">
-        <f t="shared" si="2"/>
-        <v>40.25</v>
+        <f>$C$3/U14</f>
+        <v>17.555851063829788</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
@@ -3086,58 +3134,58 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>2472</v>
+        <v>12056</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>10.681229773462784</v>
+        <f>$C$3/E15</f>
+        <v>2.1901128069011282</v>
       </c>
       <c r="J15" t="s">
         <v>3</v>
       </c>
       <c r="K15">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>952</v>
+        <v>3976</v>
       </c>
       <c r="N15">
         <v>0.32407399999999997</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
-        <v>27.735294117647058</v>
+        <f>$C$3/M15</f>
+        <v>6.640845070422535</v>
       </c>
       <c r="R15" t="s">
         <v>4</v>
       </c>
       <c r="S15">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="T15">
         <v>1</v>
       </c>
       <c r="U15">
-        <v>880</v>
-      </c>
-      <c r="V15" s="1">
-        <v>1.7592589999999999</v>
+        <v>1584</v>
+      </c>
+      <c r="V15">
+        <v>0.78703699999999999</v>
       </c>
       <c r="W15">
-        <f t="shared" si="2"/>
-        <v>30.004545454545454</v>
+        <f>$C$3/U15</f>
+        <v>16.66919191919192</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
@@ -3145,58 +3193,58 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1700</v>
+        <v>8680</v>
       </c>
       <c r="F16">
-        <v>0.32407399999999997</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>15.531764705882352</v>
+        <f>$C$3/E16</f>
+        <v>3.0419354838709678</v>
       </c>
       <c r="J16" t="s">
         <v>3</v>
       </c>
       <c r="K16">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L16">
         <v>24</v>
       </c>
       <c r="M16">
-        <v>952</v>
+        <v>3976</v>
       </c>
       <c r="N16">
         <v>0.32407399999999997</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
-        <v>27.735294117647058</v>
+        <f>$C$3/M16</f>
+        <v>6.640845070422535</v>
       </c>
       <c r="R16" t="s">
         <v>4</v>
       </c>
       <c r="S16">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="T16">
         <v>24</v>
       </c>
       <c r="U16">
-        <v>628</v>
-      </c>
-      <c r="V16" s="1">
-        <v>4.1203700000000003</v>
+        <v>1204</v>
+      </c>
+      <c r="V16">
+        <v>0.78703699999999999</v>
       </c>
       <c r="W16">
-        <f t="shared" si="2"/>
-        <v>42.044585987261144</v>
+        <f>$C$3/U16</f>
+        <v>21.930232558139537</v>
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
@@ -3204,58 +3252,58 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>22300</v>
+        <v>9220</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>1.1840358744394619</v>
+        <f>$C$3/E17</f>
+        <v>2.8637744034707158</v>
       </c>
       <c r="J17" t="s">
         <v>3</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12876</v>
+        <v>2756</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="1"/>
-        <v>2.0506368437402922</v>
+        <f>$C$3/M17</f>
+        <v>9.5805515239477508</v>
       </c>
       <c r="R17" t="s">
         <v>4</v>
       </c>
       <c r="S17">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="T17">
         <v>1</v>
       </c>
       <c r="U17">
-        <v>856</v>
-      </c>
-      <c r="V17" s="1">
-        <v>1.7592589999999999</v>
+        <v>1376</v>
+      </c>
+      <c r="V17">
+        <v>0.32407399999999997</v>
       </c>
       <c r="W17">
-        <f t="shared" si="2"/>
-        <v>30.845794392523363</v>
+        <f>$C$3/U17</f>
+        <v>19.188953488372093</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
@@ -3263,58 +3311,58 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>19516</v>
+        <v>5996</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>1.3529411764705883</v>
+        <f>$C$3/E18</f>
+        <v>4.4036024016010673</v>
       </c>
       <c r="J18" t="s">
         <v>3</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L18">
         <v>24</v>
       </c>
       <c r="M18">
-        <v>12876</v>
+        <v>2756</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
-        <v>2.0506368437402922</v>
+        <f>$C$3/M18</f>
+        <v>9.5805515239477508</v>
       </c>
       <c r="R18" t="s">
         <v>4</v>
       </c>
       <c r="S18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="T18">
         <v>24</v>
       </c>
       <c r="U18">
-        <v>656</v>
+        <v>1056</v>
       </c>
       <c r="V18" s="1">
-        <v>4.4444439999999998</v>
+        <v>1.111111</v>
       </c>
       <c r="W18">
-        <f t="shared" si="2"/>
-        <v>40.25</v>
+        <f>$C$3/U18</f>
+        <v>25.003787878787879</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
@@ -3322,58 +3370,58 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1696</v>
+        <v>6296</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>15.568396226415095</v>
+        <f>$C$3/E19</f>
+        <v>4.193773824650572</v>
       </c>
       <c r="J19" t="s">
         <v>3</v>
       </c>
       <c r="K19">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>724</v>
+        <v>1908</v>
       </c>
       <c r="N19">
         <v>0.32407399999999997</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
-        <v>36.469613259668506</v>
+        <f>$C$3/M19</f>
+        <v>13.838574423480084</v>
       </c>
       <c r="R19" t="s">
         <v>4</v>
       </c>
       <c r="S19">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
       <c r="U19">
-        <v>836</v>
-      </c>
-      <c r="V19" s="1">
-        <v>1.111111</v>
+        <v>1268</v>
+      </c>
+      <c r="V19">
+        <v>0.32407399999999997</v>
       </c>
       <c r="W19">
-        <f t="shared" si="2"/>
-        <v>31.583732057416267</v>
+        <f>$C$3/U19</f>
+        <v>20.823343848580443</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
@@ -3381,58 +3429,58 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1232</v>
+        <v>3844</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.32407399999999997</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>21.431818181818183</v>
+        <f>$C$3/E20</f>
+        <v>6.8688865764828302</v>
       </c>
       <c r="J20" t="s">
         <v>3</v>
       </c>
       <c r="K20">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L20">
         <v>24</v>
       </c>
       <c r="M20">
-        <v>724</v>
+        <v>1908</v>
       </c>
       <c r="N20">
         <v>0.32407399999999997</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
-        <v>36.469613259668506</v>
+        <f>$C$3/M20</f>
+        <v>13.838574423480084</v>
       </c>
       <c r="R20" t="s">
         <v>4</v>
       </c>
       <c r="S20">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="T20">
         <v>24</v>
       </c>
       <c r="U20">
-        <v>592</v>
+        <v>964</v>
       </c>
       <c r="V20" s="1">
-        <v>5.2314809999999996</v>
+        <v>1.7592589999999999</v>
       </c>
       <c r="W20">
-        <f t="shared" si="2"/>
-        <v>44.601351351351354</v>
+        <f>$C$3/U20</f>
+        <v>27.390041493775932</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
@@ -3440,58 +3488,58 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1200</v>
+        <v>3844</v>
       </c>
       <c r="F21">
-        <v>0.32407399999999997</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
-        <v>22.003333333333334</v>
+        <f>$C$3/E21</f>
+        <v>6.8688865764828302</v>
       </c>
       <c r="J21" t="s">
         <v>3</v>
       </c>
       <c r="K21">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>568</v>
+        <v>1312</v>
       </c>
       <c r="N21">
         <v>0.32407399999999997</v>
       </c>
       <c r="O21">
-        <f t="shared" si="1"/>
-        <v>46.485915492957744</v>
+        <f>$C$3/M21</f>
+        <v>20.125</v>
       </c>
       <c r="R21" t="s">
         <v>4</v>
       </c>
       <c r="S21">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="T21">
         <v>1</v>
       </c>
       <c r="U21">
-        <v>820</v>
-      </c>
-      <c r="V21" s="1">
-        <v>1.8981479999999999</v>
+        <v>1184</v>
+      </c>
+      <c r="V21">
+        <v>0.78703699999999999</v>
       </c>
       <c r="W21">
-        <f t="shared" si="2"/>
-        <v>32.200000000000003</v>
+        <f>$C$3/U21</f>
+        <v>22.300675675675677</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
@@ -3499,58 +3547,58 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>24</v>
       </c>
       <c r="E22">
-        <v>888</v>
+        <v>2484</v>
       </c>
       <c r="F22">
-        <v>0.64814799999999995</v>
+        <v>0.32407399999999997</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>29.734234234234233</v>
+        <f>$C$3/E22</f>
+        <v>10.62962962962963</v>
       </c>
       <c r="J22" t="s">
         <v>3</v>
       </c>
       <c r="K22">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L22">
         <v>24</v>
       </c>
       <c r="M22">
-        <v>568</v>
+        <v>1312</v>
       </c>
       <c r="N22">
         <v>0.32407399999999997</v>
       </c>
       <c r="O22">
-        <f t="shared" si="1"/>
-        <v>46.485915492957744</v>
+        <f>$C$3/M22</f>
+        <v>20.125</v>
       </c>
       <c r="R22" t="s">
         <v>4</v>
       </c>
       <c r="S22">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="T22">
         <v>24</v>
       </c>
       <c r="U22">
-        <v>572</v>
-      </c>
-      <c r="V22" s="1">
-        <v>5.2314809999999996</v>
+        <v>936</v>
+      </c>
+      <c r="V22">
+        <v>0.78703699999999999</v>
       </c>
       <c r="W22">
-        <f t="shared" si="2"/>
-        <v>46.16083916083916</v>
+        <f>$C$3/U22</f>
+        <v>28.20940170940171</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
@@ -3558,58 +3606,58 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>848</v>
+        <v>2472</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
-        <v>31.136792452830189</v>
+        <f>$C$3/E23</f>
+        <v>10.681229773462784</v>
       </c>
       <c r="J23" t="s">
         <v>3</v>
       </c>
       <c r="K23">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>452</v>
-      </c>
-      <c r="N23" s="1">
-        <v>1.4351849999999999</v>
+        <v>952</v>
+      </c>
+      <c r="N23">
+        <v>0.32407399999999997</v>
       </c>
       <c r="O23">
-        <f t="shared" si="1"/>
-        <v>58.415929203539825</v>
+        <f>$C$3/M23</f>
+        <v>27.735294117647058</v>
       </c>
       <c r="R23" t="s">
         <v>4</v>
       </c>
       <c r="S23">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="T23">
         <v>1</v>
       </c>
       <c r="U23">
-        <v>804</v>
-      </c>
-      <c r="V23" s="1">
-        <v>1.111111</v>
+        <v>1120</v>
+      </c>
+      <c r="V23">
+        <v>0.64814799999999995</v>
       </c>
       <c r="W23">
-        <f t="shared" si="2"/>
-        <v>32.840796019900495</v>
+        <f>$C$3/U23</f>
+        <v>23.574999999999999</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
@@ -3617,58 +3665,58 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D24">
         <v>24</v>
       </c>
       <c r="E24">
-        <v>664</v>
+        <v>1700</v>
       </c>
       <c r="F24">
-        <v>0.64814799999999995</v>
+        <v>0.32407399999999997</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
-        <v>39.765060240963855</v>
+        <f>$C$3/E24</f>
+        <v>15.531764705882352</v>
       </c>
       <c r="J24" t="s">
         <v>3</v>
       </c>
       <c r="K24">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L24">
         <v>24</v>
       </c>
       <c r="M24">
-        <v>452</v>
-      </c>
-      <c r="N24" s="1">
+        <v>952</v>
+      </c>
+      <c r="N24">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="O24">
+        <f>$C$3/M24</f>
+        <v>27.735294117647058</v>
+      </c>
+      <c r="R24" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>24</v>
+      </c>
+      <c r="U24">
+        <v>840</v>
+      </c>
+      <c r="V24" s="1">
         <v>1.4351849999999999</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="1"/>
-        <v>58.415929203539825</v>
-      </c>
-      <c r="R24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24">
-        <v>27</v>
-      </c>
-      <c r="T24">
-        <v>24</v>
-      </c>
-      <c r="U24">
-        <v>612</v>
-      </c>
-      <c r="V24" s="1">
-        <v>7.4537040000000001</v>
-      </c>
       <c r="W24">
-        <f t="shared" si="2"/>
-        <v>43.143790849673202</v>
+        <f>$C$3/U24</f>
+        <v>31.433333333333334</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
@@ -3676,58 +3724,58 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>588</v>
+        <v>1696</v>
       </c>
       <c r="F25">
-        <v>0.64814799999999995</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
-        <v>44.904761904761905</v>
+        <f>$C$3/E25</f>
+        <v>15.568396226415095</v>
       </c>
       <c r="J25" t="s">
         <v>3</v>
       </c>
       <c r="K25">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>364</v>
-      </c>
-      <c r="N25" s="1">
-        <v>2.0833330000000001</v>
+        <v>724</v>
+      </c>
+      <c r="N25">
+        <v>0.32407399999999997</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
-        <v>72.538461538461533</v>
+        <f>$C$3/M25</f>
+        <v>36.469613259668506</v>
       </c>
       <c r="R25" t="s">
         <v>4</v>
       </c>
       <c r="S25">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="T25">
         <v>1</v>
       </c>
       <c r="U25">
-        <v>792</v>
+        <v>1068</v>
       </c>
       <c r="V25" s="1">
-        <v>3.0092590000000001</v>
+        <v>1.111111</v>
       </c>
       <c r="W25">
-        <f t="shared" si="2"/>
-        <v>33.338383838383841</v>
+        <f>$C$3/U25</f>
+        <v>24.722846441947567</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
@@ -3735,58 +3783,58 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>24</v>
       </c>
       <c r="E26">
-        <v>508</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1.4351849999999999</v>
+        <v>1232</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
-        <v>51.976377952755904</v>
+        <f>$C$3/E26</f>
+        <v>21.431818181818183</v>
       </c>
       <c r="J26" t="s">
         <v>3</v>
       </c>
       <c r="K26">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L26">
         <v>24</v>
       </c>
       <c r="M26">
-        <v>364</v>
-      </c>
-      <c r="N26" s="1">
-        <v>2.0833330000000001</v>
+        <v>724</v>
+      </c>
+      <c r="N26">
+        <v>0.32407399999999997</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
-        <v>72.538461538461533</v>
+        <f>$C$3/M26</f>
+        <v>36.469613259668506</v>
       </c>
       <c r="R26" t="s">
         <v>4</v>
       </c>
       <c r="S26">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="T26">
         <v>24</v>
       </c>
       <c r="U26">
-        <v>548</v>
+        <v>840</v>
       </c>
       <c r="V26" s="1">
-        <v>7.3148150000000003</v>
+        <v>1.7592589999999999</v>
       </c>
       <c r="W26">
-        <f t="shared" si="2"/>
-        <v>48.182481751824817</v>
+        <f>$C$3/U26</f>
+        <v>31.433333333333334</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
@@ -3794,58 +3842,58 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>472</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1.111111</v>
+        <v>1200</v>
+      </c>
+      <c r="F27">
+        <v>0.32407399999999997</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
-        <v>55.940677966101696</v>
+        <f>$C$3/E27</f>
+        <v>22.003333333333334</v>
       </c>
       <c r="J27" t="s">
         <v>3</v>
       </c>
       <c r="K27">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>300</v>
-      </c>
-      <c r="N27" s="1">
-        <v>1.4351849999999999</v>
+        <v>568</v>
+      </c>
+      <c r="N27">
+        <v>0.32407399999999997</v>
       </c>
       <c r="O27">
-        <f t="shared" si="1"/>
-        <v>88.013333333333335</v>
+        <f>$C$3/M27</f>
+        <v>46.485915492957744</v>
       </c>
       <c r="R27" t="s">
         <v>4</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="T27">
         <v>1</v>
       </c>
       <c r="U27">
-        <v>3444</v>
-      </c>
-      <c r="V27">
-        <v>0.32407399999999997</v>
+        <v>1032</v>
+      </c>
+      <c r="V27" s="1">
+        <v>1.111111</v>
       </c>
       <c r="W27">
-        <f t="shared" si="2"/>
-        <v>7.666666666666667</v>
+        <f>$C$3/U27</f>
+        <v>25.585271317829456</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
@@ -3853,58 +3901,58 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>24</v>
       </c>
       <c r="E28">
-        <v>408</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1.4351849999999999</v>
+        <v>888</v>
+      </c>
+      <c r="F28">
+        <v>0.64814799999999995</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
-        <v>64.715686274509807</v>
+        <f>$C$3/E28</f>
+        <v>29.734234234234233</v>
       </c>
       <c r="J28" t="s">
         <v>3</v>
       </c>
       <c r="K28">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L28">
         <v>24</v>
       </c>
       <c r="M28">
-        <v>300</v>
-      </c>
-      <c r="N28" s="1">
-        <v>1.4351849999999999</v>
+        <v>568</v>
+      </c>
+      <c r="N28">
+        <v>0.32407399999999997</v>
       </c>
       <c r="O28">
-        <f t="shared" si="1"/>
-        <v>88.013333333333335</v>
+        <f>$C$3/M28</f>
+        <v>46.485915492957744</v>
       </c>
       <c r="R28" t="s">
         <v>4</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="T28">
         <v>24</v>
       </c>
       <c r="U28">
-        <v>2528</v>
-      </c>
-      <c r="V28">
-        <v>0.32407399999999997</v>
+        <v>812</v>
+      </c>
+      <c r="V28" s="1">
+        <v>1.8981479999999999</v>
       </c>
       <c r="W28">
-        <f t="shared" si="2"/>
-        <v>10.444620253164556</v>
+        <f>$C$3/U28</f>
+        <v>32.517241379310342</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
@@ -3912,58 +3960,58 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>396</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1.111111</v>
+        <v>848</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
-        <v>66.676767676767682</v>
+        <f>$C$3/E29</f>
+        <v>31.136792452830189</v>
       </c>
       <c r="J29" t="s">
         <v>3</v>
       </c>
       <c r="K29">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>248</v>
+        <v>452</v>
       </c>
       <c r="N29" s="1">
-        <v>2.5462959999999999</v>
+        <v>1.4351849999999999</v>
       </c>
       <c r="O29">
-        <f t="shared" si="1"/>
-        <v>106.46774193548387</v>
+        <f>$C$3/M29</f>
+        <v>58.415929203539825</v>
       </c>
       <c r="R29" t="s">
         <v>4</v>
       </c>
       <c r="S29">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="T29">
         <v>1</v>
       </c>
       <c r="U29">
-        <v>780</v>
+        <v>1000</v>
       </c>
       <c r="V29" s="1">
-        <v>3.7962959999999999</v>
+        <v>1.4351849999999999</v>
       </c>
       <c r="W29">
-        <f t="shared" si="2"/>
-        <v>33.851282051282048</v>
+        <f>$C$3/U29</f>
+        <v>26.404</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
@@ -3971,58 +4019,58 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D30">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>340</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1.7592589999999999</v>
+        <v>664</v>
+      </c>
+      <c r="F30">
+        <v>0.64814799999999995</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
-        <v>77.658823529411762</v>
+        <f>$C$3/E30</f>
+        <v>39.765060240963855</v>
       </c>
       <c r="J30" t="s">
         <v>3</v>
       </c>
       <c r="K30">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L30">
         <v>24</v>
       </c>
       <c r="M30">
-        <v>248</v>
+        <v>452</v>
       </c>
       <c r="N30" s="1">
-        <v>2.5462959999999999</v>
+        <v>1.4351849999999999</v>
       </c>
       <c r="O30">
-        <f t="shared" si="1"/>
-        <v>106.46774193548387</v>
+        <f>$C$3/M30</f>
+        <v>58.415929203539825</v>
       </c>
       <c r="R30" t="s">
         <v>4</v>
       </c>
       <c r="S30">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="T30">
         <v>24</v>
       </c>
       <c r="U30">
-        <v>540</v>
+        <v>740</v>
       </c>
       <c r="V30" s="1">
-        <v>8.1018519999999992</v>
+        <v>2.2222219999999999</v>
       </c>
       <c r="W30">
-        <f t="shared" si="2"/>
-        <v>48.896296296296299</v>
+        <f>$C$3/U30</f>
+        <v>35.681081081081082</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -4030,58 +4078,58 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>332</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1.4351849999999999</v>
+        <v>588</v>
+      </c>
+      <c r="F31">
+        <v>0.64814799999999995</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
-        <v>79.53012048192771</v>
+        <f>$C$3/E31</f>
+        <v>44.904761904761905</v>
       </c>
       <c r="J31" t="s">
         <v>3</v>
       </c>
       <c r="K31">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>204</v>
+        <v>364</v>
       </c>
       <c r="N31" s="1">
-        <v>4.4444439999999998</v>
+        <v>2.0833330000000001</v>
       </c>
       <c r="O31">
-        <f t="shared" si="1"/>
-        <v>129.43137254901961</v>
+        <f>$C$3/M31</f>
+        <v>72.538461538461533</v>
       </c>
       <c r="R31" t="s">
         <v>4</v>
       </c>
       <c r="S31">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T31">
         <v>1</v>
       </c>
       <c r="U31">
-        <v>2044</v>
-      </c>
-      <c r="V31">
-        <v>0.78703699999999999</v>
+        <v>972</v>
+      </c>
+      <c r="V31" s="1">
+        <v>1.4351849999999999</v>
       </c>
       <c r="W31">
-        <f t="shared" si="2"/>
-        <v>12.917808219178083</v>
+        <f>$C$3/U31</f>
+        <v>27.164609053497941</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
@@ -4089,58 +4137,58 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D32">
         <v>24</v>
       </c>
       <c r="E32">
-        <v>284</v>
+        <v>508</v>
       </c>
       <c r="F32" s="1">
-        <v>1.7592589999999999</v>
+        <v>1.4351849999999999</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
-        <v>92.971830985915489</v>
+        <f>$C$3/E32</f>
+        <v>51.976377952755904</v>
       </c>
       <c r="J32" t="s">
         <v>3</v>
       </c>
       <c r="K32">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L32">
         <v>24</v>
       </c>
       <c r="M32">
-        <v>204</v>
+        <v>364</v>
       </c>
       <c r="N32" s="1">
-        <v>4.4444439999999998</v>
+        <v>2.0833330000000001</v>
       </c>
       <c r="O32">
         <f>$C$3/M32</f>
-        <v>129.43137254901961</v>
+        <v>72.538461538461533</v>
       </c>
       <c r="R32" t="s">
         <v>4</v>
       </c>
       <c r="S32">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T32">
         <v>24</v>
       </c>
       <c r="U32">
-        <v>1504</v>
-      </c>
-      <c r="V32">
-        <v>0.78703699999999999</v>
+        <v>712</v>
+      </c>
+      <c r="V32" s="1">
+        <v>2.8703699999999999</v>
       </c>
       <c r="W32">
-        <f t="shared" si="2"/>
-        <v>17.555851063829788</v>
+        <f>$C$3/U32</f>
+        <v>37.084269662921351</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
@@ -4148,58 +4196,58 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>280</v>
+        <v>472</v>
       </c>
       <c r="F33" s="1">
-        <v>2.2222219999999999</v>
+        <v>1.111111</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
-        <v>94.3</v>
+        <f>$C$3/E33</f>
+        <v>55.940677966101696</v>
       </c>
       <c r="J33" t="s">
         <v>3</v>
       </c>
       <c r="K33">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="N33" s="1">
-        <v>8.1018519999999992</v>
+        <v>1.4351849999999999</v>
       </c>
       <c r="O33">
-        <f t="shared" si="1"/>
-        <v>157.16666666666666</v>
+        <f>$C$3/M33</f>
+        <v>88.013333333333335</v>
       </c>
       <c r="R33" t="s">
         <v>4</v>
       </c>
       <c r="S33">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="T33">
         <v>1</v>
       </c>
       <c r="U33">
-        <v>1376</v>
+        <v>948</v>
       </c>
       <c r="V33">
-        <v>0.32407399999999997</v>
+        <v>0.78703699999999999</v>
       </c>
       <c r="W33">
-        <f t="shared" si="2"/>
-        <v>19.188953488372093</v>
+        <f>$C$3/U33</f>
+        <v>27.852320675105485</v>
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
@@ -4207,58 +4255,58 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D34">
         <v>24</v>
       </c>
       <c r="E34">
-        <v>240</v>
+        <v>408</v>
       </c>
       <c r="F34" s="1">
-        <v>3.6574070000000001</v>
+        <v>1.4351849999999999</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
-        <v>110.01666666666667</v>
+        <f>$C$3/E34</f>
+        <v>64.715686274509807</v>
       </c>
       <c r="J34" t="s">
         <v>3</v>
       </c>
       <c r="K34">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L34">
         <v>24</v>
       </c>
       <c r="M34">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="N34" s="1">
-        <v>8.1018519999999992</v>
+        <v>1.4351849999999999</v>
       </c>
       <c r="O34">
-        <f t="shared" si="1"/>
-        <v>157.16666666666666</v>
+        <f>$C$3/M34</f>
+        <v>88.013333333333335</v>
       </c>
       <c r="R34" t="s">
         <v>4</v>
       </c>
       <c r="S34">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="T34">
         <v>24</v>
       </c>
       <c r="U34">
-        <v>1056</v>
+        <v>732</v>
       </c>
       <c r="V34" s="1">
-        <v>1.111111</v>
+        <v>2.5462959999999999</v>
       </c>
       <c r="W34">
-        <f t="shared" si="2"/>
-        <v>25.003787878787879</v>
+        <f>$C$3/U34</f>
+        <v>36.071038251366119</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
@@ -4266,58 +4314,58 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>236</v>
+        <v>396</v>
       </c>
       <c r="F35" s="1">
-        <v>1.8981479999999999</v>
+        <v>1.111111</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
-        <v>111.88135593220339</v>
+        <f>$C$3/E35</f>
+        <v>66.676767676767682</v>
       </c>
       <c r="J35" t="s">
         <v>3</v>
       </c>
       <c r="K35">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="N35" s="1">
-        <v>11.898148000000001</v>
+        <v>2.5462959999999999</v>
       </c>
       <c r="O35">
-        <f t="shared" si="1"/>
-        <v>188.6</v>
+        <f>$C$3/M35</f>
+        <v>106.46774193548387</v>
       </c>
       <c r="R35" t="s">
         <v>4</v>
       </c>
       <c r="S35">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="T35">
         <v>1</v>
       </c>
       <c r="U35">
-        <v>1184</v>
-      </c>
-      <c r="V35">
-        <v>0.78703699999999999</v>
+        <v>928</v>
+      </c>
+      <c r="V35" s="1">
+        <v>1.111111</v>
       </c>
       <c r="W35">
-        <f t="shared" si="2"/>
-        <v>22.300675675675677</v>
+        <f>$C$3/U35</f>
+        <v>28.452586206896552</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
@@ -4325,58 +4373,58 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>24</v>
       </c>
       <c r="E36">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="F36" s="1">
-        <v>3.7962959999999999</v>
+        <v>1.7592589999999999</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
-        <v>132.02000000000001</v>
+        <f>$C$3/E36</f>
+        <v>77.658823529411762</v>
       </c>
       <c r="J36" t="s">
         <v>3</v>
       </c>
       <c r="K36">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L36">
         <v>24</v>
       </c>
       <c r="M36">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="N36" s="1">
-        <v>11.898148000000001</v>
+        <v>2.5462959999999999</v>
       </c>
       <c r="O36">
-        <f t="shared" si="1"/>
-        <v>188.6</v>
+        <f>$C$3/M36</f>
+        <v>106.46774193548387</v>
       </c>
       <c r="R36" t="s">
         <v>4</v>
       </c>
       <c r="S36">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="T36">
         <v>24</v>
       </c>
       <c r="U36">
-        <v>936</v>
-      </c>
-      <c r="V36">
-        <v>0.78703699999999999</v>
+        <v>724</v>
+      </c>
+      <c r="V36" s="1">
+        <v>3.0092590000000001</v>
       </c>
       <c r="W36">
-        <f t="shared" si="2"/>
-        <v>28.20940170940171</v>
+        <f>$C$3/U36</f>
+        <v>36.469613259668506</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
@@ -4384,58 +4432,58 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>204</v>
+        <v>332</v>
       </c>
       <c r="F37" s="1">
-        <v>2.8703699999999999</v>
+        <v>1.4351849999999999</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
-        <v>129.43137254901961</v>
+        <f>$C$3/E37</f>
+        <v>79.53012048192771</v>
       </c>
       <c r="J37" t="s">
         <v>3</v>
       </c>
       <c r="K37">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="N37" s="1">
-        <v>22.222221999999999</v>
+        <v>4.4444439999999998</v>
       </c>
       <c r="O37">
-        <f t="shared" si="1"/>
-        <v>227.62068965517241</v>
+        <f>$C$3/M37</f>
+        <v>129.43137254901961</v>
       </c>
       <c r="R37" t="s">
         <v>4</v>
       </c>
       <c r="S37">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T37">
         <v>1</v>
       </c>
       <c r="U37">
-        <v>1120</v>
-      </c>
-      <c r="V37">
-        <v>0.64814799999999995</v>
+        <v>908</v>
+      </c>
+      <c r="V37" s="1">
+        <v>1.111111</v>
       </c>
       <c r="W37">
-        <f t="shared" si="2"/>
-        <v>23.574999999999999</v>
+        <f>$C$3/U37</f>
+        <v>29.079295154185022</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
@@ -4443,58 +4491,58 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D38">
         <v>24</v>
       </c>
       <c r="E38">
-        <v>168</v>
+        <v>284</v>
       </c>
       <c r="F38" s="1">
-        <v>7.4537040000000001</v>
+        <v>1.7592589999999999</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
-        <v>157.16666666666666</v>
+        <f>$C$3/E38</f>
+        <v>92.971830985915489</v>
       </c>
       <c r="J38" t="s">
         <v>3</v>
       </c>
       <c r="K38">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L38">
         <v>24</v>
       </c>
       <c r="M38">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="N38" s="1">
-        <v>22.222221999999999</v>
+        <v>4.4444439999999998</v>
       </c>
       <c r="O38">
-        <f t="shared" si="1"/>
-        <v>227.62068965517241</v>
+        <f>$C$3/M38</f>
+        <v>129.43137254901961</v>
       </c>
       <c r="R38" t="s">
         <v>4</v>
       </c>
       <c r="S38">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T38">
         <v>24</v>
       </c>
       <c r="U38">
-        <v>840</v>
+        <v>656</v>
       </c>
       <c r="V38" s="1">
-        <v>1.4351849999999999</v>
+        <v>3.6574070000000001</v>
       </c>
       <c r="W38">
-        <f t="shared" si="2"/>
-        <v>31.433333333333334</v>
+        <f>$C$3/U38</f>
+        <v>40.25</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
@@ -4502,58 +4550,58 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>19828</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
+        <v>280</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2.2222219999999999</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
-        <v>1.3316522089973775</v>
+        <f>$C$3/E39</f>
+        <v>94.3</v>
       </c>
       <c r="J39" t="s">
         <v>3</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
-        <v>10272</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="N39" s="1">
+        <v>8.1018519999999992</v>
       </c>
       <c r="O39">
-        <f t="shared" si="1"/>
-        <v>2.5704828660436139</v>
+        <f>$C$3/M39</f>
+        <v>157.16666666666666</v>
       </c>
       <c r="R39" t="s">
         <v>4</v>
       </c>
       <c r="S39">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="T39">
         <v>1</v>
       </c>
       <c r="U39">
-        <v>1032</v>
+        <v>896</v>
       </c>
       <c r="V39" s="1">
-        <v>1.111111</v>
+        <v>1.7592589999999999</v>
       </c>
       <c r="W39">
-        <f t="shared" si="2"/>
-        <v>25.585271317829456</v>
+        <f>$C$3/U39</f>
+        <v>29.46875</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
@@ -4561,58 +4609,58 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D40">
         <v>24</v>
       </c>
       <c r="E40">
-        <v>16972</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3.6574070000000001</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
-        <v>1.5557388640113128</v>
+        <f>$C$3/E40</f>
+        <v>110.01666666666667</v>
       </c>
       <c r="J40" t="s">
         <v>3</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="L40">
         <v>24</v>
       </c>
       <c r="M40">
-        <v>10272</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="N40" s="1">
+        <v>8.1018519999999992</v>
       </c>
       <c r="O40">
-        <f t="shared" si="1"/>
-        <v>2.5704828660436139</v>
+        <f>$C$3/M40</f>
+        <v>157.16666666666666</v>
       </c>
       <c r="R40" t="s">
         <v>4</v>
       </c>
       <c r="S40">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="T40">
         <v>24</v>
       </c>
       <c r="U40">
-        <v>812</v>
+        <v>644</v>
       </c>
       <c r="V40" s="1">
-        <v>1.8981479999999999</v>
+        <v>3.3333330000000001</v>
       </c>
       <c r="W40">
-        <f t="shared" si="2"/>
-        <v>32.517241379310342</v>
+        <f>$C$3/U40</f>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
@@ -4620,58 +4668,58 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="F41" s="1">
-        <v>5.5555560000000002</v>
+        <v>1.8981479999999999</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
-        <v>150.02272727272728</v>
+        <f>$C$3/E41</f>
+        <v>111.88135593220339</v>
       </c>
       <c r="J41" t="s">
         <v>3</v>
       </c>
       <c r="K41">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="N41" s="1">
-        <v>31.435185000000001</v>
+        <v>11.898148000000001</v>
       </c>
       <c r="O41">
-        <f t="shared" si="1"/>
-        <v>275.04166666666669</v>
+        <f>$C$3/M41</f>
+        <v>188.6</v>
       </c>
       <c r="R41" t="s">
         <v>4</v>
       </c>
       <c r="S41">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="T41">
         <v>1</v>
       </c>
       <c r="U41">
-        <v>972</v>
+        <v>880</v>
       </c>
       <c r="V41" s="1">
-        <v>1.4351849999999999</v>
+        <v>1.7592589999999999</v>
       </c>
       <c r="W41">
-        <f t="shared" si="2"/>
-        <v>27.164609053497941</v>
+        <f>$C$3/U41</f>
+        <v>30.004545454545454</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
@@ -4679,58 +4727,58 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D42">
         <v>24</v>
       </c>
       <c r="E42">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="F42" s="1">
-        <v>13.333333</v>
+        <v>3.7962959999999999</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
-        <v>183.36111111111111</v>
+        <f>$C$3/E42</f>
+        <v>132.02000000000001</v>
       </c>
       <c r="J42" t="s">
         <v>3</v>
       </c>
       <c r="K42">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L42">
         <v>24</v>
       </c>
       <c r="M42">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="N42" s="1">
-        <v>31.435185000000001</v>
+        <v>11.898148000000001</v>
       </c>
       <c r="O42">
-        <f t="shared" si="1"/>
-        <v>275.04166666666669</v>
+        <f>$C$3/M42</f>
+        <v>188.6</v>
       </c>
       <c r="R42" t="s">
         <v>4</v>
       </c>
       <c r="S42">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="T42">
         <v>24</v>
       </c>
       <c r="U42">
-        <v>712</v>
+        <v>628</v>
       </c>
       <c r="V42" s="1">
-        <v>2.8703699999999999</v>
+        <v>4.1203700000000003</v>
       </c>
       <c r="W42">
-        <f t="shared" si="2"/>
-        <v>37.084269662921351</v>
+        <f>$C$3/U42</f>
+        <v>42.044585987261144</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
@@ -4738,58 +4786,58 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="F43" s="1">
-        <v>8.5648149999999994</v>
+        <v>2.8703699999999999</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
-        <v>173.71052631578948</v>
+        <f>$C$3/E43</f>
+        <v>129.43137254901961</v>
       </c>
       <c r="J43" t="s">
         <v>3</v>
       </c>
       <c r="K43">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="N43" s="1">
-        <v>42.546295999999998</v>
+        <v>22.222221999999999</v>
       </c>
       <c r="O43">
-        <f t="shared" si="1"/>
-        <v>330.05</v>
+        <f>$C$3/M43</f>
+        <v>227.62068965517241</v>
       </c>
       <c r="R43" t="s">
         <v>4</v>
       </c>
       <c r="S43">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T43">
         <v>1</v>
       </c>
       <c r="U43">
-        <v>928</v>
+        <v>868</v>
       </c>
       <c r="V43" s="1">
-        <v>1.111111</v>
+        <v>1.7592589999999999</v>
       </c>
       <c r="W43">
-        <f t="shared" si="2"/>
-        <v>28.452586206896552</v>
+        <f>$C$3/U43</f>
+        <v>30.419354838709676</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
@@ -4797,58 +4845,58 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D44">
         <v>24</v>
       </c>
       <c r="E44">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="F44" s="1">
-        <v>20.462962999999998</v>
+        <v>7.4537040000000001</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
-        <v>212.93548387096774</v>
+        <f>$C$3/E44</f>
+        <v>157.16666666666666</v>
       </c>
       <c r="J44" t="s">
         <v>3</v>
       </c>
       <c r="K44">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L44">
         <v>24</v>
       </c>
       <c r="M44">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="N44" s="1">
-        <v>42.546295999999998</v>
+        <v>22.222221999999999</v>
       </c>
       <c r="O44">
-        <f t="shared" si="1"/>
-        <v>330.05</v>
+        <f>$C$3/M44</f>
+        <v>227.62068965517241</v>
       </c>
       <c r="R44" t="s">
         <v>4</v>
       </c>
       <c r="S44">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T44">
         <v>24</v>
       </c>
       <c r="U44">
-        <v>724</v>
+        <v>616</v>
       </c>
       <c r="V44" s="1">
-        <v>3.0092590000000001</v>
+        <v>4.1203700000000003</v>
       </c>
       <c r="W44">
-        <f t="shared" si="2"/>
-        <v>36.469613259668506</v>
+        <f>$C$3/U44</f>
+        <v>42.863636363636367</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -4856,58 +4904,58 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="F45" s="1">
-        <v>15.092593000000001</v>
+        <v>5.5555560000000002</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
-        <v>194.14705882352942</v>
+        <f>$C$3/E45</f>
+        <v>150.02272727272728</v>
       </c>
       <c r="J45" t="s">
         <v>3</v>
       </c>
       <c r="K45">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="N45" s="1">
-        <v>53.657406999999999</v>
+        <v>31.435185000000001</v>
       </c>
       <c r="O45">
-        <f t="shared" si="1"/>
-        <v>366.72222222222223</v>
+        <f>$C$3/M45</f>
+        <v>275.04166666666669</v>
       </c>
       <c r="R45" t="s">
         <v>4</v>
       </c>
       <c r="S45">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T45">
         <v>1</v>
       </c>
       <c r="U45">
-        <v>896</v>
+        <v>856</v>
       </c>
       <c r="V45" s="1">
         <v>1.7592589999999999</v>
       </c>
       <c r="W45">
-        <f t="shared" si="2"/>
-        <v>29.46875</v>
+        <f>$C$3/U45</f>
+        <v>30.845794392523363</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
@@ -4915,58 +4963,58 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D46">
         <v>24</v>
       </c>
       <c r="E46">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="F46" s="1">
-        <v>28.101852000000001</v>
+        <v>13.333333</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
-        <v>244.4814814814815</v>
+        <f>$C$3/E46</f>
+        <v>183.36111111111111</v>
       </c>
       <c r="J46" t="s">
         <v>3</v>
       </c>
       <c r="K46">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L46">
         <v>24</v>
       </c>
       <c r="M46">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="N46" s="1">
-        <v>53.657406999999999</v>
+        <v>31.435185000000001</v>
       </c>
       <c r="O46">
-        <f t="shared" si="1"/>
-        <v>366.72222222222223</v>
+        <f>$C$3/M46</f>
+        <v>275.04166666666669</v>
       </c>
       <c r="R46" t="s">
         <v>4</v>
       </c>
       <c r="S46">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T46">
         <v>24</v>
       </c>
       <c r="U46">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="V46" s="1">
-        <v>3.3333330000000001</v>
+        <v>4.4444439999999998</v>
       </c>
       <c r="W46">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <f>$C$3/U46</f>
+        <v>40.25</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
@@ -4974,58 +5022,58 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="F47" s="1">
-        <v>21.759259</v>
+        <v>8.5648149999999994</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
-        <v>227.62068965517241</v>
+        <f>$C$3/E47</f>
+        <v>173.71052631578948</v>
       </c>
       <c r="J47" t="s">
         <v>3</v>
       </c>
       <c r="K47">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="N47" s="1">
-        <v>66.203704000000002</v>
+        <v>42.546295999999998</v>
       </c>
       <c r="O47">
-        <f t="shared" si="1"/>
-        <v>412.5625</v>
+        <f>$C$3/M47</f>
+        <v>330.05</v>
       </c>
       <c r="R47" t="s">
         <v>4</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="T47">
         <v>1</v>
       </c>
       <c r="U47">
-        <v>5252</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
+        <v>844</v>
+      </c>
+      <c r="V47" s="1">
+        <v>1.7592589999999999</v>
       </c>
       <c r="W47">
-        <f t="shared" si="2"/>
-        <v>5.0274181264280271</v>
+        <f>$C$3/U47</f>
+        <v>31.284360189573459</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
@@ -5033,58 +5081,58 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D48">
         <v>24</v>
       </c>
       <c r="E48">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="F48" s="1">
-        <v>34.120370000000001</v>
+        <v>20.462962999999998</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
-        <v>287</v>
+        <f>$C$3/E48</f>
+        <v>212.93548387096774</v>
       </c>
       <c r="J48" t="s">
         <v>3</v>
       </c>
       <c r="K48">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L48">
         <v>24</v>
       </c>
       <c r="M48">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="N48" s="1">
-        <v>66.203704000000002</v>
+        <v>42.546295999999998</v>
       </c>
       <c r="O48">
-        <f t="shared" si="1"/>
-        <v>412.5625</v>
+        <f>$C$3/M48</f>
+        <v>330.05</v>
       </c>
       <c r="R48" t="s">
         <v>4</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="T48">
         <v>24</v>
       </c>
       <c r="U48">
-        <v>3932</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="V48" s="1">
+        <v>4.9074070000000001</v>
       </c>
       <c r="W48">
-        <f t="shared" si="2"/>
-        <v>6.7151576805696847</v>
+        <f>$C$3/U48</f>
+        <v>44.006666666666668</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
@@ -5092,58 +5140,58 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="F49" s="1">
-        <v>28.101852000000001</v>
+        <v>15.092593000000001</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
-        <v>253.88461538461539</v>
+        <f>$C$3/E49</f>
+        <v>194.14705882352942</v>
       </c>
       <c r="J49" t="s">
         <v>3</v>
       </c>
       <c r="K49">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="N49" s="1">
-        <v>69.212963000000002</v>
+        <v>53.657406999999999</v>
       </c>
       <c r="O49">
-        <f t="shared" si="1"/>
-        <v>440.06666666666666</v>
+        <f>$C$3/M49</f>
+        <v>366.72222222222223</v>
       </c>
       <c r="R49" t="s">
         <v>4</v>
       </c>
       <c r="S49">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T49">
         <v>1</v>
       </c>
       <c r="U49">
-        <v>868</v>
+        <v>836</v>
       </c>
       <c r="V49" s="1">
-        <v>1.7592589999999999</v>
+        <v>1.111111</v>
       </c>
       <c r="W49">
-        <f t="shared" si="2"/>
-        <v>30.419354838709676</v>
+        <f>$C$3/U49</f>
+        <v>31.583732057416267</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
@@ -5151,58 +5199,58 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D50">
         <v>24</v>
       </c>
       <c r="E50">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="F50" s="1">
-        <v>41.435184999999997</v>
+        <v>28.101852000000001</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
-        <v>330.05</v>
+        <f>$C$3/E50</f>
+        <v>244.4814814814815</v>
       </c>
       <c r="J50" t="s">
         <v>3</v>
       </c>
       <c r="K50">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L50">
         <v>24</v>
       </c>
       <c r="M50">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="N50" s="1">
-        <v>69.212963000000002</v>
+        <v>53.657406999999999</v>
       </c>
       <c r="O50">
-        <f t="shared" si="1"/>
-        <v>440.06666666666666</v>
+        <f>$C$3/M50</f>
+        <v>366.72222222222223</v>
       </c>
       <c r="R50" t="s">
         <v>4</v>
       </c>
       <c r="S50">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T50">
         <v>24</v>
       </c>
       <c r="U50">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="V50" s="1">
-        <v>4.1203700000000003</v>
+        <v>5.2314809999999996</v>
       </c>
       <c r="W50">
-        <f t="shared" si="2"/>
-        <v>42.863636363636367</v>
+        <f>$C$3/U50</f>
+        <v>44.601351351351354</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
@@ -5210,58 +5258,58 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="F51" s="1">
-        <v>32.870370000000001</v>
+        <v>21.759259</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
-        <v>314.33333333333331</v>
+        <f>$C$3/E51</f>
+        <v>227.62068965517241</v>
       </c>
       <c r="J51" t="s">
         <v>3</v>
       </c>
       <c r="K51">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51">
-        <v>7820</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="N51" s="1">
+        <v>66.203704000000002</v>
       </c>
       <c r="O51">
-        <f t="shared" si="1"/>
-        <v>3.3764705882352941</v>
+        <f>$C$3/M51</f>
+        <v>412.5625</v>
       </c>
       <c r="R51" t="s">
         <v>4</v>
       </c>
       <c r="S51">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T51">
         <v>1</v>
       </c>
       <c r="U51">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="V51" s="1">
-        <v>1.7592589999999999</v>
+        <v>1.8981479999999999</v>
       </c>
       <c r="W51">
-        <f t="shared" si="2"/>
-        <v>31.284360189573459</v>
+        <f>$C$3/U51</f>
+        <v>31.888888888888889</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
@@ -5269,58 +5317,58 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E52">
-        <v>17328</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F52" s="1">
+        <v>34.120370000000001</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
-        <v>1.5237765466297322</v>
+        <f>$C$3/E52</f>
+        <v>287</v>
       </c>
       <c r="J52" t="s">
         <v>3</v>
       </c>
       <c r="K52">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="L52">
         <v>24</v>
       </c>
       <c r="M52">
-        <v>7820</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="N52" s="1">
+        <v>66.203704000000002</v>
       </c>
       <c r="O52">
-        <f t="shared" si="1"/>
-        <v>3.3764705882352941</v>
+        <f>$C$3/M52</f>
+        <v>412.5625</v>
       </c>
       <c r="R52" t="s">
         <v>4</v>
       </c>
       <c r="S52">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T52">
         <v>24</v>
       </c>
       <c r="U52">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="V52" s="1">
-        <v>4.9074070000000001</v>
+        <v>4.1203700000000003</v>
       </c>
       <c r="W52">
-        <f t="shared" si="2"/>
-        <v>44.006666666666668</v>
+        <f>$C$3/U52</f>
+        <v>45.524137931034481</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
@@ -5328,58 +5376,58 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>14284</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="F53" s="1">
+        <v>28.101852000000001</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
-        <v>1.8485018202184262</v>
+        <f>$C$3/E53</f>
+        <v>253.88461538461539</v>
       </c>
       <c r="J53" t="s">
         <v>3</v>
       </c>
       <c r="K53">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53">
-        <v>5664</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="N53" s="1">
+        <v>69.212963000000002</v>
       </c>
       <c r="O53">
-        <f t="shared" si="1"/>
-        <v>4.661723163841808</v>
+        <f>$C$3/M53</f>
+        <v>440.06666666666666</v>
       </c>
       <c r="R53" t="s">
         <v>4</v>
       </c>
       <c r="S53">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T53">
         <v>1</v>
       </c>
       <c r="U53">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="V53" s="1">
         <v>1.8981479999999999</v>
       </c>
       <c r="W53">
-        <f t="shared" si="2"/>
-        <v>31.888888888888889</v>
+        <f>$C$3/U53</f>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -5387,58 +5435,58 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E54">
-        <v>14712</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="F54" s="1">
+        <v>41.435184999999997</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
-        <v>1.7947253942359978</v>
+        <f>$C$3/E54</f>
+        <v>330.05</v>
       </c>
       <c r="J54" t="s">
         <v>3</v>
       </c>
       <c r="K54">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="L54">
         <v>24</v>
       </c>
       <c r="M54">
-        <v>5664</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="N54" s="1">
+        <v>69.212963000000002</v>
       </c>
       <c r="O54">
-        <f t="shared" si="1"/>
-        <v>4.661723163841808</v>
+        <f>$C$3/M54</f>
+        <v>440.06666666666666</v>
       </c>
       <c r="R54" t="s">
         <v>4</v>
       </c>
       <c r="S54">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T54">
         <v>24</v>
       </c>
       <c r="U54">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="V54" s="1">
-        <v>4.1203700000000003</v>
+        <v>5.2314809999999996</v>
       </c>
       <c r="W54">
-        <f t="shared" si="2"/>
-        <v>45.524137931034481</v>
+        <f>$C$3/U54</f>
+        <v>46.16083916083916</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
@@ -5446,20 +5494,20 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>11520</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F55" s="1">
+        <v>32.870370000000001</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
-        <v>2.292013888888889</v>
+        <f>$C$3/E55</f>
+        <v>314.33333333333331</v>
       </c>
       <c r="R55" t="s">
         <v>4</v>
@@ -5477,7 +5525,7 @@
         <v>2.5462959999999999</v>
       </c>
       <c r="W55">
-        <f t="shared" si="2"/>
+        <f>$C$3/U55</f>
         <v>32.517241379310342</v>
       </c>
     </row>
@@ -5498,7 +5546,7 @@
         <v>5.8796299999999997</v>
       </c>
       <c r="W56">
-        <f t="shared" si="2"/>
+        <f>$C$3/U56</f>
         <v>43.42763157894737</v>
       </c>
     </row>
@@ -5507,20 +5555,20 @@
         <v>4</v>
       </c>
       <c r="S57">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T57">
         <v>1</v>
       </c>
       <c r="U57">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="V57" s="1">
-        <v>3.3333330000000001</v>
+        <v>1.111111</v>
       </c>
       <c r="W57">
-        <f t="shared" si="2"/>
-        <v>33.005000000000003</v>
+        <f>$C$3/U57</f>
+        <v>32.840796019900495</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
@@ -5528,20 +5576,20 @@
         <v>4</v>
       </c>
       <c r="S58">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T58">
         <v>24</v>
       </c>
       <c r="U58">
-        <v>560</v>
+        <v>612</v>
       </c>
       <c r="V58" s="1">
-        <v>7.3148150000000003</v>
+        <v>7.4537040000000001</v>
       </c>
       <c r="W58">
-        <f t="shared" si="2"/>
-        <v>47.15</v>
+        <f>$C$3/U58</f>
+        <v>43.143790849673202</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
@@ -5549,20 +5597,20 @@
         <v>4</v>
       </c>
       <c r="S59">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T59">
         <v>1</v>
       </c>
       <c r="U59">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="V59" s="1">
-        <v>3.0092590000000001</v>
+        <v>3.3333330000000001</v>
       </c>
       <c r="W59">
-        <f t="shared" si="2"/>
-        <v>33.507614213197968</v>
+        <f>$C$3/U59</f>
+        <v>33.005000000000003</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
@@ -5570,20 +5618,20 @@
         <v>4</v>
       </c>
       <c r="S60">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T60">
         <v>24</v>
       </c>
       <c r="U60">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="V60" s="1">
-        <v>6.9907409999999999</v>
+        <v>7.3148150000000003</v>
       </c>
       <c r="W60">
-        <f t="shared" si="2"/>
-        <v>48.182481751824817</v>
+        <f>$C$3/U60</f>
+        <v>47.15</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
@@ -5591,20 +5639,20 @@
         <v>4</v>
       </c>
       <c r="S61">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="T61">
         <v>1</v>
       </c>
       <c r="U61">
-        <v>2724</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
+        <v>792</v>
+      </c>
+      <c r="V61" s="1">
+        <v>3.0092590000000001</v>
       </c>
       <c r="W61">
-        <f t="shared" si="2"/>
-        <v>9.6930983847283407</v>
+        <f>$C$3/U61</f>
+        <v>33.338383838383841</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
@@ -5612,20 +5660,20 @@
         <v>4</v>
       </c>
       <c r="S62">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="T62">
         <v>24</v>
       </c>
       <c r="U62">
-        <v>1956</v>
-      </c>
-      <c r="V62">
-        <v>0.32407399999999997</v>
+        <v>548</v>
+      </c>
+      <c r="V62" s="1">
+        <v>7.3148150000000003</v>
       </c>
       <c r="W62">
-        <f t="shared" si="2"/>
-        <v>13.498977505112475</v>
+        <f>$C$3/U62</f>
+        <v>48.182481751824817</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
@@ -5633,20 +5681,20 @@
         <v>4</v>
       </c>
       <c r="S63">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="T63">
         <v>1</v>
       </c>
       <c r="U63">
-        <v>1584</v>
-      </c>
-      <c r="V63">
-        <v>0.78703699999999999</v>
+        <v>788</v>
+      </c>
+      <c r="V63" s="1">
+        <v>3.0092590000000001</v>
       </c>
       <c r="W63">
-        <f t="shared" si="2"/>
-        <v>16.66919191919192</v>
+        <f>$C$3/U63</f>
+        <v>33.507614213197968</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
@@ -5654,20 +5702,20 @@
         <v>4</v>
       </c>
       <c r="S64">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="T64">
         <v>24</v>
       </c>
       <c r="U64">
-        <v>1204</v>
-      </c>
-      <c r="V64">
-        <v>0.78703699999999999</v>
+        <v>548</v>
+      </c>
+      <c r="V64" s="1">
+        <v>6.9907409999999999</v>
       </c>
       <c r="W64">
-        <f t="shared" si="2"/>
-        <v>21.930232558139537</v>
+        <f>$C$3/U64</f>
+        <v>48.182481751824817</v>
       </c>
     </row>
     <row r="65" spans="18:23" x14ac:dyDescent="0.25">
@@ -5675,20 +5723,20 @@
         <v>4</v>
       </c>
       <c r="S65">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="T65">
         <v>1</v>
       </c>
       <c r="U65">
-        <v>1268</v>
-      </c>
-      <c r="V65">
-        <v>0.32407399999999997</v>
+        <v>780</v>
+      </c>
+      <c r="V65" s="1">
+        <v>3.7962959999999999</v>
       </c>
       <c r="W65">
-        <f t="shared" si="2"/>
-        <v>20.823343848580443</v>
+        <f>$C$3/U65</f>
+        <v>33.851282051282048</v>
       </c>
     </row>
     <row r="66" spans="18:23" x14ac:dyDescent="0.25">
@@ -5696,23 +5744,26 @@
         <v>4</v>
       </c>
       <c r="S66">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="T66">
         <v>24</v>
       </c>
       <c r="U66">
-        <v>964</v>
+        <v>540</v>
       </c>
       <c r="V66" s="1">
-        <v>1.7592589999999999</v>
+        <v>8.1018519999999992</v>
       </c>
       <c r="W66">
-        <f t="shared" si="2"/>
-        <v>27.390041493775932</v>
+        <f>$C$3/U66</f>
+        <v>48.896296296296299</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B5:G55">
+    <sortCondition ref="C5:C55"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
@@ -15,7 +15,7 @@
     <sheet name="mpeg4" sheetId="8" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="19">
   <si>
     <t>original size</t>
   </si>
@@ -62,11 +62,32 @@
   <si>
     <t>qscale</t>
   </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>0.324074</t>
+  </si>
+  <si>
+    <t>0.648148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000 </t>
+  </si>
+  <si>
+    <t>0.787037</t>
+  </si>
+  <si>
+    <t>jp2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,7 +122,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,9 +138,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -161,6 +182,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -381,7 +403,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D285-4029-9E0F-22CD3577BBD4}"/>
             </c:ext>
@@ -548,7 +570,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D285-4029-9E0F-22CD3577BBD4}"/>
             </c:ext>
@@ -787,11 +809,227 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D285-4029-9E0F-22CD3577BBD4}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>jp2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$5:$AD$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1.0851553509781358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0851553509781358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5276556352696136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8331019161344071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1150272348606216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4994320333207121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.749271137026239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.054604349838038</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.054604349838038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.584027777777778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4962531223980013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5751689189189193</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9630801687763713</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$5:$AC$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -801,11 +1039,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301484912"/>
-        <c:axId val="301485568"/>
+        <c:axId val="401205824"/>
+        <c:axId val="401201512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301484912"/>
+        <c:axId val="401205824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,12 +1114,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301485568"/>
+        <c:crossAx val="401201512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301485568"/>
+        <c:axId val="401201512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +1190,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301484912"/>
+        <c:crossAx val="401205824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -966,6 +1204,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1028,9 +1267,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1067,6 +1306,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1281,7 +1521,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B252-4A64-A3A5-E10538E0B150}"/>
             </c:ext>
@@ -1454,7 +1694,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B252-4A64-A3A5-E10538E0B150}"/>
             </c:ext>
@@ -1693,11 +1933,227 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B252-4A64-A3A5-E10538E0B150}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>jp2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$5:$AD$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1.0851553509781358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0851553509781358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5276556352696136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8331019161344071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1150272348606216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4994320333207121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.749271137026239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.054604349838038</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.054604349838038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.584027777777778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4962531223980013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5751689189189193</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9630801687763713</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$5:$AC$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1707,11 +2163,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="387121648"/>
-        <c:axId val="387122632"/>
+        <c:axId val="401205432"/>
+        <c:axId val="401198768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="387121648"/>
+        <c:axId val="401205432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,12 +2238,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387122632"/>
+        <c:crossAx val="401198768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387122632"/>
+        <c:axId val="401198768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,7 +2314,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387121648"/>
+        <c:crossAx val="401205432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1872,6 +2328,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1934,9 +2391,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1973,6 +2430,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2181,7 +2639,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DF8D-45A0-8E36-E537B8795729}"/>
             </c:ext>
@@ -2348,7 +2806,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DF8D-45A0-8E36-E537B8795729}"/>
             </c:ext>
@@ -2587,11 +3045,227 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DF8D-45A0-8E36-E537B8795729}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>jp2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$5:$AD$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1.0851553509781358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0851553509781358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5276556352696136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8331019161344071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1150272348606216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4994320333207121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.749271137026239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.054604349838038</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.054604349838038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.584027777777778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4962531223980013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5751689189189193</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9630801687763713</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$5:$AC$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2601,11 +3275,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385166744"/>
-        <c:axId val="385164448"/>
+        <c:axId val="401202688"/>
+        <c:axId val="401205040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385166744"/>
+        <c:axId val="401202688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2676,12 +3350,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385164448"/>
+        <c:crossAx val="401205040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385164448"/>
+        <c:axId val="401205040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,7 +3426,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385166744"/>
+        <c:crossAx val="401202688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2766,6 +3440,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2828,9 +3503,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2867,6 +3542,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3087,7 +3763,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-612C-4D05-B8AA-CCAD68B49667}"/>
             </c:ext>
@@ -3272,7 +3948,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-612C-4D05-B8AA-CCAD68B49667}"/>
             </c:ext>
@@ -3451,11 +4127,227 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-612C-4D05-B8AA-CCAD68B49667}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>JP2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$5:$AD$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1.0851553509781358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0851553509781358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5276556352696136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8331019161344071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1150272348606216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4994320333207121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.749271137026239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.054604349838038</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.054604349838038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.584027777777778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4962531223980013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5751689189189193</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9630801687763713</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$5:$AC$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3465,11 +4357,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="384128112"/>
-        <c:axId val="384128768"/>
+        <c:axId val="401203472"/>
+        <c:axId val="401203864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="384128112"/>
+        <c:axId val="401203472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3540,12 +4432,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384128768"/>
+        <c:crossAx val="401203864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="384128768"/>
+        <c:axId val="401203864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3616,7 +4508,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384128112"/>
+        <c:crossAx val="401203472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3630,6 +4522,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3692,9 +4585,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3872,7 +4765,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-49C1-44D4-AFA2-5833A1D8535E}"/>
             </c:ext>
@@ -4045,7 +4938,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-49C1-44D4-AFA2-5833A1D8535E}"/>
             </c:ext>
@@ -4212,11 +5105,227 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-49C1-44D4-AFA2-5833A1D8535E}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>JP2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$5:$AD$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1.0851553509781358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0851553509781358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5276556352696136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8331019161344071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1150272348606216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4994320333207121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.749271137026239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.054604349838038</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.054604349838038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.584027777777778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4962531223980013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5751689189189193</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9630801687763713</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$5:$AC$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4226,11 +5335,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="384134672"/>
-        <c:axId val="384134344"/>
+        <c:axId val="418805992"/>
+        <c:axId val="418806384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="384134672"/>
+        <c:axId val="418805992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4301,12 +5410,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384134344"/>
+        <c:crossAx val="418806384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="384134344"/>
+        <c:axId val="418806384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4377,7 +5486,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384134672"/>
+        <c:crossAx val="418805992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4391,6 +5500,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4453,9 +5563,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4492,6 +5602,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4760,7 +5871,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3347-428F-8A08-76C3C577EB41}"/>
             </c:ext>
@@ -4999,7 +6110,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3347-428F-8A08-76C3C577EB41}"/>
             </c:ext>
@@ -5238,11 +6349,227 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3347-428F-8A08-76C3C577EB41}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>JP2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$5:$AD$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1.0851553509781358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0851553509781358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5276556352696136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8331019161344071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1150272348606216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4994320333207121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.749271137026239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.054604349838038</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.054604349838038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.584027777777778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4962531223980013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5751689189189193</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9630801687763713</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.1553398058252426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$5:$AC$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5252,11 +6579,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="388123424"/>
-        <c:axId val="388124736"/>
+        <c:axId val="418810304"/>
+        <c:axId val="418805208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="388123424"/>
+        <c:axId val="418810304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5327,12 +6654,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388124736"/>
+        <c:crossAx val="418805208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388124736"/>
+        <c:axId val="418805208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5403,7 +6730,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388123424"/>
+        <c:crossAx val="418810304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5417,6 +6744,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8818,7 +10146,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8829,7 +10157,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8840,7 +10168,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8851,7 +10179,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8862,7 +10190,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8873,7 +10201,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8884,13 +10212,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:ext cx="9304020" cy="6019800"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E8F331-C253-439C-B3D1-3AD22E973ABD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58E8F331-C253-439C-B3D1-3AD22E973ABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8917,13 +10245,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:ext cx="9304020" cy="6019800"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E00430-68ED-4ECB-8768-746562E49869}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3E00430-68ED-4ECB-8768-746562E49869}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8950,13 +10278,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:ext cx="9304020" cy="6019800"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A00B3B-1CDE-4762-8D33-2961CAA9EC0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9A00B3B-1CDE-4762-8D33-2961CAA9EC0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8983,13 +10311,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:ext cx="9304020" cy="6019800"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59758313-3158-475B-AA96-AD219374597F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59758313-3158-475B-AA96-AD219374597F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9016,13 +10344,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:ext cx="9304020" cy="6019800"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CD7BF8-148D-44CF-B0C7-25E2BAF6F3F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43CD7BF8-148D-44CF-B0C7-25E2BAF6F3F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9049,13 +10377,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:ext cx="9304020" cy="6019800"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BEBACB8-7D85-4E4B-A90B-21C318BEBA6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BEBACB8-7D85-4E4B-A90B-21C318BEBA6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9341,20 +10669,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:W97"/>
+  <dimension ref="B3:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -9365,7 +10693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -9420,8 +10748,23 @@
       <c r="W4" t="s">
         <v>10</v>
       </c>
+      <c r="Z4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -9438,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <f>$C$3/E5</f>
+        <f t="shared" ref="G5:G50" si="0">$C$3/E5</f>
         <v>1.1718444878395171</v>
       </c>
       <c r="J5" t="s">
@@ -9457,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <f>$C$3/M5</f>
+        <f t="shared" ref="O5:O36" si="1">$C$3/M5</f>
         <v>1.6804989816700611</v>
       </c>
       <c r="R5" t="s">
@@ -9476,11 +10819,27 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <f>$C$3/U5</f>
+        <f t="shared" ref="W5:W36" si="2">$C$3/U5</f>
         <v>5.0274181264280271</v>
       </c>
+      <c r="Z5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>24332</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD5">
+        <f>$C$3/AB5</f>
+        <v>1.0851553509781358</v>
+      </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -9497,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <f>$C$3/E6</f>
+        <f t="shared" si="0"/>
         <v>1.1840358744394619</v>
       </c>
       <c r="J6" t="s">
@@ -9516,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <f>$C$3/M6</f>
+        <f t="shared" si="1"/>
         <v>2.0506368437402922</v>
       </c>
       <c r="R6" t="s">
@@ -9535,11 +10894,27 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <f>$C$3/U6</f>
+        <f t="shared" si="2"/>
         <v>5.0274181264280271</v>
       </c>
+      <c r="Z6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>24332</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD6">
+        <f>$C$3/AB6</f>
+        <v>1.0851553509781358</v>
+      </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -9556,7 +10931,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <f>$C$3/E7</f>
+        <f t="shared" si="0"/>
         <v>1.3316522089973775</v>
       </c>
       <c r="J7" t="s">
@@ -9575,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <f>$C$3/M7</f>
+        <f t="shared" si="1"/>
         <v>2.5704828660436139</v>
       </c>
       <c r="R7" t="s">
@@ -9594,11 +10969,27 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W7">
-        <f>$C$3/U7</f>
+        <f t="shared" si="2"/>
         <v>7.666666666666667</v>
       </c>
+      <c r="Z7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <v>21896</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7">
+        <f>$C$3/AB7</f>
+        <v>1.2058823529411764</v>
+      </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -9615,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <f>$C$3/E8</f>
+        <f t="shared" si="0"/>
         <v>1.5237765466297322</v>
       </c>
       <c r="J8" t="s">
@@ -9634,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <f>$C$3/M8</f>
+        <f t="shared" si="1"/>
         <v>3.3764705882352941</v>
       </c>
       <c r="R8" t="s">
@@ -9653,11 +11044,27 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <f>$C$3/U8</f>
+        <f t="shared" si="2"/>
         <v>9.6930983847283407</v>
       </c>
+      <c r="Z8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA8">
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <v>17284</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8">
+        <f>$C$3/AB8</f>
+        <v>1.5276556352696136</v>
+      </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -9674,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <f>$C$3/E9</f>
+        <f t="shared" si="0"/>
         <v>1.7947253942359978</v>
       </c>
       <c r="J9" t="s">
@@ -9693,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <f>$C$3/M9</f>
+        <f t="shared" si="1"/>
         <v>4.661723163841808</v>
       </c>
       <c r="R9" t="s">
@@ -9712,11 +11119,27 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="W9">
-        <f>$C$3/U9</f>
+        <f t="shared" si="2"/>
         <v>12.917808219178083</v>
       </c>
+      <c r="Z9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA9">
+        <v>5</v>
+      </c>
+      <c r="AB9">
+        <v>14404</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD9">
+        <f>$C$3/AB9</f>
+        <v>1.8331019161344071</v>
+      </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -9733,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <f>$C$3/E10</f>
+        <f t="shared" si="0"/>
         <v>2.1901128069011282</v>
       </c>
       <c r="J10" t="s">
@@ -9752,7 +11175,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O10">
-        <f>$C$3/M10</f>
+        <f t="shared" si="1"/>
         <v>6.640845070422535</v>
       </c>
       <c r="R10" t="s">
@@ -9771,11 +11194,27 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="W10">
-        <f>$C$3/U10</f>
+        <f t="shared" si="2"/>
         <v>16.66919191919192</v>
       </c>
+      <c r="Z10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA10">
+        <v>6</v>
+      </c>
+      <c r="AB10">
+        <v>12484</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD10">
+        <f>$C$3/AB10</f>
+        <v>2.1150272348606216</v>
+      </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -9792,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <f>$C$3/E11</f>
+        <f t="shared" si="0"/>
         <v>2.8637744034707158</v>
       </c>
       <c r="J11" t="s">
@@ -9811,7 +11250,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <f>$C$3/M11</f>
+        <f t="shared" si="1"/>
         <v>9.5805515239477508</v>
       </c>
       <c r="R11" t="s">
@@ -9830,11 +11269,27 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W11">
-        <f>$C$3/U11</f>
+        <f t="shared" si="2"/>
         <v>19.188953488372093</v>
       </c>
+      <c r="Z11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA11">
+        <v>7</v>
+      </c>
+      <c r="AB11">
+        <v>10564</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD11">
+        <f>$C$3/AB11</f>
+        <v>2.4994320333207121</v>
+      </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -9851,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <f>$C$3/E12</f>
+        <f t="shared" si="0"/>
         <v>4.193773824650572</v>
       </c>
       <c r="J12" t="s">
@@ -9870,7 +11325,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O12">
-        <f>$C$3/M12</f>
+        <f t="shared" si="1"/>
         <v>13.838574423480084</v>
       </c>
       <c r="R12" t="s">
@@ -9889,11 +11344,27 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W12">
-        <f>$C$3/U12</f>
+        <f t="shared" si="2"/>
         <v>20.823343848580443</v>
       </c>
+      <c r="Z12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA12">
+        <v>8</v>
+      </c>
+      <c r="AB12">
+        <v>9604</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD12">
+        <f>$C$3/AB12</f>
+        <v>2.749271137026239</v>
+      </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -9910,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f>$C$3/E13</f>
+        <f t="shared" si="0"/>
         <v>6.8688865764828302</v>
       </c>
       <c r="J13" t="s">
@@ -9929,7 +11400,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O13">
-        <f>$C$3/M13</f>
+        <f t="shared" si="1"/>
         <v>20.125</v>
       </c>
       <c r="R13" t="s">
@@ -9948,11 +11419,27 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="W13">
-        <f>$C$3/U13</f>
+        <f t="shared" si="2"/>
         <v>22.300675675675677</v>
       </c>
+      <c r="Z13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA13">
+        <v>9</v>
+      </c>
+      <c r="AB13">
+        <v>8644</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD13">
+        <f>$C$3/AB13</f>
+        <v>3.054604349838038</v>
+      </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -9969,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f>$C$3/E14</f>
+        <f t="shared" si="0"/>
         <v>10.681229773462784</v>
       </c>
       <c r="J14" t="s">
@@ -9988,7 +11475,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O14">
-        <f>$C$3/M14</f>
+        <f t="shared" si="1"/>
         <v>27.735294117647058</v>
       </c>
       <c r="R14" t="s">
@@ -10007,11 +11494,27 @@
         <v>0.64814799999999995</v>
       </c>
       <c r="W14">
-        <f>$C$3/U14</f>
+        <f t="shared" si="2"/>
         <v>23.574999999999999</v>
       </c>
+      <c r="Z14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA14">
+        <v>10</v>
+      </c>
+      <c r="AB14">
+        <v>8644</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD14">
+        <f>$C$3/AB14</f>
+        <v>3.054604349838038</v>
+      </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -10028,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <f>$C$3/E15</f>
+        <f t="shared" si="0"/>
         <v>15.568396226415095</v>
       </c>
       <c r="J15" t="s">
@@ -10047,7 +11550,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O15">
-        <f>$C$3/M15</f>
+        <f t="shared" si="1"/>
         <v>36.469613259668506</v>
       </c>
       <c r="R15" t="s">
@@ -10066,11 +11569,27 @@
         <v>1.111111</v>
       </c>
       <c r="W15">
-        <f>$C$3/U15</f>
+        <f t="shared" si="2"/>
         <v>24.722846441947567</v>
       </c>
+      <c r="Z15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA15">
+        <v>15</v>
+      </c>
+      <c r="AB15">
+        <v>6720</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD15">
+        <f>$C$3/AB15</f>
+        <v>3.9291666666666667</v>
+      </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -10087,7 +11606,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="G16">
-        <f>$C$3/E16</f>
+        <f t="shared" si="0"/>
         <v>22.003333333333334</v>
       </c>
       <c r="J16" t="s">
@@ -10106,7 +11625,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O16">
-        <f>$C$3/M16</f>
+        <f t="shared" si="1"/>
         <v>46.485915492957744</v>
       </c>
       <c r="R16" t="s">
@@ -10125,11 +11644,27 @@
         <v>1.111111</v>
       </c>
       <c r="W16">
-        <f>$C$3/U16</f>
+        <f t="shared" si="2"/>
         <v>25.585271317829456</v>
       </c>
+      <c r="Z16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA16">
+        <v>20</v>
+      </c>
+      <c r="AB16">
+        <v>5760</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD16">
+        <f>$C$3/AB16</f>
+        <v>4.584027777777778</v>
+      </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -10146,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f>$C$3/E17</f>
+        <f t="shared" si="0"/>
         <v>31.136792452830189</v>
       </c>
       <c r="J17" t="s">
@@ -10165,7 +11700,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="O17">
-        <f>$C$3/M17</f>
+        <f t="shared" si="1"/>
         <v>58.415929203539825</v>
       </c>
       <c r="R17" t="s">
@@ -10184,11 +11719,27 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="W17">
-        <f>$C$3/U17</f>
+        <f t="shared" si="2"/>
         <v>26.404</v>
       </c>
+      <c r="Z17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA17">
+        <v>25</v>
+      </c>
+      <c r="AB17">
+        <v>4804</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD17">
+        <f>$C$3/AB17</f>
+        <v>5.4962531223980013</v>
+      </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -10205,7 +11756,7 @@
         <v>0.64814799999999995</v>
       </c>
       <c r="G18">
-        <f>$C$3/E18</f>
+        <f t="shared" si="0"/>
         <v>44.904761904761905</v>
       </c>
       <c r="J18" t="s">
@@ -10224,7 +11775,7 @@
         <v>2.0833330000000001</v>
       </c>
       <c r="O18">
-        <f>$C$3/M18</f>
+        <f t="shared" si="1"/>
         <v>72.538461538461533</v>
       </c>
       <c r="R18" t="s">
@@ -10243,11 +11794,27 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="W18">
-        <f>$C$3/U18</f>
+        <f t="shared" si="2"/>
         <v>27.164609053497941</v>
       </c>
+      <c r="Z18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA18">
+        <v>30</v>
+      </c>
+      <c r="AB18">
+        <v>4736</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD18">
+        <f>$C$3/AB18</f>
+        <v>5.5751689189189193</v>
+      </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -10264,7 +11831,7 @@
         <v>1.111111</v>
       </c>
       <c r="G19">
-        <f>$C$3/E19</f>
+        <f t="shared" si="0"/>
         <v>55.940677966101696</v>
       </c>
       <c r="J19" t="s">
@@ -10283,7 +11850,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="O19">
-        <f>$C$3/M19</f>
+        <f t="shared" si="1"/>
         <v>88.013333333333335</v>
       </c>
       <c r="R19" t="s">
@@ -10302,11 +11869,27 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="W19">
-        <f>$C$3/U19</f>
+        <f t="shared" si="2"/>
         <v>27.852320675105485</v>
       </c>
+      <c r="Z19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA19">
+        <v>35</v>
+      </c>
+      <c r="AB19">
+        <v>3844</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD19">
+        <f>$C$3/AB19</f>
+        <v>6.8688865764828302</v>
+      </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -10323,7 +11906,7 @@
         <v>1.111111</v>
       </c>
       <c r="G20">
-        <f>$C$3/E20</f>
+        <f t="shared" si="0"/>
         <v>66.676767676767682</v>
       </c>
       <c r="J20" t="s">
@@ -10342,7 +11925,7 @@
         <v>2.5462959999999999</v>
       </c>
       <c r="O20">
-        <f>$C$3/M20</f>
+        <f t="shared" si="1"/>
         <v>106.46774193548387</v>
       </c>
       <c r="R20" t="s">
@@ -10361,11 +11944,27 @@
         <v>1.111111</v>
       </c>
       <c r="W20">
-        <f>$C$3/U20</f>
+        <f t="shared" si="2"/>
         <v>28.452586206896552</v>
       </c>
+      <c r="Z20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA20">
+        <v>40</v>
+      </c>
+      <c r="AB20">
+        <v>3844</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD20">
+        <f>$C$3/AB20</f>
+        <v>6.8688865764828302</v>
+      </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -10382,7 +11981,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="G21">
-        <f>$C$3/E21</f>
+        <f t="shared" si="0"/>
         <v>79.53012048192771</v>
       </c>
       <c r="J21" t="s">
@@ -10401,7 +12000,7 @@
         <v>4.4444439999999998</v>
       </c>
       <c r="O21">
-        <f>$C$3/M21</f>
+        <f t="shared" si="1"/>
         <v>129.43137254901961</v>
       </c>
       <c r="R21" t="s">
@@ -10420,11 +12019,27 @@
         <v>1.111111</v>
       </c>
       <c r="W21">
-        <f>$C$3/U21</f>
+        <f t="shared" si="2"/>
         <v>29.079295154185022</v>
       </c>
+      <c r="Z21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA21">
+        <v>45</v>
+      </c>
+      <c r="AB21">
+        <v>3844</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD21">
+        <f>$C$3/AB21</f>
+        <v>6.8688865764828302</v>
+      </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>2</v>
       </c>
@@ -10441,7 +12056,7 @@
         <v>2.2222219999999999</v>
       </c>
       <c r="G22">
-        <f>$C$3/E22</f>
+        <f t="shared" si="0"/>
         <v>94.3</v>
       </c>
       <c r="J22" t="s">
@@ -10460,7 +12075,7 @@
         <v>8.1018519999999992</v>
       </c>
       <c r="O22">
-        <f>$C$3/M22</f>
+        <f t="shared" si="1"/>
         <v>157.16666666666666</v>
       </c>
       <c r="R22" t="s">
@@ -10479,11 +12094,27 @@
         <v>1.7592589999999999</v>
       </c>
       <c r="W22">
-        <f>$C$3/U22</f>
+        <f t="shared" si="2"/>
         <v>29.46875</v>
       </c>
+      <c r="Z22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA22">
+        <v>50</v>
+      </c>
+      <c r="AB22">
+        <v>3844</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD22">
+        <f>$C$3/AB22</f>
+        <v>6.8688865764828302</v>
+      </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -10500,7 +12131,7 @@
         <v>1.8981479999999999</v>
       </c>
       <c r="G23">
-        <f>$C$3/E23</f>
+        <f t="shared" si="0"/>
         <v>111.88135593220339</v>
       </c>
       <c r="J23" t="s">
@@ -10519,7 +12150,7 @@
         <v>11.898148000000001</v>
       </c>
       <c r="O23">
-        <f>$C$3/M23</f>
+        <f t="shared" si="1"/>
         <v>188.6</v>
       </c>
       <c r="R23" t="s">
@@ -10538,11 +12169,27 @@
         <v>1.7592589999999999</v>
       </c>
       <c r="W23">
-        <f>$C$3/U23</f>
+        <f t="shared" si="2"/>
         <v>30.004545454545454</v>
       </c>
+      <c r="Z23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA23">
+        <v>55</v>
+      </c>
+      <c r="AB23">
+        <v>3844</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD23">
+        <f>$C$3/AB23</f>
+        <v>6.8688865764828302</v>
+      </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>2</v>
       </c>
@@ -10559,7 +12206,7 @@
         <v>2.8703699999999999</v>
       </c>
       <c r="G24">
-        <f>$C$3/E24</f>
+        <f t="shared" si="0"/>
         <v>129.43137254901961</v>
       </c>
       <c r="J24" t="s">
@@ -10578,7 +12225,7 @@
         <v>22.222221999999999</v>
       </c>
       <c r="O24">
-        <f>$C$3/M24</f>
+        <f t="shared" si="1"/>
         <v>227.62068965517241</v>
       </c>
       <c r="R24" t="s">
@@ -10597,11 +12244,27 @@
         <v>1.7592589999999999</v>
       </c>
       <c r="W24">
-        <f>$C$3/U24</f>
+        <f t="shared" si="2"/>
         <v>30.419354838709676</v>
       </c>
+      <c r="Z24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA24">
+        <v>60</v>
+      </c>
+      <c r="AB24">
+        <v>3792</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD24">
+        <f>$C$3/AB24</f>
+        <v>6.9630801687763713</v>
+      </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>2</v>
       </c>
@@ -10618,7 +12281,7 @@
         <v>5.5555560000000002</v>
       </c>
       <c r="G25">
-        <f>$C$3/E25</f>
+        <f t="shared" si="0"/>
         <v>150.02272727272728</v>
       </c>
       <c r="J25" t="s">
@@ -10637,7 +12300,7 @@
         <v>31.435185000000001</v>
       </c>
       <c r="O25">
-        <f>$C$3/M25</f>
+        <f t="shared" si="1"/>
         <v>275.04166666666669</v>
       </c>
       <c r="R25" t="s">
@@ -10656,11 +12319,27 @@
         <v>1.7592589999999999</v>
       </c>
       <c r="W25">
-        <f>$C$3/U25</f>
+        <f t="shared" si="2"/>
         <v>30.845794392523363</v>
       </c>
+      <c r="Z25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA25">
+        <v>65</v>
+      </c>
+      <c r="AB25">
+        <v>2884</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD25">
+        <f>$C$3/AB25</f>
+        <v>9.1553398058252426</v>
+      </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>2</v>
       </c>
@@ -10677,7 +12356,7 @@
         <v>8.5648149999999994</v>
       </c>
       <c r="G26">
-        <f>$C$3/E26</f>
+        <f t="shared" si="0"/>
         <v>173.71052631578948</v>
       </c>
       <c r="J26" t="s">
@@ -10696,7 +12375,7 @@
         <v>42.546295999999998</v>
       </c>
       <c r="O26">
-        <f>$C$3/M26</f>
+        <f t="shared" si="1"/>
         <v>330.05</v>
       </c>
       <c r="R26" t="s">
@@ -10715,11 +12394,27 @@
         <v>1.7592589999999999</v>
       </c>
       <c r="W26">
-        <f>$C$3/U26</f>
+        <f t="shared" si="2"/>
         <v>31.284360189573459</v>
       </c>
+      <c r="Z26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA26">
+        <v>70</v>
+      </c>
+      <c r="AB26">
+        <v>2884</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD26">
+        <f>$C$3/AB26</f>
+        <v>9.1553398058252426</v>
+      </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>2</v>
       </c>
@@ -10736,7 +12431,7 @@
         <v>15.092593000000001</v>
       </c>
       <c r="G27">
-        <f>$C$3/E27</f>
+        <f t="shared" si="0"/>
         <v>194.14705882352942</v>
       </c>
       <c r="J27" t="s">
@@ -10755,7 +12450,7 @@
         <v>53.657406999999999</v>
       </c>
       <c r="O27">
-        <f>$C$3/M27</f>
+        <f t="shared" si="1"/>
         <v>366.72222222222223</v>
       </c>
       <c r="R27" t="s">
@@ -10774,11 +12469,27 @@
         <v>1.111111</v>
       </c>
       <c r="W27">
-        <f>$C$3/U27</f>
+        <f t="shared" si="2"/>
         <v>31.583732057416267</v>
       </c>
+      <c r="Z27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA27">
+        <v>75</v>
+      </c>
+      <c r="AB27">
+        <v>2884</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD27">
+        <f>$C$3/AB27</f>
+        <v>9.1553398058252426</v>
+      </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>2</v>
       </c>
@@ -10795,7 +12506,7 @@
         <v>21.759259</v>
       </c>
       <c r="G28">
-        <f>$C$3/E28</f>
+        <f t="shared" si="0"/>
         <v>227.62068965517241</v>
       </c>
       <c r="J28" t="s">
@@ -10814,7 +12525,7 @@
         <v>66.203704000000002</v>
       </c>
       <c r="O28">
-        <f>$C$3/M28</f>
+        <f t="shared" si="1"/>
         <v>412.5625</v>
       </c>
       <c r="R28" t="s">
@@ -10833,11 +12544,27 @@
         <v>1.8981479999999999</v>
       </c>
       <c r="W28">
-        <f>$C$3/U28</f>
+        <f t="shared" si="2"/>
         <v>31.888888888888889</v>
       </c>
+      <c r="Z28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA28">
+        <v>80</v>
+      </c>
+      <c r="AB28">
+        <v>2884</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD28">
+        <f>$C$3/AB28</f>
+        <v>9.1553398058252426</v>
+      </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -10854,7 +12581,7 @@
         <v>28.101852000000001</v>
       </c>
       <c r="G29">
-        <f>$C$3/E29</f>
+        <f t="shared" si="0"/>
         <v>253.88461538461539</v>
       </c>
       <c r="J29" t="s">
@@ -10873,7 +12600,7 @@
         <v>69.212963000000002</v>
       </c>
       <c r="O29">
-        <f>$C$3/M29</f>
+        <f t="shared" si="1"/>
         <v>440.06666666666666</v>
       </c>
       <c r="R29" t="s">
@@ -10892,11 +12619,27 @@
         <v>1.8981479999999999</v>
       </c>
       <c r="W29">
-        <f>$C$3/U29</f>
+        <f t="shared" si="2"/>
         <v>32.200000000000003</v>
       </c>
+      <c r="Z29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA29">
+        <v>85</v>
+      </c>
+      <c r="AB29">
+        <v>2884</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD29">
+        <f>$C$3/AB29</f>
+        <v>9.1553398058252426</v>
+      </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>2</v>
       </c>
@@ -10913,7 +12656,7 @@
         <v>32.870370000000001</v>
       </c>
       <c r="G30">
-        <f>$C$3/E30</f>
+        <f t="shared" si="0"/>
         <v>314.33333333333331</v>
       </c>
       <c r="J30" t="s">
@@ -10932,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <f>$C$3/M30</f>
+        <f t="shared" si="1"/>
         <v>1.6804989816700611</v>
       </c>
       <c r="R30" t="s">
@@ -10951,11 +12694,27 @@
         <v>2.5462959999999999</v>
       </c>
       <c r="W30">
-        <f>$C$3/U30</f>
+        <f t="shared" si="2"/>
         <v>32.517241379310342</v>
       </c>
+      <c r="Z30" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA30">
+        <v>90</v>
+      </c>
+      <c r="AB30">
+        <v>2884</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD30">
+        <f>$C$3/AB30</f>
+        <v>9.1553398058252426</v>
+      </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>2</v>
       </c>
@@ -10972,7 +12731,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <f>$C$3/E31</f>
+        <f t="shared" si="0"/>
         <v>1.1893693693693694</v>
       </c>
       <c r="J31" t="s">
@@ -10991,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <f>$C$3/M31</f>
+        <f t="shared" si="1"/>
         <v>2.0506368437402922</v>
       </c>
       <c r="R31" t="s">
@@ -11010,11 +12769,27 @@
         <v>1.111111</v>
       </c>
       <c r="W31">
-        <f>$C$3/U31</f>
+        <f t="shared" si="2"/>
         <v>32.840796019900495</v>
       </c>
+      <c r="Z31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA31">
+        <v>95</v>
+      </c>
+      <c r="AB31">
+        <v>2884</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD31">
+        <f>$C$3/AB31</f>
+        <v>9.1553398058252426</v>
+      </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>2</v>
       </c>
@@ -11031,7 +12806,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <f>$C$3/E32</f>
+        <f t="shared" si="0"/>
         <v>1.2874975619270528</v>
       </c>
       <c r="J32" t="s">
@@ -11050,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <f>$C$3/M32</f>
+        <f t="shared" si="1"/>
         <v>2.5704828660436139</v>
       </c>
       <c r="R32" t="s">
@@ -11069,8 +12844,24 @@
         <v>3.3333330000000001</v>
       </c>
       <c r="W32">
-        <f>$C$3/U32</f>
+        <f t="shared" si="2"/>
         <v>33.005000000000003</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA32">
+        <v>100</v>
+      </c>
+      <c r="AB32">
+        <v>2884</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD32">
+        <f>$C$3/AB32</f>
+        <v>9.1553398058252426</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
@@ -11090,7 +12881,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <f>$C$3/E33</f>
+        <f t="shared" si="0"/>
         <v>1.4652608213096558</v>
       </c>
       <c r="J33" t="s">
@@ -11109,7 +12900,7 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <f>$C$3/M33</f>
+        <f t="shared" si="1"/>
         <v>3.3764705882352941</v>
       </c>
       <c r="R33" t="s">
@@ -11128,7 +12919,7 @@
         <v>3.0092590000000001</v>
       </c>
       <c r="W33">
-        <f>$C$3/U33</f>
+        <f t="shared" si="2"/>
         <v>33.338383838383841</v>
       </c>
     </row>
@@ -11149,7 +12940,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <f>$C$3/E34</f>
+        <f t="shared" si="0"/>
         <v>1.7141002337055311</v>
       </c>
       <c r="J34" t="s">
@@ -11168,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <f>$C$3/M34</f>
+        <f t="shared" si="1"/>
         <v>4.661723163841808</v>
       </c>
       <c r="R34" t="s">
@@ -11187,7 +12978,7 @@
         <v>3.0092590000000001</v>
       </c>
       <c r="W34">
-        <f>$C$3/U34</f>
+        <f t="shared" si="2"/>
         <v>33.507614213197968</v>
       </c>
     </row>
@@ -11208,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <f>$C$3/E35</f>
+        <f t="shared" si="0"/>
         <v>2.0764391318024535</v>
       </c>
       <c r="J35" t="s">
@@ -11227,7 +13018,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O35">
-        <f>$C$3/M35</f>
+        <f t="shared" si="1"/>
         <v>6.640845070422535</v>
       </c>
       <c r="R35" t="s">
@@ -11246,7 +13037,7 @@
         <v>3.7962959999999999</v>
       </c>
       <c r="W35">
-        <f>$C$3/U35</f>
+        <f t="shared" si="2"/>
         <v>33.851282051282048</v>
       </c>
     </row>
@@ -11267,7 +13058,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <f>$C$3/E36</f>
+        <f t="shared" si="0"/>
         <v>2.6670707070707071</v>
       </c>
       <c r="J36" t="s">
@@ -11286,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <f>$C$3/M36</f>
+        <f t="shared" si="1"/>
         <v>9.5805515239477508</v>
       </c>
       <c r="R36" t="s">
@@ -11305,7 +13096,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W36">
-        <f>$C$3/U36</f>
+        <f t="shared" si="2"/>
         <v>6.4715686274509805</v>
       </c>
     </row>
@@ -11326,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <f>$C$3/E37</f>
+        <f t="shared" si="0"/>
         <v>3.7209695603156709</v>
       </c>
       <c r="J37" t="s">
@@ -11345,7 +13136,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O37">
-        <f>$C$3/M37</f>
+        <f t="shared" ref="O37:O68" si="3">$C$3/M37</f>
         <v>13.838574423480084</v>
       </c>
       <c r="R37" t="s">
@@ -11364,7 +13155,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W37">
-        <f>$C$3/U37</f>
+        <f t="shared" ref="W37:W68" si="4">$C$3/U37</f>
         <v>6.497047244094488</v>
       </c>
     </row>
@@ -11385,7 +13176,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <f>$C$3/E38</f>
+        <f t="shared" si="0"/>
         <v>5.6758383490971624</v>
       </c>
       <c r="J38" t="s">
@@ -11404,7 +13195,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O38">
-        <f>$C$3/M38</f>
+        <f t="shared" si="3"/>
         <v>20.125</v>
       </c>
       <c r="R38" t="s">
@@ -11423,7 +13214,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W38">
-        <f>$C$3/U38</f>
+        <f t="shared" si="4"/>
         <v>10.108728943338438</v>
       </c>
     </row>
@@ -11444,7 +13235,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="G39">
-        <f>$C$3/E39</f>
+        <f t="shared" si="0"/>
         <v>8.9202702702702705</v>
       </c>
       <c r="J39" t="s">
@@ -11463,7 +13254,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O39">
-        <f>$C$3/M39</f>
+        <f t="shared" si="3"/>
         <v>27.735294117647058</v>
       </c>
       <c r="R39" t="s">
@@ -11482,7 +13273,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W39">
-        <f>$C$3/U39</f>
+        <f t="shared" si="4"/>
         <v>13.045454545454545</v>
       </c>
     </row>
@@ -11503,7 +13294,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="G40">
-        <f>$C$3/E40</f>
+        <f t="shared" si="0"/>
         <v>13.443991853360489</v>
       </c>
       <c r="J40" t="s">
@@ -11522,7 +13313,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O40">
-        <f>$C$3/M40</f>
+        <f t="shared" si="3"/>
         <v>36.469613259668506</v>
       </c>
       <c r="R40" t="s">
@@ -11541,7 +13332,7 @@
         <v>0.64814799999999995</v>
       </c>
       <c r="W40">
-        <f>$C$3/U40</f>
+        <f t="shared" si="4"/>
         <v>17.145454545454545</v>
       </c>
     </row>
@@ -11562,7 +13353,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="G41">
-        <f>$C$3/E41</f>
+        <f t="shared" si="0"/>
         <v>18.914040114613179</v>
       </c>
       <c r="J41" t="s">
@@ -11581,7 +13372,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O41">
-        <f>$C$3/M41</f>
+        <f t="shared" si="3"/>
         <v>46.485915492957744</v>
       </c>
       <c r="R41" t="s">
@@ -11600,7 +13391,7 @@
         <v>0.64814799999999995</v>
       </c>
       <c r="W41">
-        <f>$C$3/U41</f>
+        <f t="shared" si="4"/>
         <v>21.713815789473685</v>
       </c>
     </row>
@@ -11621,7 +13412,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="G42">
-        <f>$C$3/E42</f>
+        <f t="shared" si="0"/>
         <v>26.404</v>
       </c>
       <c r="J42" t="s">
@@ -11640,7 +13431,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="O42">
-        <f>$C$3/M42</f>
+        <f t="shared" si="3"/>
         <v>58.415929203539825</v>
       </c>
       <c r="R42" t="s">
@@ -11659,7 +13450,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W42">
-        <f>$C$3/U42</f>
+        <f t="shared" si="4"/>
         <v>24.909433962264149</v>
       </c>
     </row>
@@ -11680,7 +13471,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="G43">
-        <f>$C$3/E43</f>
+        <f t="shared" si="0"/>
         <v>35.875</v>
       </c>
       <c r="J43" t="s">
@@ -11699,7 +13490,7 @@
         <v>2.0833330000000001</v>
       </c>
       <c r="O43">
-        <f>$C$3/M43</f>
+        <f t="shared" si="3"/>
         <v>72.538461538461533</v>
       </c>
       <c r="R43" t="s">
@@ -11718,7 +13509,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="W43">
-        <f>$C$3/U43</f>
+        <f t="shared" si="4"/>
         <v>27.164609053497941</v>
       </c>
     </row>
@@ -11739,7 +13530,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="G44">
-        <f>$C$3/E44</f>
+        <f t="shared" si="0"/>
         <v>49.261194029850749</v>
       </c>
       <c r="J44" t="s">
@@ -11758,7 +13549,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="O44">
-        <f>$C$3/M44</f>
+        <f t="shared" si="3"/>
         <v>88.013333333333335</v>
       </c>
       <c r="R44" t="s">
@@ -11777,7 +13568,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="W44">
-        <f>$C$3/U44</f>
+        <f t="shared" si="4"/>
         <v>28.20940170940171</v>
       </c>
     </row>
@@ -11798,7 +13589,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="G45">
-        <f>$C$3/E45</f>
+        <f t="shared" si="0"/>
         <v>61.691588785046726</v>
       </c>
       <c r="J45" t="s">
@@ -11817,7 +13608,7 @@
         <v>2.5462959999999999</v>
       </c>
       <c r="O45">
-        <f>$C$3/M45</f>
+        <f t="shared" si="3"/>
         <v>106.46774193548387</v>
       </c>
       <c r="R45" t="s">
@@ -11836,7 +13627,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="W45">
-        <f>$C$3/U45</f>
+        <f t="shared" si="4"/>
         <v>31.136792452830189</v>
       </c>
     </row>
@@ -11857,7 +13648,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="G46">
-        <f>$C$3/E46</f>
+        <f t="shared" si="0"/>
         <v>74.168539325842701</v>
       </c>
       <c r="J46" t="s">
@@ -11876,7 +13667,7 @@
         <v>4.4444439999999998</v>
       </c>
       <c r="O46">
-        <f>$C$3/M46</f>
+        <f t="shared" si="3"/>
         <v>129.43137254901961</v>
       </c>
       <c r="R46" t="s">
@@ -11895,7 +13686,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="W46">
-        <f>$C$3/U46</f>
+        <f t="shared" si="4"/>
         <v>31.583732057416267</v>
       </c>
     </row>
@@ -11916,7 +13707,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="G47">
-        <f>$C$3/E47</f>
+        <f t="shared" si="0"/>
         <v>88.013333333333335</v>
       </c>
       <c r="J47" t="s">
@@ -11935,7 +13726,7 @@
         <v>8.1018519999999992</v>
       </c>
       <c r="O47">
-        <f>$C$3/M47</f>
+        <f t="shared" si="3"/>
         <v>157.16666666666666</v>
       </c>
       <c r="R47" t="s">
@@ -11954,7 +13745,7 @@
         <v>1.111111</v>
       </c>
       <c r="W47">
-        <f>$C$3/U47</f>
+        <f t="shared" si="4"/>
         <v>32.678217821782177</v>
       </c>
     </row>
@@ -11975,7 +13766,7 @@
         <v>2.2222219999999999</v>
       </c>
       <c r="G48">
-        <f>$C$3/E48</f>
+        <f t="shared" si="0"/>
         <v>104.77777777777777</v>
       </c>
       <c r="J48" t="s">
@@ -11994,7 +13785,7 @@
         <v>8.8888890000000007</v>
       </c>
       <c r="O48">
-        <f>$C$3/M48</f>
+        <f t="shared" si="3"/>
         <v>169.25641025641025</v>
       </c>
       <c r="R48" t="s">
@@ -12013,7 +13804,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="W48">
-        <f>$C$3/U48</f>
+        <f t="shared" si="4"/>
         <v>35.299465240641709</v>
       </c>
     </row>
@@ -12034,7 +13825,7 @@
         <v>4.1203700000000003</v>
       </c>
       <c r="G49">
-        <f>$C$3/E49</f>
+        <f t="shared" si="0"/>
         <v>124.54716981132076</v>
       </c>
       <c r="J49" t="s">
@@ -12053,7 +13844,7 @@
         <v>11.898148000000001</v>
       </c>
       <c r="O49">
-        <f>$C$3/M49</f>
+        <f t="shared" si="3"/>
         <v>188.6</v>
       </c>
       <c r="R49" t="s">
@@ -12072,7 +13863,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="W49">
-        <f>$C$3/U49</f>
+        <f t="shared" si="4"/>
         <v>36.071038251366119</v>
       </c>
     </row>
@@ -12093,7 +13884,7 @@
         <v>5.8796299999999997</v>
       </c>
       <c r="G50">
-        <f>$C$3/E50</f>
+        <f t="shared" si="0"/>
         <v>146.6888888888889</v>
       </c>
       <c r="J50" t="s">
@@ -12112,7 +13903,7 @@
         <v>22.222221999999999</v>
       </c>
       <c r="O50">
-        <f>$C$3/M50</f>
+        <f t="shared" si="3"/>
         <v>227.62068965517241</v>
       </c>
       <c r="R50" t="s">
@@ -12131,7 +13922,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="W50">
-        <f>$C$3/U50</f>
+        <f t="shared" si="4"/>
         <v>36.469613259668506</v>
       </c>
     </row>
@@ -12152,7 +13943,7 @@
         <v>9.6759260000000005</v>
       </c>
       <c r="G51">
-        <f t="shared" ref="G51:G55" si="0">$C$3/E51</f>
+        <f t="shared" ref="G51:G55" si="5">$C$3/E51</f>
         <v>161</v>
       </c>
       <c r="J51" t="s">
@@ -12171,7 +13962,7 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <f>$C$3/M51</f>
+        <f t="shared" si="3"/>
         <v>1.6804989816700611</v>
       </c>
       <c r="R51" t="s">
@@ -12190,7 +13981,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="W51">
-        <f>$C$3/U51</f>
+        <f t="shared" si="4"/>
         <v>36.672222222222224</v>
       </c>
     </row>
@@ -12211,7 +14002,7 @@
         <v>11.898148000000001</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>173.71052631578948</v>
       </c>
       <c r="J52" t="s">
@@ -12230,7 +14021,7 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <f>$C$3/M52</f>
+        <f t="shared" si="3"/>
         <v>2.0506368437402922</v>
       </c>
       <c r="R52" t="s">
@@ -12249,7 +14040,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="W52">
-        <f>$C$3/U52</f>
+        <f t="shared" si="4"/>
         <v>39.526946107784433</v>
       </c>
     </row>
@@ -12270,7 +14061,7 @@
         <v>16.666667</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>200.03030303030303</v>
       </c>
       <c r="J53" t="s">
@@ -12289,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <f>$C$3/M53</f>
+        <f t="shared" si="3"/>
         <v>2.5704828660436139</v>
       </c>
       <c r="R53" t="s">
@@ -12308,7 +14099,7 @@
         <v>1.8981479999999999</v>
       </c>
       <c r="W53">
-        <f>$C$3/U53</f>
+        <f t="shared" si="4"/>
         <v>40.006060606060608</v>
       </c>
     </row>
@@ -12329,7 +14120,7 @@
         <v>32.222222000000002</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>264.04000000000002</v>
       </c>
       <c r="J54" t="s">
@@ -12348,7 +14139,7 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <f>$C$3/M54</f>
+        <f t="shared" si="3"/>
         <v>3.3764705882352941</v>
       </c>
       <c r="R54" t="s">
@@ -12367,7 +14158,7 @@
         <v>1.8981479999999999</v>
       </c>
       <c r="W54">
-        <f>$C$3/U54</f>
+        <f t="shared" si="4"/>
         <v>40.25</v>
       </c>
     </row>
@@ -12388,7 +14179,7 @@
         <v>37.314815000000003</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>300.04545454545456</v>
       </c>
       <c r="J55" t="s">
@@ -12407,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <f>$C$3/M55</f>
+        <f t="shared" si="3"/>
         <v>4.661723163841808</v>
       </c>
       <c r="R55" t="s">
@@ -12426,7 +14217,7 @@
         <v>1.8981479999999999</v>
       </c>
       <c r="W55">
-        <f>$C$3/U55</f>
+        <f t="shared" si="4"/>
         <v>41.256250000000001</v>
       </c>
     </row>
@@ -12447,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <f>$C$3/E56</f>
+        <f t="shared" ref="G56:G80" si="6">$C$3/E56</f>
         <v>1.2012738853503184</v>
       </c>
       <c r="J56" t="s">
@@ -12466,7 +14257,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O56">
-        <f>$C$3/M56</f>
+        <f t="shared" si="3"/>
         <v>6.640845070422535</v>
       </c>
       <c r="R56" t="s">
@@ -12485,7 +14276,7 @@
         <v>2.2222219999999999</v>
       </c>
       <c r="W56">
-        <f>$C$3/U56</f>
+        <f t="shared" si="4"/>
         <v>42.044585987261144</v>
       </c>
     </row>
@@ -12506,7 +14297,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <f>$C$3/E57</f>
+        <f t="shared" si="6"/>
         <v>1.3529411764705883</v>
       </c>
       <c r="J57" t="s">
@@ -12525,7 +14316,7 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <f>$C$3/M57</f>
+        <f t="shared" si="3"/>
         <v>9.5805515239477508</v>
       </c>
       <c r="R57" t="s">
@@ -12544,7 +14335,7 @@
         <v>2.5462959999999999</v>
       </c>
       <c r="W57">
-        <f>$C$3/U57</f>
+        <f t="shared" si="4"/>
         <v>42.863636363636367</v>
       </c>
     </row>
@@ -12565,7 +14356,7 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <f>$C$3/E58</f>
+        <f t="shared" si="6"/>
         <v>1.5557388640113128</v>
       </c>
       <c r="J58" t="s">
@@ -12584,7 +14375,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O58">
-        <f>$C$3/M58</f>
+        <f t="shared" si="3"/>
         <v>13.838574423480084</v>
       </c>
       <c r="R58" t="s">
@@ -12603,7 +14394,7 @@
         <v>2.2222219999999999</v>
       </c>
       <c r="W58">
-        <f>$C$3/U58</f>
+        <f t="shared" si="4"/>
         <v>43.143790849673202</v>
       </c>
     </row>
@@ -12624,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <f>$C$3/E59</f>
+        <f t="shared" si="6"/>
         <v>1.8485018202184262</v>
       </c>
       <c r="J59" t="s">
@@ -12643,7 +14434,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O59">
-        <f>$C$3/M59</f>
+        <f t="shared" si="3"/>
         <v>20.125</v>
       </c>
       <c r="R59" t="s">
@@ -12662,7 +14453,7 @@
         <v>3.0092590000000001</v>
       </c>
       <c r="W59">
-        <f>$C$3/U59</f>
+        <f t="shared" si="4"/>
         <v>43.143790849673202</v>
       </c>
     </row>
@@ -12683,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <f>$C$3/E60</f>
+        <f t="shared" si="6"/>
         <v>2.292013888888889</v>
       </c>
       <c r="J60" t="s">
@@ -12702,7 +14493,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O60">
-        <f>$C$3/M60</f>
+        <f t="shared" si="3"/>
         <v>27.735294117647058</v>
       </c>
       <c r="R60" t="s">
@@ -12721,7 +14512,7 @@
         <v>1.8981479999999999</v>
       </c>
       <c r="W60">
-        <f>$C$3/U60</f>
+        <f t="shared" si="4"/>
         <v>43.715231788079471</v>
       </c>
     </row>
@@ -12742,7 +14533,7 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <f>$C$3/E61</f>
+        <f t="shared" si="6"/>
         <v>3.0419354838709678</v>
       </c>
       <c r="J61" t="s">
@@ -12761,7 +14552,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O61">
-        <f>$C$3/M61</f>
+        <f t="shared" si="3"/>
         <v>36.469613259668506</v>
       </c>
       <c r="R61" t="s">
@@ -12780,7 +14571,7 @@
         <v>2.2222219999999999</v>
       </c>
       <c r="W61">
-        <f>$C$3/U61</f>
+        <f t="shared" si="4"/>
         <v>44.302013422818789</v>
       </c>
     </row>
@@ -12801,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <f>$C$3/E62</f>
+        <f t="shared" si="6"/>
         <v>4.4036024016010673</v>
       </c>
       <c r="J62" t="s">
@@ -12820,7 +14611,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O62">
-        <f>$C$3/M62</f>
+        <f t="shared" si="3"/>
         <v>46.485915492957744</v>
       </c>
       <c r="R62" t="s">
@@ -12839,7 +14630,7 @@
         <v>2.2222219999999999</v>
       </c>
       <c r="W62">
-        <f>$C$3/U62</f>
+        <f t="shared" si="4"/>
         <v>45.212328767123289</v>
       </c>
     </row>
@@ -12860,7 +14651,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="G63">
-        <f>$C$3/E63</f>
+        <f t="shared" si="6"/>
         <v>6.8688865764828302</v>
       </c>
       <c r="J63" t="s">
@@ -12879,7 +14670,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="O63">
-        <f>$C$3/M63</f>
+        <f t="shared" si="3"/>
         <v>58.415929203539825</v>
       </c>
       <c r="R63" t="s">
@@ -12898,7 +14689,7 @@
         <v>3.3333330000000001</v>
       </c>
       <c r="W63">
-        <f>$C$3/U63</f>
+        <f t="shared" si="4"/>
         <v>46.16083916083916</v>
       </c>
     </row>
@@ -12919,7 +14710,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="G64">
-        <f>$C$3/E64</f>
+        <f t="shared" si="6"/>
         <v>10.62962962962963</v>
       </c>
       <c r="J64" t="s">
@@ -12938,7 +14729,7 @@
         <v>2.0833330000000001</v>
       </c>
       <c r="O64">
-        <f>$C$3/M64</f>
+        <f t="shared" si="3"/>
         <v>72.538461538461533</v>
       </c>
       <c r="R64" t="s">
@@ -12957,7 +14748,7 @@
         <v>3.6574070000000001</v>
       </c>
       <c r="W64">
-        <f>$C$3/U64</f>
+        <f t="shared" si="4"/>
         <v>46.815602836879435</v>
       </c>
     </row>
@@ -12978,7 +14769,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="G65">
-        <f>$C$3/E65</f>
+        <f t="shared" si="6"/>
         <v>15.531764705882352</v>
       </c>
       <c r="J65" t="s">
@@ -12997,7 +14788,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="O65">
-        <f>$C$3/M65</f>
+        <f t="shared" si="3"/>
         <v>88.013333333333335</v>
       </c>
       <c r="R65" t="s">
@@ -13016,7 +14807,7 @@
         <v>4.1203700000000003</v>
       </c>
       <c r="W65">
-        <f>$C$3/U65</f>
+        <f t="shared" si="4"/>
         <v>46.815602836879435</v>
       </c>
     </row>
@@ -13037,7 +14828,7 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <f>$C$3/E66</f>
+        <f t="shared" si="6"/>
         <v>21.431818181818183</v>
       </c>
       <c r="J66" t="s">
@@ -13056,7 +14847,7 @@
         <v>2.5462959999999999</v>
       </c>
       <c r="O66">
-        <f>$C$3/M66</f>
+        <f t="shared" si="3"/>
         <v>106.46774193548387</v>
       </c>
       <c r="R66" t="s">
@@ -13075,7 +14866,7 @@
         <v>4.7685190000000004</v>
       </c>
       <c r="W66">
-        <f>$C$3/U66</f>
+        <f t="shared" si="4"/>
         <v>47.489208633093526</v>
       </c>
     </row>
@@ -13096,7 +14887,7 @@
         <v>0.64814799999999995</v>
       </c>
       <c r="G67">
-        <f>$C$3/E67</f>
+        <f t="shared" si="6"/>
         <v>29.734234234234233</v>
       </c>
       <c r="J67" t="s">
@@ -13115,7 +14906,7 @@
         <v>4.4444439999999998</v>
       </c>
       <c r="O67">
-        <f>$C$3/M67</f>
+        <f t="shared" si="3"/>
         <v>129.43137254901961</v>
       </c>
       <c r="R67" t="s">
@@ -13134,7 +14925,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W67">
-        <f>$C$3/U67</f>
+        <f t="shared" si="4"/>
         <v>6.6879432624113475</v>
       </c>
     </row>
@@ -13155,7 +14946,7 @@
         <v>0.64814799999999995</v>
       </c>
       <c r="G68">
-        <f>$C$3/E68</f>
+        <f t="shared" si="6"/>
         <v>39.765060240963855</v>
       </c>
       <c r="J68" t="s">
@@ -13174,7 +14965,7 @@
         <v>8.1018519999999992</v>
       </c>
       <c r="O68">
-        <f>$C$3/M68</f>
+        <f t="shared" si="3"/>
         <v>157.16666666666666</v>
       </c>
       <c r="R68" t="s">
@@ -13193,7 +14984,7 @@
         <v>0</v>
       </c>
       <c r="W68">
-        <f>$C$3/U68</f>
+        <f t="shared" si="4"/>
         <v>6.7151576805696847</v>
       </c>
     </row>
@@ -13214,7 +15005,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="G69">
-        <f>$C$3/E69</f>
+        <f t="shared" si="6"/>
         <v>51.976377952755904</v>
       </c>
       <c r="J69" t="s">
@@ -13233,7 +15024,7 @@
         <v>11.898148000000001</v>
       </c>
       <c r="O69">
-        <f>$C$3/M69</f>
+        <f t="shared" ref="O69:O75" si="7">$C$3/M69</f>
         <v>188.6</v>
       </c>
       <c r="R69" t="s">
@@ -13252,7 +15043,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W69">
-        <f>$C$3/U69</f>
+        <f t="shared" ref="W69:W97" si="8">$C$3/U69</f>
         <v>10.444620253164556</v>
       </c>
     </row>
@@ -13273,7 +15064,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="G70">
-        <f>$C$3/E70</f>
+        <f t="shared" si="6"/>
         <v>64.715686274509807</v>
       </c>
       <c r="J70" t="s">
@@ -13292,7 +15083,7 @@
         <v>22.222221999999999</v>
       </c>
       <c r="O70">
-        <f>$C$3/M70</f>
+        <f t="shared" si="7"/>
         <v>227.62068965517241</v>
       </c>
       <c r="R70" t="s">
@@ -13311,7 +15102,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W70">
-        <f>$C$3/U70</f>
+        <f t="shared" si="8"/>
         <v>13.498977505112475</v>
       </c>
     </row>
@@ -13332,7 +15123,7 @@
         <v>1.7592589999999999</v>
       </c>
       <c r="G71">
-        <f>$C$3/E71</f>
+        <f t="shared" si="6"/>
         <v>77.658823529411762</v>
       </c>
       <c r="J71" t="s">
@@ -13351,7 +15142,7 @@
         <v>31.435185000000001</v>
       </c>
       <c r="O71">
-        <f>$C$3/M71</f>
+        <f t="shared" si="7"/>
         <v>275.04166666666669</v>
       </c>
       <c r="R71" t="s">
@@ -13370,7 +15161,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="W71">
-        <f>$C$3/U71</f>
+        <f t="shared" si="8"/>
         <v>17.555851063829788</v>
       </c>
     </row>
@@ -13391,7 +15182,7 @@
         <v>1.7592589999999999</v>
       </c>
       <c r="G72">
-        <f>$C$3/E72</f>
+        <f t="shared" si="6"/>
         <v>92.971830985915489</v>
       </c>
       <c r="J72" t="s">
@@ -13410,7 +15201,7 @@
         <v>42.546295999999998</v>
       </c>
       <c r="O72">
-        <f>$C$3/M72</f>
+        <f t="shared" si="7"/>
         <v>330.05</v>
       </c>
       <c r="R72" t="s">
@@ -13429,7 +15220,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="W72">
-        <f>$C$3/U72</f>
+        <f t="shared" si="8"/>
         <v>21.930232558139537</v>
       </c>
     </row>
@@ -13450,7 +15241,7 @@
         <v>3.6574070000000001</v>
       </c>
       <c r="G73">
-        <f>$C$3/E73</f>
+        <f t="shared" si="6"/>
         <v>110.01666666666667</v>
       </c>
       <c r="J73" t="s">
@@ -13469,7 +15260,7 @@
         <v>53.657406999999999</v>
       </c>
       <c r="O73">
-        <f>$C$3/M73</f>
+        <f t="shared" si="7"/>
         <v>366.72222222222223</v>
       </c>
       <c r="R73" t="s">
@@ -13488,7 +15279,7 @@
         <v>1.111111</v>
       </c>
       <c r="W73">
-        <f>$C$3/U73</f>
+        <f t="shared" si="8"/>
         <v>25.003787878787879</v>
       </c>
     </row>
@@ -13509,7 +15300,7 @@
         <v>3.7962959999999999</v>
       </c>
       <c r="G74">
-        <f>$C$3/E74</f>
+        <f t="shared" si="6"/>
         <v>132.02000000000001</v>
       </c>
       <c r="J74" t="s">
@@ -13528,7 +15319,7 @@
         <v>66.203704000000002</v>
       </c>
       <c r="O74">
-        <f>$C$3/M74</f>
+        <f t="shared" si="7"/>
         <v>412.5625</v>
       </c>
       <c r="R74" t="s">
@@ -13547,7 +15338,7 @@
         <v>1.7592589999999999</v>
       </c>
       <c r="W74">
-        <f>$C$3/U74</f>
+        <f t="shared" si="8"/>
         <v>27.390041493775932</v>
       </c>
     </row>
@@ -13568,7 +15359,7 @@
         <v>7.4537040000000001</v>
       </c>
       <c r="G75">
-        <f>$C$3/E75</f>
+        <f t="shared" si="6"/>
         <v>157.16666666666666</v>
       </c>
       <c r="J75" t="s">
@@ -13587,7 +15378,7 @@
         <v>69.212963000000002</v>
       </c>
       <c r="O75">
-        <f>$C$3/M75</f>
+        <f t="shared" si="7"/>
         <v>440.06666666666666</v>
       </c>
       <c r="R75" t="s">
@@ -13606,7 +15397,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="W75">
-        <f>$C$3/U75</f>
+        <f t="shared" si="8"/>
         <v>28.20940170940171</v>
       </c>
     </row>
@@ -13627,7 +15418,7 @@
         <v>13.333333</v>
       </c>
       <c r="G76">
-        <f>$C$3/E76</f>
+        <f t="shared" si="6"/>
         <v>183.36111111111111</v>
       </c>
       <c r="R76" t="s">
@@ -13646,7 +15437,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="W76">
-        <f>$C$3/U76</f>
+        <f t="shared" si="8"/>
         <v>31.433333333333334</v>
       </c>
     </row>
@@ -13667,7 +15458,7 @@
         <v>20.462962999999998</v>
       </c>
       <c r="G77">
-        <f>$C$3/E77</f>
+        <f t="shared" si="6"/>
         <v>212.93548387096774</v>
       </c>
       <c r="R77" t="s">
@@ -13686,7 +15477,7 @@
         <v>1.7592589999999999</v>
       </c>
       <c r="W77">
-        <f>$C$3/U77</f>
+        <f t="shared" si="8"/>
         <v>31.433333333333334</v>
       </c>
     </row>
@@ -13707,7 +15498,7 @@
         <v>28.101852000000001</v>
       </c>
       <c r="G78">
-        <f>$C$3/E78</f>
+        <f t="shared" si="6"/>
         <v>244.4814814814815</v>
       </c>
       <c r="R78" t="s">
@@ -13726,7 +15517,7 @@
         <v>1.8981479999999999</v>
       </c>
       <c r="W78">
-        <f>$C$3/U78</f>
+        <f t="shared" si="8"/>
         <v>32.517241379310342</v>
       </c>
     </row>
@@ -13747,7 +15538,7 @@
         <v>34.120370000000001</v>
       </c>
       <c r="G79">
-        <f>$C$3/E79</f>
+        <f t="shared" si="6"/>
         <v>287</v>
       </c>
       <c r="R79" t="s">
@@ -13766,7 +15557,7 @@
         <v>2.2222219999999999</v>
       </c>
       <c r="W79">
-        <f>$C$3/U79</f>
+        <f t="shared" si="8"/>
         <v>35.681081081081082</v>
       </c>
     </row>
@@ -13787,7 +15578,7 @@
         <v>41.435184999999997</v>
       </c>
       <c r="G80">
-        <f>$C$3/E80</f>
+        <f t="shared" si="6"/>
         <v>330.05</v>
       </c>
       <c r="R80" t="s">
@@ -13806,7 +15597,7 @@
         <v>2.5462959999999999</v>
       </c>
       <c r="W80">
-        <f>$C$3/U80</f>
+        <f t="shared" si="8"/>
         <v>36.071038251366119</v>
       </c>
     </row>
@@ -13827,7 +15618,7 @@
         <v>3.0092590000000001</v>
       </c>
       <c r="W81">
-        <f>$C$3/U81</f>
+        <f t="shared" si="8"/>
         <v>36.469613259668506</v>
       </c>
     </row>
@@ -13848,7 +15639,7 @@
         <v>2.8703699999999999</v>
       </c>
       <c r="W82">
-        <f>$C$3/U82</f>
+        <f t="shared" si="8"/>
         <v>37.084269662921351</v>
       </c>
     </row>
@@ -13869,7 +15660,7 @@
         <v>3.6574070000000001</v>
       </c>
       <c r="W83">
-        <f>$C$3/U83</f>
+        <f t="shared" si="8"/>
         <v>40.25</v>
       </c>
     </row>
@@ -13890,7 +15681,7 @@
         <v>4.4444439999999998</v>
       </c>
       <c r="W84">
-        <f>$C$3/U84</f>
+        <f t="shared" si="8"/>
         <v>40.25</v>
       </c>
     </row>
@@ -13911,7 +15702,7 @@
         <v>3.3333330000000001</v>
       </c>
       <c r="W85">
-        <f>$C$3/U85</f>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
     </row>
@@ -13932,7 +15723,7 @@
         <v>4.1203700000000003</v>
       </c>
       <c r="W86">
-        <f>$C$3/U86</f>
+        <f t="shared" si="8"/>
         <v>42.044585987261144</v>
       </c>
     </row>
@@ -13953,7 +15744,7 @@
         <v>4.1203700000000003</v>
       </c>
       <c r="W87">
-        <f>$C$3/U87</f>
+        <f t="shared" si="8"/>
         <v>42.863636363636367</v>
       </c>
     </row>
@@ -13974,7 +15765,7 @@
         <v>7.4537040000000001</v>
       </c>
       <c r="W88">
-        <f>$C$3/U88</f>
+        <f t="shared" si="8"/>
         <v>43.143790849673202</v>
       </c>
     </row>
@@ -13995,7 +15786,7 @@
         <v>5.8796299999999997</v>
       </c>
       <c r="W89">
-        <f>$C$3/U89</f>
+        <f t="shared" si="8"/>
         <v>43.42763157894737</v>
       </c>
     </row>
@@ -14016,7 +15807,7 @@
         <v>4.9074070000000001</v>
       </c>
       <c r="W90">
-        <f>$C$3/U90</f>
+        <f t="shared" si="8"/>
         <v>44.006666666666668</v>
       </c>
     </row>
@@ -14037,7 +15828,7 @@
         <v>5.2314809999999996</v>
       </c>
       <c r="W91">
-        <f>$C$3/U91</f>
+        <f t="shared" si="8"/>
         <v>44.601351351351354</v>
       </c>
     </row>
@@ -14058,7 +15849,7 @@
         <v>4.1203700000000003</v>
       </c>
       <c r="W92">
-        <f>$C$3/U92</f>
+        <f t="shared" si="8"/>
         <v>45.524137931034481</v>
       </c>
     </row>
@@ -14079,7 +15870,7 @@
         <v>5.2314809999999996</v>
       </c>
       <c r="W93">
-        <f>$C$3/U93</f>
+        <f t="shared" si="8"/>
         <v>46.16083916083916</v>
       </c>
     </row>
@@ -14100,7 +15891,7 @@
         <v>7.3148150000000003</v>
       </c>
       <c r="W94">
-        <f>$C$3/U94</f>
+        <f t="shared" si="8"/>
         <v>47.15</v>
       </c>
     </row>
@@ -14121,7 +15912,7 @@
         <v>7.3148150000000003</v>
       </c>
       <c r="W95">
-        <f>$C$3/U95</f>
+        <f t="shared" si="8"/>
         <v>48.182481751824817</v>
       </c>
     </row>
@@ -14142,7 +15933,7 @@
         <v>6.9907409999999999</v>
       </c>
       <c r="W96">
-        <f>$C$3/U96</f>
+        <f t="shared" si="8"/>
         <v>48.182481751824817</v>
       </c>
     </row>
@@ -14163,14 +15954,14 @@
         <v>8.1018519999999992</v>
       </c>
       <c r="W97">
-        <f>$C$3/U97</f>
+        <f t="shared" si="8"/>
         <v>48.896296296296299</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="R5:W103">
-    <sortCondition ref="T5:T103"/>
-    <sortCondition ref="W5:W103"/>
+  <sortState ref="Z5:AD32">
+    <sortCondition ref="AD5:AD32"/>
+    <sortCondition ref="AA5:AA32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="GOP1" sheetId="3" r:id="rId1"/>
@@ -13,9 +13,10 @@
     <sheet name="h.264" sheetId="7" r:id="rId4"/>
     <sheet name="h.265" sheetId="9" r:id="rId5"/>
     <sheet name="mpeg4" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
+    <sheet name="medium" sheetId="1" r:id="rId7"/>
+    <sheet name="veryslow" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="19">
   <si>
     <t>original size</t>
   </si>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,7 +123,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -138,9 +139,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -182,7 +183,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -248,7 +248,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$27</c:f>
+              <c:f>medium!$G$5:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -326,7 +326,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$F$27</c:f>
+              <c:f>medium!$F$5:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -403,7 +403,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D285-4029-9E0F-22CD3577BBD4}"/>
             </c:ext>
@@ -439,7 +439,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$5:$O$23</c:f>
+              <c:f>medium!$O$5:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -505,7 +505,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$5:$N$23</c:f>
+              <c:f>medium!$N$5:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -570,7 +570,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D285-4029-9E0F-22CD3577BBD4}"/>
             </c:ext>
@@ -606,7 +606,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$W$5:$W$35</c:f>
+              <c:f>medium!$W$5:$W$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -708,7 +708,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$5:$V$35</c:f>
+              <c:f>medium!$V$5:$V$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -809,7 +809,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D285-4029-9E0F-22CD3577BBD4}"/>
             </c:ext>
@@ -845,7 +845,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$5:$AD$32</c:f>
+              <c:f>medium!$AD$5:$AD$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -938,7 +938,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AC$5:$AC$32</c:f>
+              <c:f>medium!$AC$5:$AC$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1030,6 +1030,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-258C-4121-B5A3-9EA29718D650}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1204,7 +1209,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1267,9 +1271,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1306,7 +1310,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1372,7 +1375,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$31:$G$52</c:f>
+              <c:f>medium!$G$31:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1447,7 +1450,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$31:$F$52</c:f>
+              <c:f>medium!$F$31:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1521,7 +1524,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B252-4A64-A3A5-E10538E0B150}"/>
             </c:ext>
@@ -1557,7 +1560,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$30:$O$49</c:f>
+              <c:f>medium!$O$30:$O$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1626,7 +1629,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$30:$N$49</c:f>
+              <c:f>medium!$N$30:$N$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1694,7 +1697,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B252-4A64-A3A5-E10538E0B150}"/>
             </c:ext>
@@ -1730,7 +1733,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$W$36:$W$66</c:f>
+              <c:f>medium!$W$36:$W$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1832,7 +1835,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$36:$V$66</c:f>
+              <c:f>medium!$V$36:$V$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1933,7 +1936,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B252-4A64-A3A5-E10538E0B150}"/>
             </c:ext>
@@ -1969,7 +1972,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$5:$AD$32</c:f>
+              <c:f>medium!$AD$5:$AD$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2062,7 +2065,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AC$5:$AC$32</c:f>
+              <c:f>medium!$AC$5:$AC$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2154,6 +2157,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF33-49F2-8B7C-29649AB73BEB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2328,7 +2336,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2391,9 +2398,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2430,7 +2437,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2496,7 +2502,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$56:$G$76</c:f>
+              <c:f>medium!$G$56:$G$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2568,7 +2574,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$56:$F$76</c:f>
+              <c:f>medium!$F$56:$F$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2639,7 +2645,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DF8D-45A0-8E36-E537B8795729}"/>
             </c:ext>
@@ -2675,7 +2681,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$51:$O$69</c:f>
+              <c:f>medium!$O$51:$O$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2741,7 +2747,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$51:$N$69</c:f>
+              <c:f>medium!$N$51:$N$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2806,7 +2812,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DF8D-45A0-8E36-E537B8795729}"/>
             </c:ext>
@@ -2842,7 +2848,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$W$67:$W$97</c:f>
+              <c:f>medium!$W$67:$W$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2944,7 +2950,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$67:$V$97</c:f>
+              <c:f>medium!$V$67:$V$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -3045,7 +3051,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DF8D-45A0-8E36-E537B8795729}"/>
             </c:ext>
@@ -3081,7 +3087,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$5:$AD$32</c:f>
+              <c:f>medium!$AD$5:$AD$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3174,7 +3180,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AC$5:$AC$32</c:f>
+              <c:f>medium!$AC$5:$AC$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3266,6 +3272,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6065-4D2C-8F51-AC6029EFE393}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3440,7 +3451,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3503,9 +3513,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3542,7 +3552,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3608,7 +3617,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$27</c:f>
+              <c:f>medium!$G$5:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -3686,7 +3695,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$F$27</c:f>
+              <c:f>medium!$F$5:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -3763,7 +3772,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-612C-4D05-B8AA-CCAD68B49667}"/>
             </c:ext>
@@ -3799,7 +3808,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$31:$G$52</c:f>
+              <c:f>medium!$G$31:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -3874,7 +3883,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$31:$F$52</c:f>
+              <c:f>medium!$F$31:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -3948,7 +3957,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-612C-4D05-B8AA-CCAD68B49667}"/>
             </c:ext>
@@ -3984,7 +3993,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$56:$G$76</c:f>
+              <c:f>medium!$G$56:$G$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4056,7 +4065,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$56:$F$76</c:f>
+              <c:f>medium!$F$56:$F$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4127,7 +4136,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-612C-4D05-B8AA-CCAD68B49667}"/>
             </c:ext>
@@ -4163,7 +4172,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$5:$AD$32</c:f>
+              <c:f>medium!$AD$5:$AD$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4256,7 +4265,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AC$5:$AC$32</c:f>
+              <c:f>medium!$AC$5:$AC$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4348,6 +4357,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-669D-4DFD-BC80-D071CA465391}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4522,7 +4536,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4585,9 +4598,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4634,7 +4647,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$5:$O$23</c:f>
+              <c:f>medium!$O$5:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -4700,7 +4713,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$5:$N$23</c:f>
+              <c:f>medium!$N$5:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -4765,7 +4778,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-49C1-44D4-AFA2-5833A1D8535E}"/>
             </c:ext>
@@ -4801,7 +4814,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$30:$O$49</c:f>
+              <c:f>medium!$O$30:$O$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4870,7 +4883,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$30:$N$49</c:f>
+              <c:f>medium!$N$30:$N$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4938,7 +4951,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-49C1-44D4-AFA2-5833A1D8535E}"/>
             </c:ext>
@@ -4974,7 +4987,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$51:$O$69</c:f>
+              <c:f>medium!$O$51:$O$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -5040,7 +5053,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$51:$N$69</c:f>
+              <c:f>medium!$N$51:$N$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -5105,7 +5118,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-49C1-44D4-AFA2-5833A1D8535E}"/>
             </c:ext>
@@ -5141,7 +5154,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$5:$AD$32</c:f>
+              <c:f>medium!$AD$5:$AD$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5234,7 +5247,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AC$5:$AC$32</c:f>
+              <c:f>medium!$AC$5:$AC$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5326,6 +5339,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D68E-4C1B-90DD-E7D76E06558F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5500,7 +5518,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5563,9 +5580,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5602,7 +5619,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5668,7 +5684,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$W$5:$W$35</c:f>
+              <c:f>medium!$W$5:$W$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -5770,7 +5786,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$5:$V$35</c:f>
+              <c:f>medium!$V$5:$V$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -5871,7 +5887,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3347-428F-8A08-76C3C577EB41}"/>
             </c:ext>
@@ -5907,7 +5923,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$W$36:$W$66</c:f>
+              <c:f>medium!$W$36:$W$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -6009,7 +6025,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$36:$V$66</c:f>
+              <c:f>medium!$V$36:$V$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -6110,7 +6126,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3347-428F-8A08-76C3C577EB41}"/>
             </c:ext>
@@ -6146,7 +6162,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$W$67:$W$97</c:f>
+              <c:f>medium!$W$67:$W$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -6248,7 +6264,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$67:$V$97</c:f>
+              <c:f>medium!$V$67:$V$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -6349,7 +6365,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3347-428F-8A08-76C3C577EB41}"/>
             </c:ext>
@@ -6385,7 +6401,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$5:$AD$32</c:f>
+              <c:f>medium!$AD$5:$AD$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -6478,7 +6494,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AC$5:$AC$32</c:f>
+              <c:f>medium!$AC$5:$AC$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -6570,6 +6586,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38DD-40A3-B587-AAF861D2D0D1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6744,7 +6765,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6803,6 +6823,2530 @@
       <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>h.264 veryslow</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>veryslow!$G$5:$G$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>1.1756010690000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.134777377</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.262865889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4734375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7739854880000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1915670650000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.839139785</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0721776680000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4087378639999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9263157890000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.287878790000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.078034679999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.510040159999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.526946109999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.776923080000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.691588789999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.168539330000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88.013333329999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>103.140625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>117.875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140.4468085</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>173.7105263</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>206.28125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>235.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>275.04166670000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>314.33333329999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1947511310000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.248062016</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4290972070000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.710546774</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.143181818</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.8113287900000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8898055390000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.7102076119999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7199471600000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.96856582</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.13461538</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25.19465649</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33.17085427</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46.485915489999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60.009090909999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>73.344444440000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>86.855263160000007</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>103.140625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>122.2407407</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>143.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>169.2564103</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>200.030303</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>235.75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>275.04166670000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>314.33333329999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2076472739999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3604699090000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.606473595</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.984069732</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.6080600550000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.6570637119999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.3754071659999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.3451327430000006</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.59732824</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>17.88888889</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.091240880000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>33.005000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44.006666670000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70.223404259999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>84.628205129999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>100.0151515</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>117.875</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>137.52083329999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>165.02500000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>194.1470588</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>388.29411759999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>veryslow!$F$5:$F$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7962959999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2314809999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.5648149999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.444444000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.879630000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.555555999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30.648147999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7592589999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7592589999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.7962959999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.1203700000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.9907409999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.1018519999999992</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.231481</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22.222221999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28.564814999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30.462962999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.13888900000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.5462959999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.5462959999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.5555560000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.5648149999999994</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11.898148000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16.342593000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>53.333333000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9527-4773-A68E-97A4FE115A57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>h.264 medium</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>medium!$G$5:$G$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>1.1718444878395171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1840358744394619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3316522089973775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5237765466297322</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7947253942359978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1901128069011282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8637744034707158</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.193773824650572</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.681229773462784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.568396226415095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.003333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.136792452830189</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.904761904761905</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55.940677966101696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.676767676767682</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.53012048192771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>111.88135593220339</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>129.43137254901961</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150.02272727272728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>173.71052631578948</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>194.14705882352942</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>227.62068965517241</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>253.88461538461539</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>314.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1893693693693694</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2874975619270528</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4652608213096558</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7141002337055311</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0764391318024535</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6670707070707071</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.7209695603156709</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.6758383490971624</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.9202702702702705</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.443991853360489</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.914040114613179</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.404</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>35.875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49.261194029850749</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>61.691588785046726</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>74.168539325842701</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>88.013333333333335</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>104.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>124.54716981132076</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>146.6888888888889</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>173.71052631578948</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>200.03030303030303</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>264.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>300.04545454545456</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2012738853503184</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3529411764705883</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5557388640113128</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.8485018202184262</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.292013888888889</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0419354838709678</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.4036024016010673</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.8688865764828302</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10.62962962962963</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.531764705882352</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>21.431818181818183</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>29.734234234234233</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39.765060240963855</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>51.976377952755904</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>64.715686274509807</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>77.658823529411762</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>92.971830985915489</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>110.01666666666667</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>132.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>157.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>183.36111111111111</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>212.93548387096774</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>244.4814814814815</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>330.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>medium!$F$5:$F$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>2.2222219999999999</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>2.8703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0">
+                  <c:v>5.5555560000000002</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="#,##0">
+                  <c:v>8.5648149999999994</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="#,##0">
+                  <c:v>15.092593000000001</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="#,##0">
+                  <c:v>21.759259</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="#,##0">
+                  <c:v>28.101852000000001</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="#,##0">
+                  <c:v>32.870370000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.2222219999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.1203700000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.8796299999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.6759260000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.898148000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.666667</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32.222222000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>37.314815000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="#,##0">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="#,##0">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="#,##0">
+                  <c:v>1.7592589999999999</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="#,##0">
+                  <c:v>1.7592589999999999</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="#,##0">
+                  <c:v>3.6574070000000001</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="#,##0">
+                  <c:v>3.7962959999999999</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="#,##0">
+                  <c:v>7.4537040000000001</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="#,##0">
+                  <c:v>13.333333</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="#,##0">
+                  <c:v>20.462962999999998</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="#,##0">
+                  <c:v>28.101852000000001</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="#,##0">
+                  <c:v>34.120370000000001</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="#,##0">
+                  <c:v>41.435184999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9527-4773-A68E-97A4FE115A57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="479927264"/>
+        <c:axId val="479930544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="479927264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479930544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="479930544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479927264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>h.265 medium</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>medium!$O$5:$O$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>1.6804989816700611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0506368437402922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5704828660436139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.661723163841808</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.640845070422535</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5805515239477508</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.838574423480084</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.735294117647058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.469613259668506</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.485915492957744</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58.415929203539825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.538461538461533</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88.013333333333335</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>106.46774193548387</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>129.43137254901961</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>157.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>188.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>227.62068965517241</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>275.04166666666669</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>330.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>366.72222222222223</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>412.5625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>440.06666666666666</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6804989816700611</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0506368437402922</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5704828660436139</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.661723163841808</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.640845070422535</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.5805515239477508</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.838574423480084</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.735294117647058</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.469613259668506</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46.485915492957744</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>58.415929203539825</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>72.538461538461533</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88.013333333333335</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>106.46774193548387</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>129.43137254901961</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>157.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>169.25641025641025</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>188.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>227.62068965517241</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6804989816700611</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0506368437402922</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.5704828660436139</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.3764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.661723163841808</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.640845070422535</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.5805515239477508</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.838574423480084</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20.125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.735294117647058</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>36.469613259668506</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>46.485915492957744</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58.415929203539825</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>72.538461538461533</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>88.013333333333335</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>106.46774193548387</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>129.43137254901961</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>157.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>188.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>227.62068965517241</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>275.04166666666669</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>330.05</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>366.72222222222223</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>412.5625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>440.06666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>medium!$N$5:$N$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>2.0833330000000001</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>2.5462959999999999</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>8.1018519999999992</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>11.898148000000001</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>22.222221999999999</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0">
+                  <c:v>31.435185000000001</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="#,##0">
+                  <c:v>42.546295999999998</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="#,##0">
+                  <c:v>53.657406999999999</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="#,##0">
+                  <c:v>66.203704000000002</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="#,##0">
+                  <c:v>69.212963000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0833330000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5462959999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.1018519999999992</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.8888890000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.898148000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22.222221999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="#,##0">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="#,##0">
+                  <c:v>2.0833330000000001</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="#,##0">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="#,##0">
+                  <c:v>2.5462959999999999</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="#,##0">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="#,##0">
+                  <c:v>8.1018519999999992</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="#,##0">
+                  <c:v>11.898148000000001</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="#,##0">
+                  <c:v>22.222221999999999</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="#,##0">
+                  <c:v>31.435185000000001</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="#,##0">
+                  <c:v>42.546295999999998</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="#,##0">
+                  <c:v>53.657406999999999</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="#,##0">
+                  <c:v>66.203704000000002</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="#,##0">
+                  <c:v>69.212963000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-634C-4855-BC46-802452599FCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>h.265 veryslow</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>veryslow!$O$5:$O$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>1.564218009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.856821378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3267536130000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1781415499999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8358974359999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6048387100000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.580701749999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.012886600000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.491103200000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.284360190000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.746913579999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.5703125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.47115385</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77.658823530000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113.8103448</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>137.52083329999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>165.02500000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200.030303</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>244.4814815</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300.04545450000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>366.72222219999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>471.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.564218009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.856821378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3267536130000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1781415499999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8358974359999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.6048387100000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.580701749999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.012886600000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.491103200000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31.284360190000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.746913579999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.5703125</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63.47115385</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77.658823530000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>113.8103448</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>137.52083329999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>165.02500000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>200.030303</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>244.4814815</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>300.04545450000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>366.72222219999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>471.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.564218009</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.856821378</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3267536130000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.1781415499999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.8358974359999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.6048387100000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.580701749999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17.012886600000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23.491103200000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>31.284360190000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40.746913579999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51.5703125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63.47115385</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>77.658823530000006</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>113.8103448</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>137.52083329999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>165.02500000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>200.030303</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>244.4814815</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>300.04545450000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>366.72222219999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>471.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>veryslow!$N$5:$N$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0092590000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6759260000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.768519</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.138888999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.324074000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0092590000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.6759260000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.768519</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.333333</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30.138888999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40.324074000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.0092590000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.6759260000000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.768519</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>23.333333</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>30.138888999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40.324074000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-634C-4855-BC46-802452599FCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="539659640"/>
+        <c:axId val="539655704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="539659640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539655704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="539655704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539659640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -7046,6 +9590,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10142,11 +12766,1043 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10157,7 +13813,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10168,7 +13824,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10179,7 +13835,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10190,7 +13846,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10201,7 +13857,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10212,13 +13868,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58E8F331-C253-439C-B3D1-3AD22E973ABD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E8F331-C253-439C-B3D1-3AD22E973ABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10245,13 +13901,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3E00430-68ED-4ECB-8768-746562E49869}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E00430-68ED-4ECB-8768-746562E49869}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10278,13 +13934,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9A00B3B-1CDE-4762-8D33-2961CAA9EC0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A00B3B-1CDE-4762-8D33-2961CAA9EC0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10311,13 +13967,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59758313-3158-475B-AA96-AD219374597F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59758313-3158-475B-AA96-AD219374597F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10344,13 +14000,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43CD7BF8-148D-44CF-B0C7-25E2BAF6F3F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CD7BF8-148D-44CF-B0C7-25E2BAF6F3F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10377,13 +14033,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BEBACB8-7D85-4E4B-A90B-21C318BEBA6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BEBACB8-7D85-4E4B-A90B-21C318BEBA6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10403,6 +14059,87 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29C699E-F84B-4578-9655-5E87A32722C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6626FDA1-31A3-435A-9CEA-02FD4D0B2971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10671,11 +14408,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
@@ -10835,7 +14572,7 @@
         <v>13</v>
       </c>
       <c r="AD5">
-        <f>$C$3/AB5</f>
+        <f t="shared" ref="AD5:AD32" si="3">$C$3/AB5</f>
         <v>1.0851553509781358</v>
       </c>
     </row>
@@ -10910,7 +14647,7 @@
         <v>16</v>
       </c>
       <c r="AD6">
-        <f>$C$3/AB6</f>
+        <f t="shared" si="3"/>
         <v>1.0851553509781358</v>
       </c>
     </row>
@@ -10985,7 +14722,7 @@
         <v>13</v>
       </c>
       <c r="AD7">
-        <f>$C$3/AB7</f>
+        <f t="shared" si="3"/>
         <v>1.2058823529411764</v>
       </c>
     </row>
@@ -11060,7 +14797,7 @@
         <v>13</v>
       </c>
       <c r="AD8">
-        <f>$C$3/AB8</f>
+        <f t="shared" si="3"/>
         <v>1.5276556352696136</v>
       </c>
     </row>
@@ -11135,7 +14872,7 @@
         <v>13</v>
       </c>
       <c r="AD9">
-        <f>$C$3/AB9</f>
+        <f t="shared" si="3"/>
         <v>1.8331019161344071</v>
       </c>
     </row>
@@ -11210,7 +14947,7 @@
         <v>14</v>
       </c>
       <c r="AD10">
-        <f>$C$3/AB10</f>
+        <f t="shared" si="3"/>
         <v>2.1150272348606216</v>
       </c>
     </row>
@@ -11285,7 +15022,7 @@
         <v>14</v>
       </c>
       <c r="AD11">
-        <f>$C$3/AB11</f>
+        <f t="shared" si="3"/>
         <v>2.4994320333207121</v>
       </c>
     </row>
@@ -11360,7 +15097,7 @@
         <v>14</v>
       </c>
       <c r="AD12">
-        <f>$C$3/AB12</f>
+        <f t="shared" si="3"/>
         <v>2.749271137026239</v>
       </c>
     </row>
@@ -11435,7 +15172,7 @@
         <v>14</v>
       </c>
       <c r="AD13">
-        <f>$C$3/AB13</f>
+        <f t="shared" si="3"/>
         <v>3.054604349838038</v>
       </c>
     </row>
@@ -11510,7 +15247,7 @@
         <v>14</v>
       </c>
       <c r="AD14">
-        <f>$C$3/AB14</f>
+        <f t="shared" si="3"/>
         <v>3.054604349838038</v>
       </c>
     </row>
@@ -11585,7 +15322,7 @@
         <v>15</v>
       </c>
       <c r="AD15">
-        <f>$C$3/AB15</f>
+        <f t="shared" si="3"/>
         <v>3.9291666666666667</v>
       </c>
     </row>
@@ -11660,7 +15397,7 @@
         <v>15</v>
       </c>
       <c r="AD16">
-        <f>$C$3/AB16</f>
+        <f t="shared" si="3"/>
         <v>4.584027777777778</v>
       </c>
     </row>
@@ -11735,7 +15472,7 @@
         <v>14</v>
       </c>
       <c r="AD17">
-        <f>$C$3/AB17</f>
+        <f t="shared" si="3"/>
         <v>5.4962531223980013</v>
       </c>
     </row>
@@ -11810,7 +15547,7 @@
         <v>14</v>
       </c>
       <c r="AD18">
-        <f>$C$3/AB18</f>
+        <f t="shared" si="3"/>
         <v>5.5751689189189193</v>
       </c>
     </row>
@@ -11885,7 +15622,7 @@
         <v>15</v>
       </c>
       <c r="AD19">
-        <f>$C$3/AB19</f>
+        <f t="shared" si="3"/>
         <v>6.8688865764828302</v>
       </c>
     </row>
@@ -11960,7 +15697,7 @@
         <v>14</v>
       </c>
       <c r="AD20">
-        <f>$C$3/AB20</f>
+        <f t="shared" si="3"/>
         <v>6.8688865764828302</v>
       </c>
     </row>
@@ -12035,7 +15772,7 @@
         <v>14</v>
       </c>
       <c r="AD21">
-        <f>$C$3/AB21</f>
+        <f t="shared" si="3"/>
         <v>6.8688865764828302</v>
       </c>
     </row>
@@ -12110,7 +15847,7 @@
         <v>14</v>
       </c>
       <c r="AD22">
-        <f>$C$3/AB22</f>
+        <f t="shared" si="3"/>
         <v>6.8688865764828302</v>
       </c>
     </row>
@@ -12185,7 +15922,7 @@
         <v>14</v>
       </c>
       <c r="AD23">
-        <f>$C$3/AB23</f>
+        <f t="shared" si="3"/>
         <v>6.8688865764828302</v>
       </c>
     </row>
@@ -12260,7 +15997,7 @@
         <v>14</v>
       </c>
       <c r="AD24">
-        <f>$C$3/AB24</f>
+        <f t="shared" si="3"/>
         <v>6.9630801687763713</v>
       </c>
     </row>
@@ -12335,7 +16072,7 @@
         <v>15</v>
       </c>
       <c r="AD25">
-        <f>$C$3/AB25</f>
+        <f t="shared" si="3"/>
         <v>9.1553398058252426</v>
       </c>
     </row>
@@ -12410,7 +16147,7 @@
         <v>14</v>
       </c>
       <c r="AD26">
-        <f>$C$3/AB26</f>
+        <f t="shared" si="3"/>
         <v>9.1553398058252426</v>
       </c>
     </row>
@@ -12485,7 +16222,7 @@
         <v>14</v>
       </c>
       <c r="AD27">
-        <f>$C$3/AB27</f>
+        <f t="shared" si="3"/>
         <v>9.1553398058252426</v>
       </c>
     </row>
@@ -12560,7 +16297,7 @@
         <v>15</v>
       </c>
       <c r="AD28">
-        <f>$C$3/AB28</f>
+        <f t="shared" si="3"/>
         <v>9.1553398058252426</v>
       </c>
     </row>
@@ -12635,7 +16372,7 @@
         <v>15</v>
       </c>
       <c r="AD29">
-        <f>$C$3/AB29</f>
+        <f t="shared" si="3"/>
         <v>9.1553398058252426</v>
       </c>
     </row>
@@ -12710,7 +16447,7 @@
         <v>17</v>
       </c>
       <c r="AD30">
-        <f>$C$3/AB30</f>
+        <f t="shared" si="3"/>
         <v>9.1553398058252426</v>
       </c>
     </row>
@@ -12785,7 +16522,7 @@
         <v>15</v>
       </c>
       <c r="AD31">
-        <f>$C$3/AB31</f>
+        <f t="shared" si="3"/>
         <v>9.1553398058252426</v>
       </c>
     </row>
@@ -12860,7 +16597,7 @@
         <v>15</v>
       </c>
       <c r="AD32">
-        <f>$C$3/AB32</f>
+        <f t="shared" si="3"/>
         <v>9.1553398058252426</v>
       </c>
     </row>
@@ -13136,7 +16873,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O37">
-        <f t="shared" ref="O37:O68" si="3">$C$3/M37</f>
+        <f t="shared" ref="O37:O68" si="4">$C$3/M37</f>
         <v>13.838574423480084</v>
       </c>
       <c r="R37" t="s">
@@ -13155,7 +16892,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W37">
-        <f t="shared" ref="W37:W68" si="4">$C$3/U37</f>
+        <f t="shared" ref="W37:W68" si="5">$C$3/U37</f>
         <v>6.497047244094488</v>
       </c>
     </row>
@@ -13195,7 +16932,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.125</v>
       </c>
       <c r="R38" t="s">
@@ -13214,7 +16951,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.108728943338438</v>
       </c>
     </row>
@@ -13254,7 +16991,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.735294117647058</v>
       </c>
       <c r="R39" t="s">
@@ -13273,7 +17010,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.045454545454545</v>
       </c>
     </row>
@@ -13313,7 +17050,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.469613259668506</v>
       </c>
       <c r="R40" t="s">
@@ -13332,7 +17069,7 @@
         <v>0.64814799999999995</v>
       </c>
       <c r="W40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.145454545454545</v>
       </c>
     </row>
@@ -13372,7 +17109,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46.485915492957744</v>
       </c>
       <c r="R41" t="s">
@@ -13391,7 +17128,7 @@
         <v>0.64814799999999995</v>
       </c>
       <c r="W41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.713815789473685</v>
       </c>
     </row>
@@ -13431,7 +17168,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="O42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58.415929203539825</v>
       </c>
       <c r="R42" t="s">
@@ -13450,7 +17187,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.909433962264149</v>
       </c>
     </row>
@@ -13490,7 +17227,7 @@
         <v>2.0833330000000001</v>
       </c>
       <c r="O43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72.538461538461533</v>
       </c>
       <c r="R43" t="s">
@@ -13509,7 +17246,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="W43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.164609053497941</v>
       </c>
     </row>
@@ -13549,7 +17286,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="O44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88.013333333333335</v>
       </c>
       <c r="R44" t="s">
@@ -13568,7 +17305,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="W44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.20940170940171</v>
       </c>
     </row>
@@ -13608,7 +17345,7 @@
         <v>2.5462959999999999</v>
       </c>
       <c r="O45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106.46774193548387</v>
       </c>
       <c r="R45" t="s">
@@ -13627,7 +17364,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="W45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.136792452830189</v>
       </c>
     </row>
@@ -13667,7 +17404,7 @@
         <v>4.4444439999999998</v>
       </c>
       <c r="O46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129.43137254901961</v>
       </c>
       <c r="R46" t="s">
@@ -13686,7 +17423,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="W46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.583732057416267</v>
       </c>
     </row>
@@ -13726,7 +17463,7 @@
         <v>8.1018519999999992</v>
       </c>
       <c r="O47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>157.16666666666666</v>
       </c>
       <c r="R47" t="s">
@@ -13745,7 +17482,7 @@
         <v>1.111111</v>
       </c>
       <c r="W47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.678217821782177</v>
       </c>
     </row>
@@ -13785,7 +17522,7 @@
         <v>8.8888890000000007</v>
       </c>
       <c r="O48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>169.25641025641025</v>
       </c>
       <c r="R48" t="s">
@@ -13804,7 +17541,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="W48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35.299465240641709</v>
       </c>
     </row>
@@ -13844,7 +17581,7 @@
         <v>11.898148000000001</v>
       </c>
       <c r="O49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>188.6</v>
       </c>
       <c r="R49" t="s">
@@ -13863,7 +17600,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="W49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.071038251366119</v>
       </c>
     </row>
@@ -13903,7 +17640,7 @@
         <v>22.222221999999999</v>
       </c>
       <c r="O50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>227.62068965517241</v>
       </c>
       <c r="R50" t="s">
@@ -13922,7 +17659,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="W50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.469613259668506</v>
       </c>
     </row>
@@ -13943,7 +17680,7 @@
         <v>9.6759260000000005</v>
       </c>
       <c r="G51">
-        <f t="shared" ref="G51:G55" si="5">$C$3/E51</f>
+        <f t="shared" ref="G51:G55" si="6">$C$3/E51</f>
         <v>161</v>
       </c>
       <c r="J51" t="s">
@@ -13962,7 +17699,7 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6804989816700611</v>
       </c>
       <c r="R51" t="s">
@@ -13981,7 +17718,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="W51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.672222222222224</v>
       </c>
     </row>
@@ -14002,7 +17739,7 @@
         <v>11.898148000000001</v>
       </c>
       <c r="G52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>173.71052631578948</v>
       </c>
       <c r="J52" t="s">
@@ -14021,7 +17758,7 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0506368437402922</v>
       </c>
       <c r="R52" t="s">
@@ -14040,7 +17777,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="W52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39.526946107784433</v>
       </c>
     </row>
@@ -14061,7 +17798,7 @@
         <v>16.666667</v>
       </c>
       <c r="G53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200.03030303030303</v>
       </c>
       <c r="J53" t="s">
@@ -14080,7 +17817,7 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5704828660436139</v>
       </c>
       <c r="R53" t="s">
@@ -14099,7 +17836,7 @@
         <v>1.8981479999999999</v>
       </c>
       <c r="W53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.006060606060608</v>
       </c>
     </row>
@@ -14120,7 +17857,7 @@
         <v>32.222222000000002</v>
       </c>
       <c r="G54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>264.04000000000002</v>
       </c>
       <c r="J54" t="s">
@@ -14139,7 +17876,7 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3764705882352941</v>
       </c>
       <c r="R54" t="s">
@@ -14158,7 +17895,7 @@
         <v>1.8981479999999999</v>
       </c>
       <c r="W54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.25</v>
       </c>
     </row>
@@ -14179,7 +17916,7 @@
         <v>37.314815000000003</v>
       </c>
       <c r="G55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300.04545454545456</v>
       </c>
       <c r="J55" t="s">
@@ -14198,7 +17935,7 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.661723163841808</v>
       </c>
       <c r="R55" t="s">
@@ -14217,7 +17954,7 @@
         <v>1.8981479999999999</v>
       </c>
       <c r="W55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41.256250000000001</v>
       </c>
     </row>
@@ -14238,7 +17975,7 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <f t="shared" ref="G56:G80" si="6">$C$3/E56</f>
+        <f t="shared" ref="G56:G80" si="7">$C$3/E56</f>
         <v>1.2012738853503184</v>
       </c>
       <c r="J56" t="s">
@@ -14257,7 +17994,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.640845070422535</v>
       </c>
       <c r="R56" t="s">
@@ -14276,7 +18013,7 @@
         <v>2.2222219999999999</v>
       </c>
       <c r="W56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42.044585987261144</v>
       </c>
     </row>
@@ -14297,7 +18034,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3529411764705883</v>
       </c>
       <c r="J57" t="s">
@@ -14316,7 +18053,7 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5805515239477508</v>
       </c>
       <c r="R57" t="s">
@@ -14335,7 +18072,7 @@
         <v>2.5462959999999999</v>
       </c>
       <c r="W57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42.863636363636367</v>
       </c>
     </row>
@@ -14356,7 +18093,7 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5557388640113128</v>
       </c>
       <c r="J58" t="s">
@@ -14375,7 +18112,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.838574423480084</v>
       </c>
       <c r="R58" t="s">
@@ -14394,7 +18131,7 @@
         <v>2.2222219999999999</v>
       </c>
       <c r="W58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43.143790849673202</v>
       </c>
     </row>
@@ -14415,7 +18152,7 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8485018202184262</v>
       </c>
       <c r="J59" t="s">
@@ -14434,7 +18171,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.125</v>
       </c>
       <c r="R59" t="s">
@@ -14453,7 +18190,7 @@
         <v>3.0092590000000001</v>
       </c>
       <c r="W59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43.143790849673202</v>
       </c>
     </row>
@@ -14474,7 +18211,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.292013888888889</v>
       </c>
       <c r="J60" t="s">
@@ -14493,7 +18230,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.735294117647058</v>
       </c>
       <c r="R60" t="s">
@@ -14512,7 +18249,7 @@
         <v>1.8981479999999999</v>
       </c>
       <c r="W60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43.715231788079471</v>
       </c>
     </row>
@@ -14533,7 +18270,7 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0419354838709678</v>
       </c>
       <c r="J61" t="s">
@@ -14552,7 +18289,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.469613259668506</v>
       </c>
       <c r="R61" t="s">
@@ -14571,7 +18308,7 @@
         <v>2.2222219999999999</v>
       </c>
       <c r="W61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44.302013422818789</v>
       </c>
     </row>
@@ -14592,7 +18329,7 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4036024016010673</v>
       </c>
       <c r="J62" t="s">
@@ -14611,7 +18348,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="O62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46.485915492957744</v>
       </c>
       <c r="R62" t="s">
@@ -14630,7 +18367,7 @@
         <v>2.2222219999999999</v>
       </c>
       <c r="W62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.212328767123289</v>
       </c>
     </row>
@@ -14651,7 +18388,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="G63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.8688865764828302</v>
       </c>
       <c r="J63" t="s">
@@ -14670,7 +18407,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="O63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58.415929203539825</v>
       </c>
       <c r="R63" t="s">
@@ -14689,7 +18426,7 @@
         <v>3.3333330000000001</v>
       </c>
       <c r="W63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46.16083916083916</v>
       </c>
     </row>
@@ -14710,7 +18447,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="G64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.62962962962963</v>
       </c>
       <c r="J64" t="s">
@@ -14729,7 +18466,7 @@
         <v>2.0833330000000001</v>
       </c>
       <c r="O64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72.538461538461533</v>
       </c>
       <c r="R64" t="s">
@@ -14748,7 +18485,7 @@
         <v>3.6574070000000001</v>
       </c>
       <c r="W64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46.815602836879435</v>
       </c>
     </row>
@@ -14769,7 +18506,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="G65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.531764705882352</v>
       </c>
       <c r="J65" t="s">
@@ -14788,7 +18525,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="O65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88.013333333333335</v>
       </c>
       <c r="R65" t="s">
@@ -14807,7 +18544,7 @@
         <v>4.1203700000000003</v>
       </c>
       <c r="W65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46.815602836879435</v>
       </c>
     </row>
@@ -14828,7 +18565,7 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.431818181818183</v>
       </c>
       <c r="J66" t="s">
@@ -14847,7 +18584,7 @@
         <v>2.5462959999999999</v>
       </c>
       <c r="O66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106.46774193548387</v>
       </c>
       <c r="R66" t="s">
@@ -14866,7 +18603,7 @@
         <v>4.7685190000000004</v>
       </c>
       <c r="W66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47.489208633093526</v>
       </c>
     </row>
@@ -14887,7 +18624,7 @@
         <v>0.64814799999999995</v>
       </c>
       <c r="G67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.734234234234233</v>
       </c>
       <c r="J67" t="s">
@@ -14906,7 +18643,7 @@
         <v>4.4444439999999998</v>
       </c>
       <c r="O67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129.43137254901961</v>
       </c>
       <c r="R67" t="s">
@@ -14925,7 +18662,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6879432624113475</v>
       </c>
     </row>
@@ -14946,7 +18683,7 @@
         <v>0.64814799999999995</v>
       </c>
       <c r="G68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39.765060240963855</v>
       </c>
       <c r="J68" t="s">
@@ -14965,7 +18702,7 @@
         <v>8.1018519999999992</v>
       </c>
       <c r="O68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>157.16666666666666</v>
       </c>
       <c r="R68" t="s">
@@ -14984,7 +18721,7 @@
         <v>0</v>
       </c>
       <c r="W68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7151576805696847</v>
       </c>
     </row>
@@ -15005,7 +18742,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="G69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.976377952755904</v>
       </c>
       <c r="J69" t="s">
@@ -15024,7 +18761,7 @@
         <v>11.898148000000001</v>
       </c>
       <c r="O69">
-        <f t="shared" ref="O69:O75" si="7">$C$3/M69</f>
+        <f t="shared" ref="O69:O75" si="8">$C$3/M69</f>
         <v>188.6</v>
       </c>
       <c r="R69" t="s">
@@ -15043,7 +18780,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W69">
-        <f t="shared" ref="W69:W97" si="8">$C$3/U69</f>
+        <f t="shared" ref="W69:W97" si="9">$C$3/U69</f>
         <v>10.444620253164556</v>
       </c>
     </row>
@@ -15064,7 +18801,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="G70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64.715686274509807</v>
       </c>
       <c r="J70" t="s">
@@ -15083,7 +18820,7 @@
         <v>22.222221999999999</v>
       </c>
       <c r="O70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>227.62068965517241</v>
       </c>
       <c r="R70" t="s">
@@ -15102,7 +18839,7 @@
         <v>0.32407399999999997</v>
       </c>
       <c r="W70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13.498977505112475</v>
       </c>
     </row>
@@ -15123,7 +18860,7 @@
         <v>1.7592589999999999</v>
       </c>
       <c r="G71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>77.658823529411762</v>
       </c>
       <c r="J71" t="s">
@@ -15142,7 +18879,7 @@
         <v>31.435185000000001</v>
       </c>
       <c r="O71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>275.04166666666669</v>
       </c>
       <c r="R71" t="s">
@@ -15161,7 +18898,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="W71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17.555851063829788</v>
       </c>
     </row>
@@ -15182,7 +18919,7 @@
         <v>1.7592589999999999</v>
       </c>
       <c r="G72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>92.971830985915489</v>
       </c>
       <c r="J72" t="s">
@@ -15201,7 +18938,7 @@
         <v>42.546295999999998</v>
       </c>
       <c r="O72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.05</v>
       </c>
       <c r="R72" t="s">
@@ -15220,7 +18957,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="W72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21.930232558139537</v>
       </c>
     </row>
@@ -15241,7 +18978,7 @@
         <v>3.6574070000000001</v>
       </c>
       <c r="G73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>110.01666666666667</v>
       </c>
       <c r="J73" t="s">
@@ -15260,7 +18997,7 @@
         <v>53.657406999999999</v>
       </c>
       <c r="O73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>366.72222222222223</v>
       </c>
       <c r="R73" t="s">
@@ -15279,7 +19016,7 @@
         <v>1.111111</v>
       </c>
       <c r="W73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25.003787878787879</v>
       </c>
     </row>
@@ -15300,7 +19037,7 @@
         <v>3.7962959999999999</v>
       </c>
       <c r="G74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>132.02000000000001</v>
       </c>
       <c r="J74" t="s">
@@ -15319,7 +19056,7 @@
         <v>66.203704000000002</v>
       </c>
       <c r="O74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>412.5625</v>
       </c>
       <c r="R74" t="s">
@@ -15338,7 +19075,7 @@
         <v>1.7592589999999999</v>
       </c>
       <c r="W74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.390041493775932</v>
       </c>
     </row>
@@ -15359,7 +19096,7 @@
         <v>7.4537040000000001</v>
       </c>
       <c r="G75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>157.16666666666666</v>
       </c>
       <c r="J75" t="s">
@@ -15378,7 +19115,7 @@
         <v>69.212963000000002</v>
       </c>
       <c r="O75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>440.06666666666666</v>
       </c>
       <c r="R75" t="s">
@@ -15397,7 +19134,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="W75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28.20940170940171</v>
       </c>
     </row>
@@ -15418,7 +19155,7 @@
         <v>13.333333</v>
       </c>
       <c r="G76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>183.36111111111111</v>
       </c>
       <c r="R76" t="s">
@@ -15437,7 +19174,7 @@
         <v>1.4351849999999999</v>
       </c>
       <c r="W76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.433333333333334</v>
       </c>
     </row>
@@ -15458,7 +19195,7 @@
         <v>20.462962999999998</v>
       </c>
       <c r="G77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>212.93548387096774</v>
       </c>
       <c r="R77" t="s">
@@ -15477,7 +19214,7 @@
         <v>1.7592589999999999</v>
       </c>
       <c r="W77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.433333333333334</v>
       </c>
     </row>
@@ -15498,7 +19235,7 @@
         <v>28.101852000000001</v>
       </c>
       <c r="G78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>244.4814814814815</v>
       </c>
       <c r="R78" t="s">
@@ -15517,7 +19254,7 @@
         <v>1.8981479999999999</v>
       </c>
       <c r="W78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.517241379310342</v>
       </c>
     </row>
@@ -15538,7 +19275,7 @@
         <v>34.120370000000001</v>
       </c>
       <c r="G79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>287</v>
       </c>
       <c r="R79" t="s">
@@ -15557,7 +19294,7 @@
         <v>2.2222219999999999</v>
       </c>
       <c r="W79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35.681081081081082</v>
       </c>
     </row>
@@ -15578,7 +19315,7 @@
         <v>41.435184999999997</v>
       </c>
       <c r="G80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.05</v>
       </c>
       <c r="R80" t="s">
@@ -15597,7 +19334,7 @@
         <v>2.5462959999999999</v>
       </c>
       <c r="W80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36.071038251366119</v>
       </c>
     </row>
@@ -15618,7 +19355,7 @@
         <v>3.0092590000000001</v>
       </c>
       <c r="W81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36.469613259668506</v>
       </c>
     </row>
@@ -15639,7 +19376,7 @@
         <v>2.8703699999999999</v>
       </c>
       <c r="W82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37.084269662921351</v>
       </c>
     </row>
@@ -15660,7 +19397,7 @@
         <v>3.6574070000000001</v>
       </c>
       <c r="W83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40.25</v>
       </c>
     </row>
@@ -15681,7 +19418,7 @@
         <v>4.4444439999999998</v>
       </c>
       <c r="W84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40.25</v>
       </c>
     </row>
@@ -15702,7 +19439,7 @@
         <v>3.3333330000000001</v>
       </c>
       <c r="W85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
     </row>
@@ -15723,7 +19460,7 @@
         <v>4.1203700000000003</v>
       </c>
       <c r="W86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42.044585987261144</v>
       </c>
     </row>
@@ -15744,7 +19481,7 @@
         <v>4.1203700000000003</v>
       </c>
       <c r="W87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42.863636363636367</v>
       </c>
     </row>
@@ -15765,7 +19502,7 @@
         <v>7.4537040000000001</v>
       </c>
       <c r="W88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.143790849673202</v>
       </c>
     </row>
@@ -15786,7 +19523,7 @@
         <v>5.8796299999999997</v>
       </c>
       <c r="W89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.42763157894737</v>
       </c>
     </row>
@@ -15807,7 +19544,7 @@
         <v>4.9074070000000001</v>
       </c>
       <c r="W90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44.006666666666668</v>
       </c>
     </row>
@@ -15828,7 +19565,7 @@
         <v>5.2314809999999996</v>
       </c>
       <c r="W91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44.601351351351354</v>
       </c>
     </row>
@@ -15849,7 +19586,7 @@
         <v>4.1203700000000003</v>
       </c>
       <c r="W92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45.524137931034481</v>
       </c>
     </row>
@@ -15870,7 +19607,7 @@
         <v>5.2314809999999996</v>
       </c>
       <c r="W93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>46.16083916083916</v>
       </c>
     </row>
@@ -15891,7 +19628,7 @@
         <v>7.3148150000000003</v>
       </c>
       <c r="W94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>47.15</v>
       </c>
     </row>
@@ -15912,7 +19649,7 @@
         <v>7.3148150000000003</v>
       </c>
       <c r="W95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.182481751824817</v>
       </c>
     </row>
@@ -15933,7 +19670,7 @@
         <v>6.9907409999999999</v>
       </c>
       <c r="W96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.182481751824817</v>
       </c>
     </row>
@@ -15954,7 +19691,7 @@
         <v>8.1018519999999992</v>
       </c>
       <c r="W97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.896296296296299</v>
       </c>
     </row>
@@ -15965,4 +19702,2771 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:O77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="Q111" sqref="Q111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>26404</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>22460</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1.1756010690000001</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>16880</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.564218009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>23268</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1.134777377</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>14220</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.856821378</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>20908</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1.262865889</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>11348</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2.3267536130000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>17920</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1.4734375</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8308</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>3.1781415499999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>14884</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1.7739854880000001</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5460</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>4.8358974359999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>12048</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.1915670650000001</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3472</v>
+      </c>
+      <c r="N10">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="O10">
+        <v>7.6048387100000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>9300</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2.839139785</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2280</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>11.580701749999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>6484</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>4.0721776680000001</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>14</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1552</v>
+      </c>
+      <c r="N12">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="O12">
+        <v>17.012886600000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4120</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>6.4087378639999999</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1124</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>23.491103200000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2660</v>
+      </c>
+      <c r="F14">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="G14">
+        <v>9.9263157890000002</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>844</v>
+      </c>
+      <c r="N14">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="O14">
+        <v>31.284360190000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1848</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>14.287878790000001</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>648</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>40.746913579999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1384</v>
+      </c>
+      <c r="F16">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="G16">
+        <v>19.078034679999998</v>
+      </c>
+      <c r="J16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>22</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>512</v>
+      </c>
+      <c r="N16">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="O16">
+        <v>51.5703125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>996</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>26.510040159999999</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>24</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>416</v>
+      </c>
+      <c r="N17">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="O17">
+        <v>63.47115385</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>668</v>
+      </c>
+      <c r="F18">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="G18">
+        <v>39.526946109999997</v>
+      </c>
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>26</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>340</v>
+      </c>
+      <c r="N18">
+        <v>0.64814799999999995</v>
+      </c>
+      <c r="O18">
+        <v>77.658823530000006</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>520</v>
+      </c>
+      <c r="F19">
+        <v>0.64814799999999995</v>
+      </c>
+      <c r="G19">
+        <v>50.776923080000003</v>
+      </c>
+      <c r="J19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>28</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>280</v>
+      </c>
+      <c r="N19">
+        <v>1.4351849999999999</v>
+      </c>
+      <c r="O19">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>428</v>
+      </c>
+      <c r="F20">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="G20">
+        <v>61.691588789999997</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>30</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>232</v>
+      </c>
+      <c r="N20">
+        <v>1.4351849999999999</v>
+      </c>
+      <c r="O20">
+        <v>113.8103448</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>356</v>
+      </c>
+      <c r="F21">
+        <v>1.8981479999999999</v>
+      </c>
+      <c r="G21">
+        <v>74.168539330000002</v>
+      </c>
+      <c r="J21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>32</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>192</v>
+      </c>
+      <c r="N21">
+        <v>3.0092590000000001</v>
+      </c>
+      <c r="O21">
+        <v>137.52083329999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>300</v>
+      </c>
+      <c r="F22">
+        <v>1.111111</v>
+      </c>
+      <c r="G22">
+        <v>88.013333329999995</v>
+      </c>
+      <c r="J22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>34</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>160</v>
+      </c>
+      <c r="N22">
+        <v>4.4444439999999998</v>
+      </c>
+      <c r="O22">
+        <v>165.02500000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>256</v>
+      </c>
+      <c r="F23">
+        <v>2.8703699999999999</v>
+      </c>
+      <c r="G23">
+        <v>103.140625</v>
+      </c>
+      <c r="J23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>36</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>132</v>
+      </c>
+      <c r="N23">
+        <v>9.6759260000000005</v>
+      </c>
+      <c r="O23">
+        <v>200.030303</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>224</v>
+      </c>
+      <c r="F24">
+        <v>3.7962959999999999</v>
+      </c>
+      <c r="G24">
+        <v>117.875</v>
+      </c>
+      <c r="J24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>38</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>108</v>
+      </c>
+      <c r="N24">
+        <v>14.768519</v>
+      </c>
+      <c r="O24">
+        <v>244.4814815</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>188</v>
+      </c>
+      <c r="F25">
+        <v>5.2314809999999996</v>
+      </c>
+      <c r="G25">
+        <v>140.4468085</v>
+      </c>
+      <c r="J25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>40</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>88</v>
+      </c>
+      <c r="N25">
+        <v>23.333333</v>
+      </c>
+      <c r="O25">
+        <v>300.04545450000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>152</v>
+      </c>
+      <c r="F26">
+        <v>8.5648149999999994</v>
+      </c>
+      <c r="G26">
+        <v>173.7105263</v>
+      </c>
+      <c r="J26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>42</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>72</v>
+      </c>
+      <c r="N26">
+        <v>30.138888999999999</v>
+      </c>
+      <c r="O26">
+        <v>366.72222219999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>44</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>128</v>
+      </c>
+      <c r="F27">
+        <v>14.444444000000001</v>
+      </c>
+      <c r="G27">
+        <v>206.28125</v>
+      </c>
+      <c r="J27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>50</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>56</v>
+      </c>
+      <c r="N27">
+        <v>40.324074000000003</v>
+      </c>
+      <c r="O27">
+        <v>471.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>46</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>112</v>
+      </c>
+      <c r="F28">
+        <v>15.879630000000001</v>
+      </c>
+      <c r="G28">
+        <v>235.75</v>
+      </c>
+      <c r="J28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>16880</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1.564218009</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>48</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>96</v>
+      </c>
+      <c r="F29">
+        <v>25.555555999999999</v>
+      </c>
+      <c r="G29">
+        <v>275.04166670000001</v>
+      </c>
+      <c r="J29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>14220</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1.856821378</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>84</v>
+      </c>
+      <c r="F30">
+        <v>30.648147999999999</v>
+      </c>
+      <c r="G30">
+        <v>314.33333329999999</v>
+      </c>
+      <c r="J30" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>11348</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>2.3267536130000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>22100</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1.1947511310000001</v>
+      </c>
+      <c r="J31" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>8308</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>3.1781415499999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>21156</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1.248062016</v>
+      </c>
+      <c r="J32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>5460</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>4.8358974359999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>18476</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1.4290972070000001</v>
+      </c>
+      <c r="J33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>3472</v>
+      </c>
+      <c r="N33">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="O33">
+        <v>7.6048387100000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>15436</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1.710546774</v>
+      </c>
+      <c r="J34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>12</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>2280</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>11.580701749999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>12320</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>2.143181818</v>
+      </c>
+      <c r="J35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>14</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>1552</v>
+      </c>
+      <c r="N35">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="O35">
+        <v>17.012886600000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>9392</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>2.8113287900000001</v>
+      </c>
+      <c r="J36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>16</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>1124</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>23.491103200000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>6788</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>3.8898055390000001</v>
+      </c>
+      <c r="J37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>18</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>844</v>
+      </c>
+      <c r="N37">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="O37">
+        <v>31.284360190000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>4624</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>5.7102076119999996</v>
+      </c>
+      <c r="J38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>648</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>40.746913579999998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>3028</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>8.7199471600000003</v>
+      </c>
+      <c r="J39" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>22</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>512</v>
+      </c>
+      <c r="N39">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="O39">
+        <v>51.5703125</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>2036</v>
+      </c>
+      <c r="F40">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="G40">
+        <v>12.96856582</v>
+      </c>
+      <c r="J40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>24</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>416</v>
+      </c>
+      <c r="N40">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="O40">
+        <v>63.47115385</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>1456</v>
+      </c>
+      <c r="F41">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="G41">
+        <v>18.13461538</v>
+      </c>
+      <c r="J41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>26</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>340</v>
+      </c>
+      <c r="N41">
+        <v>0.64814799999999995</v>
+      </c>
+      <c r="O41">
+        <v>77.658823530000006</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>1048</v>
+      </c>
+      <c r="F42">
+        <v>0.64814799999999995</v>
+      </c>
+      <c r="G42">
+        <v>25.19465649</v>
+      </c>
+      <c r="J42" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>28</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>280</v>
+      </c>
+      <c r="N42">
+        <v>1.4351849999999999</v>
+      </c>
+      <c r="O42">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>796</v>
+      </c>
+      <c r="F43">
+        <v>0.64814799999999995</v>
+      </c>
+      <c r="G43">
+        <v>33.17085427</v>
+      </c>
+      <c r="J43" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>30</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <v>232</v>
+      </c>
+      <c r="N43">
+        <v>1.4351849999999999</v>
+      </c>
+      <c r="O43">
+        <v>113.8103448</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>568</v>
+      </c>
+      <c r="F44">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="G44">
+        <v>46.485915489999996</v>
+      </c>
+      <c r="J44" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>32</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
+      <c r="M44">
+        <v>192</v>
+      </c>
+      <c r="N44">
+        <v>3.0092590000000001</v>
+      </c>
+      <c r="O44">
+        <v>137.52083329999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>28</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>440</v>
+      </c>
+      <c r="F45">
+        <v>1.7592589999999999</v>
+      </c>
+      <c r="G45">
+        <v>60.009090909999998</v>
+      </c>
+      <c r="J45" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>34</v>
+      </c>
+      <c r="L45">
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <v>160</v>
+      </c>
+      <c r="N45">
+        <v>4.4444439999999998</v>
+      </c>
+      <c r="O45">
+        <v>165.02500000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>30</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>360</v>
+      </c>
+      <c r="F46">
+        <v>1.8981479999999999</v>
+      </c>
+      <c r="G46">
+        <v>73.344444440000004</v>
+      </c>
+      <c r="J46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>36</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>132</v>
+      </c>
+      <c r="N46">
+        <v>9.6759260000000005</v>
+      </c>
+      <c r="O46">
+        <v>200.030303</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>32</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>304</v>
+      </c>
+      <c r="F47">
+        <v>1.7592589999999999</v>
+      </c>
+      <c r="G47">
+        <v>86.855263160000007</v>
+      </c>
+      <c r="J47" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>38</v>
+      </c>
+      <c r="L47">
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>108</v>
+      </c>
+      <c r="N47">
+        <v>14.768519</v>
+      </c>
+      <c r="O47">
+        <v>244.4814815</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>34</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>256</v>
+      </c>
+      <c r="F48">
+        <v>3.7962959999999999</v>
+      </c>
+      <c r="G48">
+        <v>103.140625</v>
+      </c>
+      <c r="J48" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>40</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>88</v>
+      </c>
+      <c r="N48">
+        <v>23.333333</v>
+      </c>
+      <c r="O48">
+        <v>300.04545450000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>36</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>216</v>
+      </c>
+      <c r="F49">
+        <v>4.1203700000000003</v>
+      </c>
+      <c r="G49">
+        <v>122.2407407</v>
+      </c>
+      <c r="J49" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>42</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>72</v>
+      </c>
+      <c r="N49">
+        <v>30.138888999999999</v>
+      </c>
+      <c r="O49">
+        <v>366.72222219999998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>38</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>184</v>
+      </c>
+      <c r="F50">
+        <v>6.9907409999999999</v>
+      </c>
+      <c r="G50">
+        <v>143.5</v>
+      </c>
+      <c r="J50" t="s">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>50</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>56</v>
+      </c>
+      <c r="N50">
+        <v>40.324074000000003</v>
+      </c>
+      <c r="O50">
+        <v>471.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>40</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>156</v>
+      </c>
+      <c r="F51">
+        <v>8.1018519999999992</v>
+      </c>
+      <c r="G51">
+        <v>169.2564103</v>
+      </c>
+      <c r="J51" t="s">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>24</v>
+      </c>
+      <c r="M51">
+        <v>16880</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>1.564218009</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>42</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>132</v>
+      </c>
+      <c r="F52">
+        <v>15.231481</v>
+      </c>
+      <c r="G52">
+        <v>200.030303</v>
+      </c>
+      <c r="J52" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>24</v>
+      </c>
+      <c r="M52">
+        <v>14220</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>1.856821378</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>44</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>112</v>
+      </c>
+      <c r="F53">
+        <v>22.222221999999999</v>
+      </c>
+      <c r="G53">
+        <v>235.75</v>
+      </c>
+      <c r="J53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+      <c r="L53">
+        <v>24</v>
+      </c>
+      <c r="M53">
+        <v>11348</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>2.3267536130000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>46</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>96</v>
+      </c>
+      <c r="F54">
+        <v>28.564814999999999</v>
+      </c>
+      <c r="G54">
+        <v>275.04166670000001</v>
+      </c>
+      <c r="J54" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>6</v>
+      </c>
+      <c r="L54">
+        <v>24</v>
+      </c>
+      <c r="M54">
+        <v>8308</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>3.1781415499999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>48</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>84</v>
+      </c>
+      <c r="F55">
+        <v>30.462962999999998</v>
+      </c>
+      <c r="G55">
+        <v>314.33333329999999</v>
+      </c>
+      <c r="J55" t="s">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <v>8</v>
+      </c>
+      <c r="L55">
+        <v>24</v>
+      </c>
+      <c r="M55">
+        <v>5460</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>4.8358974359999998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>24</v>
+      </c>
+      <c r="E56">
+        <v>21864</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1.2076472739999999</v>
+      </c>
+      <c r="J56" t="s">
+        <v>3</v>
+      </c>
+      <c r="K56">
+        <v>10</v>
+      </c>
+      <c r="L56">
+        <v>24</v>
+      </c>
+      <c r="M56">
+        <v>3472</v>
+      </c>
+      <c r="N56">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="O56">
+        <v>7.6048387100000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>24</v>
+      </c>
+      <c r="E57">
+        <v>19408</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1.3604699090000001</v>
+      </c>
+      <c r="J57" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <v>12</v>
+      </c>
+      <c r="L57">
+        <v>24</v>
+      </c>
+      <c r="M57">
+        <v>2280</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>11.580701749999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>24</v>
+      </c>
+      <c r="E58">
+        <v>16436</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1.606473595</v>
+      </c>
+      <c r="J58" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <v>14</v>
+      </c>
+      <c r="L58">
+        <v>24</v>
+      </c>
+      <c r="M58">
+        <v>1552</v>
+      </c>
+      <c r="N58">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="O58">
+        <v>17.012886600000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>24</v>
+      </c>
+      <c r="E59">
+        <v>13308</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1.984069732</v>
+      </c>
+      <c r="J59" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59">
+        <v>16</v>
+      </c>
+      <c r="L59">
+        <v>24</v>
+      </c>
+      <c r="M59">
+        <v>1124</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>23.491103200000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>24</v>
+      </c>
+      <c r="E60">
+        <v>10124</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>2.6080600550000002</v>
+      </c>
+      <c r="J60" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60">
+        <v>18</v>
+      </c>
+      <c r="L60">
+        <v>24</v>
+      </c>
+      <c r="M60">
+        <v>844</v>
+      </c>
+      <c r="N60">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="O60">
+        <v>31.284360190000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>24</v>
+      </c>
+      <c r="E61">
+        <v>7220</v>
+      </c>
+      <c r="F61">
+        <v>0.13888900000000001</v>
+      </c>
+      <c r="G61">
+        <v>3.6570637119999998</v>
+      </c>
+      <c r="J61" t="s">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>20</v>
+      </c>
+      <c r="L61">
+        <v>24</v>
+      </c>
+      <c r="M61">
+        <v>648</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>40.746913579999998</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>24</v>
+      </c>
+      <c r="E62">
+        <v>4912</v>
+      </c>
+      <c r="F62">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="G62">
+        <v>5.3754071659999996</v>
+      </c>
+      <c r="J62" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62">
+        <v>22</v>
+      </c>
+      <c r="L62">
+        <v>24</v>
+      </c>
+      <c r="M62">
+        <v>512</v>
+      </c>
+      <c r="N62">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="O62">
+        <v>51.5703125</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>14</v>
+      </c>
+      <c r="D63">
+        <v>24</v>
+      </c>
+      <c r="E63">
+        <v>3164</v>
+      </c>
+      <c r="F63">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="G63">
+        <v>8.3451327430000006</v>
+      </c>
+      <c r="J63" t="s">
+        <v>3</v>
+      </c>
+      <c r="K63">
+        <v>24</v>
+      </c>
+      <c r="L63">
+        <v>24</v>
+      </c>
+      <c r="M63">
+        <v>416</v>
+      </c>
+      <c r="N63">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="O63">
+        <v>63.47115385</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>16</v>
+      </c>
+      <c r="D64">
+        <v>24</v>
+      </c>
+      <c r="E64">
+        <v>2096</v>
+      </c>
+      <c r="F64">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="G64">
+        <v>12.59732824</v>
+      </c>
+      <c r="J64" t="s">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>26</v>
+      </c>
+      <c r="L64">
+        <v>24</v>
+      </c>
+      <c r="M64">
+        <v>340</v>
+      </c>
+      <c r="N64">
+        <v>0.64814799999999995</v>
+      </c>
+      <c r="O64">
+        <v>77.658823530000006</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>18</v>
+      </c>
+      <c r="D65">
+        <v>24</v>
+      </c>
+      <c r="E65">
+        <v>1476</v>
+      </c>
+      <c r="F65">
+        <v>0.32407399999999997</v>
+      </c>
+      <c r="G65">
+        <v>17.88888889</v>
+      </c>
+      <c r="J65" t="s">
+        <v>3</v>
+      </c>
+      <c r="K65">
+        <v>28</v>
+      </c>
+      <c r="L65">
+        <v>24</v>
+      </c>
+      <c r="M65">
+        <v>280</v>
+      </c>
+      <c r="N65">
+        <v>1.4351849999999999</v>
+      </c>
+      <c r="O65">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>20</v>
+      </c>
+      <c r="D66">
+        <v>24</v>
+      </c>
+      <c r="E66">
+        <v>1096</v>
+      </c>
+      <c r="F66">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="G66">
+        <v>24.091240880000001</v>
+      </c>
+      <c r="J66" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <v>30</v>
+      </c>
+      <c r="L66">
+        <v>24</v>
+      </c>
+      <c r="M66">
+        <v>232</v>
+      </c>
+      <c r="N66">
+        <v>1.4351849999999999</v>
+      </c>
+      <c r="O66">
+        <v>113.8103448</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>22</v>
+      </c>
+      <c r="D67">
+        <v>24</v>
+      </c>
+      <c r="E67">
+        <v>800</v>
+      </c>
+      <c r="F67">
+        <v>1.111111</v>
+      </c>
+      <c r="G67">
+        <v>33.005000000000003</v>
+      </c>
+      <c r="J67" t="s">
+        <v>3</v>
+      </c>
+      <c r="K67">
+        <v>32</v>
+      </c>
+      <c r="L67">
+        <v>24</v>
+      </c>
+      <c r="M67">
+        <v>192</v>
+      </c>
+      <c r="N67">
+        <v>3.0092590000000001</v>
+      </c>
+      <c r="O67">
+        <v>137.52083329999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>24</v>
+      </c>
+      <c r="E68">
+        <v>600</v>
+      </c>
+      <c r="F68">
+        <v>1.111111</v>
+      </c>
+      <c r="G68">
+        <v>44.006666670000001</v>
+      </c>
+      <c r="J68" t="s">
+        <v>3</v>
+      </c>
+      <c r="K68">
+        <v>34</v>
+      </c>
+      <c r="L68">
+        <v>24</v>
+      </c>
+      <c r="M68">
+        <v>160</v>
+      </c>
+      <c r="N68">
+        <v>4.4444439999999998</v>
+      </c>
+      <c r="O68">
+        <v>165.02500000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>26</v>
+      </c>
+      <c r="D69">
+        <v>24</v>
+      </c>
+      <c r="E69">
+        <v>460</v>
+      </c>
+      <c r="F69">
+        <v>1.4351849999999999</v>
+      </c>
+      <c r="G69">
+        <v>57.4</v>
+      </c>
+      <c r="J69" t="s">
+        <v>3</v>
+      </c>
+      <c r="K69">
+        <v>36</v>
+      </c>
+      <c r="L69">
+        <v>24</v>
+      </c>
+      <c r="M69">
+        <v>132</v>
+      </c>
+      <c r="N69">
+        <v>9.6759260000000005</v>
+      </c>
+      <c r="O69">
+        <v>200.030303</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>28</v>
+      </c>
+      <c r="D70">
+        <v>24</v>
+      </c>
+      <c r="E70">
+        <v>376</v>
+      </c>
+      <c r="F70">
+        <v>1.111111</v>
+      </c>
+      <c r="G70">
+        <v>70.223404259999995</v>
+      </c>
+      <c r="J70" t="s">
+        <v>3</v>
+      </c>
+      <c r="K70">
+        <v>38</v>
+      </c>
+      <c r="L70">
+        <v>24</v>
+      </c>
+      <c r="M70">
+        <v>108</v>
+      </c>
+      <c r="N70">
+        <v>14.768519</v>
+      </c>
+      <c r="O70">
+        <v>244.4814815</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>30</v>
+      </c>
+      <c r="D71">
+        <v>24</v>
+      </c>
+      <c r="E71">
+        <v>312</v>
+      </c>
+      <c r="F71">
+        <v>2.5462959999999999</v>
+      </c>
+      <c r="G71">
+        <v>84.628205129999998</v>
+      </c>
+      <c r="J71" t="s">
+        <v>3</v>
+      </c>
+      <c r="K71">
+        <v>40</v>
+      </c>
+      <c r="L71">
+        <v>24</v>
+      </c>
+      <c r="M71">
+        <v>88</v>
+      </c>
+      <c r="N71">
+        <v>23.333333</v>
+      </c>
+      <c r="O71">
+        <v>300.04545450000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>32</v>
+      </c>
+      <c r="D72">
+        <v>24</v>
+      </c>
+      <c r="E72">
+        <v>264</v>
+      </c>
+      <c r="F72">
+        <v>2.5462959999999999</v>
+      </c>
+      <c r="G72">
+        <v>100.0151515</v>
+      </c>
+      <c r="J72" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72">
+        <v>42</v>
+      </c>
+      <c r="L72">
+        <v>24</v>
+      </c>
+      <c r="M72">
+        <v>72</v>
+      </c>
+      <c r="N72">
+        <v>30.138888999999999</v>
+      </c>
+      <c r="O72">
+        <v>366.72222219999998</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>34</v>
+      </c>
+      <c r="D73">
+        <v>24</v>
+      </c>
+      <c r="E73">
+        <v>224</v>
+      </c>
+      <c r="F73">
+        <v>5.5555560000000002</v>
+      </c>
+      <c r="G73">
+        <v>117.875</v>
+      </c>
+      <c r="J73" t="s">
+        <v>3</v>
+      </c>
+      <c r="K73">
+        <v>50</v>
+      </c>
+      <c r="L73">
+        <v>24</v>
+      </c>
+      <c r="M73">
+        <v>56</v>
+      </c>
+      <c r="N73">
+        <v>40.324074000000003</v>
+      </c>
+      <c r="O73">
+        <v>471.5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>36</v>
+      </c>
+      <c r="D74">
+        <v>24</v>
+      </c>
+      <c r="E74">
+        <v>192</v>
+      </c>
+      <c r="F74">
+        <v>8.5648149999999994</v>
+      </c>
+      <c r="G74">
+        <v>137.52083329999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>38</v>
+      </c>
+      <c r="D75">
+        <v>24</v>
+      </c>
+      <c r="E75">
+        <v>160</v>
+      </c>
+      <c r="F75">
+        <v>11.898148000000001</v>
+      </c>
+      <c r="G75">
+        <v>165.02500000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>40</v>
+      </c>
+      <c r="D76">
+        <v>24</v>
+      </c>
+      <c r="E76">
+        <v>136</v>
+      </c>
+      <c r="F76">
+        <v>16.342593000000001</v>
+      </c>
+      <c r="G76">
+        <v>194.1470588</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>50</v>
+      </c>
+      <c r="D77">
+        <v>24</v>
+      </c>
+      <c r="E77">
+        <v>68</v>
+      </c>
+      <c r="F77">
+        <v>53.333333000000003</v>
+      </c>
+      <c r="G77">
+        <v>388.29411759999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -118,9 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6850,7 +6851,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>h.264 veryslow</c:v>
+            <c:v>h.264 medium</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -6891,238 +6892,232 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>veryslow!$G$5:$G$77</c:f>
+              <c:f>medium!$O$5:$O$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>1.1756010690000001</c:v>
+                  <c:v>1.6804989816700611</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.134777377</c:v>
+                  <c:v>2.0506368437402922</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.262865889</c:v>
+                  <c:v>2.5704828660436139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4734375</c:v>
+                  <c:v>3.3764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7739854880000001</c:v>
+                  <c:v>4.661723163841808</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1915670650000001</c:v>
+                  <c:v>6.640845070422535</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.839139785</c:v>
+                  <c:v>9.5805515239477508</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0721776680000001</c:v>
+                  <c:v>13.838574423480084</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4087378639999999</c:v>
+                  <c:v>20.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9263157890000002</c:v>
+                  <c:v>27.735294117647058</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.287878790000001</c:v>
+                  <c:v>36.469613259668506</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.078034679999998</c:v>
+                  <c:v>46.485915492957744</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.510040159999999</c:v>
+                  <c:v>58.415929203539825</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.526946109999997</c:v>
+                  <c:v>72.538461538461533</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.776923080000003</c:v>
+                  <c:v>88.013333333333335</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61.691588789999997</c:v>
+                  <c:v>106.46774193548387</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74.168539330000002</c:v>
+                  <c:v>129.43137254901961</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>88.013333329999995</c:v>
+                  <c:v>157.16666666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>103.140625</c:v>
+                  <c:v>188.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>117.875</c:v>
+                  <c:v>227.62068965517241</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>140.4468085</c:v>
+                  <c:v>275.04166666666669</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>173.7105263</c:v>
+                  <c:v>330.05</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>206.28125</c:v>
+                  <c:v>366.72222222222223</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>235.75</c:v>
+                  <c:v>412.5625</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>275.04166670000001</c:v>
+                  <c:v>440.06666666666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>314.33333329999999</c:v>
+                  <c:v>1.6804989816700611</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1947511310000001</c:v>
+                  <c:v>2.0506368437402922</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.248062016</c:v>
+                  <c:v>2.5704828660436139</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4290972070000001</c:v>
+                  <c:v>3.3764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.710546774</c:v>
+                  <c:v>4.661723163841808</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.143181818</c:v>
+                  <c:v>6.640845070422535</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.8113287900000001</c:v>
+                  <c:v>9.5805515239477508</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.8898055390000001</c:v>
+                  <c:v>13.838574423480084</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.7102076119999996</c:v>
+                  <c:v>20.125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.7199471600000003</c:v>
+                  <c:v>27.735294117647058</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12.96856582</c:v>
+                  <c:v>36.469613259668506</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>18.13461538</c:v>
+                  <c:v>46.485915492957744</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.19465649</c:v>
+                  <c:v>58.415929203539825</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>33.17085427</c:v>
+                  <c:v>72.538461538461533</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>46.485915489999996</c:v>
+                  <c:v>88.013333333333335</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>60.009090909999998</c:v>
+                  <c:v>106.46774193548387</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>73.344444440000004</c:v>
+                  <c:v>129.43137254901961</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86.855263160000007</c:v>
+                  <c:v>157.16666666666666</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>103.140625</c:v>
+                  <c:v>169.25641025641025</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>122.2407407</c:v>
+                  <c:v>188.6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>143.5</c:v>
+                  <c:v>227.62068965517241</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>169.2564103</c:v>
+                  <c:v>1.6804989816700611</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>200.030303</c:v>
+                  <c:v>2.0506368437402922</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>235.75</c:v>
+                  <c:v>2.5704828660436139</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>275.04166670000001</c:v>
+                  <c:v>3.3764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>314.33333329999999</c:v>
+                  <c:v>4.661723163841808</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2076472739999999</c:v>
+                  <c:v>6.640845070422535</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.3604699090000001</c:v>
+                  <c:v>9.5805515239477508</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.606473595</c:v>
+                  <c:v>13.838574423480084</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.984069732</c:v>
+                  <c:v>20.125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.6080600550000002</c:v>
+                  <c:v>27.735294117647058</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.6570637119999998</c:v>
+                  <c:v>36.469613259668506</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.3754071659999996</c:v>
+                  <c:v>46.485915492957744</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.3451327430000006</c:v>
+                  <c:v>58.415929203539825</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>12.59732824</c:v>
+                  <c:v>72.538461538461533</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>17.88888889</c:v>
+                  <c:v>88.013333333333335</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>24.091240880000001</c:v>
+                  <c:v>106.46774193548387</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>33.005000000000003</c:v>
+                  <c:v>129.43137254901961</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>44.006666670000001</c:v>
+                  <c:v>157.16666666666666</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>57.4</c:v>
+                  <c:v>188.6</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>70.223404259999995</c:v>
+                  <c:v>227.62068965517241</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>84.628205129999998</c:v>
+                  <c:v>275.04166666666669</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>100.0151515</c:v>
+                  <c:v>330.05</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>117.875</c:v>
+                  <c:v>366.72222222222223</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>137.52083329999999</c:v>
+                  <c:v>412.5625</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>165.02500000000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>194.1470588</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>388.29411759999999</c:v>
+                  <c:v>440.06666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>veryslow!$F$5:$F$77</c:f>
+              <c:f>medium!$N$5:$N$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7139,67 +7134,67 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.32407399999999997</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.78703699999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.64814799999999995</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.78703699999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.8981479999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.111111</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.8703699999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.7962959999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2314809999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.5648149999999994</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14.444444000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15.879630000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25.555555999999999</c:v>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>2.0833330000000001</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>2.5462959999999999</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>8.1018519999999992</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>11.898148000000001</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>22.222221999999999</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0">
+                  <c:v>31.435185000000001</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="#,##0">
+                  <c:v>42.546295999999998</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="#,##0">
+                  <c:v>53.657406999999999</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="#,##0">
+                  <c:v>66.203704000000002</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="#,##0">
+                  <c:v>69.212963000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.648147999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -7214,19 +7209,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.32407399999999997</c:v>
@@ -7235,112 +7230,106 @@
                   <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.64814799999999995</c:v>
+                  <c:v>1.4351849999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.64814799999999995</c:v>
+                  <c:v>2.0833330000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.78703699999999999</c:v>
+                  <c:v>1.4351849999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.7592589999999999</c:v>
+                  <c:v>2.5462959999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.8981479999999999</c:v>
+                  <c:v>4.4444439999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.7592589999999999</c:v>
+                  <c:v>8.1018519999999992</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.7962959999999999</c:v>
+                  <c:v>8.8888890000000007</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.1203700000000003</c:v>
+                  <c:v>11.898148000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.9907409999999999</c:v>
+                  <c:v>22.222221999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.1018519999999992</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>15.231481</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>22.222221999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>28.564814999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>30.462962999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.13888900000000001</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.32407399999999997</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.32407399999999997</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.32407399999999997</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.32407399999999997</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.78703699999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.111111</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.111111</c:v>
-                </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="58" formatCode="#,##0">
                   <c:v>1.4351849999999999</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.111111</c:v>
-                </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="59" formatCode="#,##0">
+                  <c:v>2.0833330000000001</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="#,##0">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="#,##0">
                   <c:v>2.5462959999999999</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.5462959999999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5.5555560000000002</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8.5648149999999994</c:v>
-                </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="62" formatCode="#,##0">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="#,##0">
+                  <c:v>8.1018519999999992</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="#,##0">
                   <c:v>11.898148000000001</c:v>
                 </c:pt>
-                <c:pt idx="71">
-                  <c:v>16.342593000000001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>53.333333000000003</c:v>
+                <c:pt idx="65" formatCode="#,##0">
+                  <c:v>22.222221999999999</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="#,##0">
+                  <c:v>31.435185000000001</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="#,##0">
+                  <c:v>42.546295999999998</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="#,##0">
+                  <c:v>53.657406999999999</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="#,##0">
+                  <c:v>66.203704000000002</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="#,##0">
+                  <c:v>69.212963000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7348,15 +7337,15 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9527-4773-A68E-97A4FE115A57}"/>
+              <c16:uniqueId val="{00000003-D40D-44CB-9911-6AB6E4A84553}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>h.264 medium</c:v>
+            <c:v>h.264 veryslow</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -7397,247 +7386,226 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>medium!$G$5:$G$80</c:f>
+              <c:f>veryslow!$O$5:$O$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>1.1718444878395171</c:v>
+                  <c:v>1.564218009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1840358744394619</c:v>
+                  <c:v>1.856821378</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3316522089973775</c:v>
+                  <c:v>2.3267536130000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5237765466297322</c:v>
+                  <c:v>3.1781415499999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7947253942359978</c:v>
+                  <c:v>4.8358974359999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1901128069011282</c:v>
+                  <c:v>7.6048387100000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8637744034707158</c:v>
+                  <c:v>11.580701749999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.193773824650572</c:v>
+                  <c:v>17.012886600000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8688865764828302</c:v>
+                  <c:v>23.491103200000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.681229773462784</c:v>
+                  <c:v>31.284360190000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.568396226415095</c:v>
+                  <c:v>40.746913579999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.003333333333334</c:v>
+                  <c:v>51.5703125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.136792452830189</c:v>
+                  <c:v>63.47115385</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44.904761904761905</c:v>
+                  <c:v>77.658823530000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>55.940677966101696</c:v>
+                  <c:v>94.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66.676767676767682</c:v>
+                  <c:v>113.8103448</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79.53012048192771</c:v>
+                  <c:v>137.52083329999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>165.02500000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200.030303</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>244.4814815</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300.04545450000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>366.72222219999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>471.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.564218009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.856821378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3267536130000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1781415499999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8358974359999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.6048387100000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.580701749999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.012886600000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.491103200000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31.284360190000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.746913579999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.5703125</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63.47115385</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77.658823530000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>94.3</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>111.88135593220339</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>129.43137254901961</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>150.02272727272728</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>173.71052631578948</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>194.14705882352942</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>227.62068965517241</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>253.88461538461539</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>314.33333333333331</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.1893693693693694</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.2874975619270528</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.4652608213096558</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.7141002337055311</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.0764391318024535</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.6670707070707071</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.7209695603156709</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.6758383490971624</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.9202702702702705</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>13.443991853360489</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>18.914040114613179</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>26.404</c:v>
-                </c:pt>
                 <c:pt idx="38">
-                  <c:v>35.875</c:v>
+                  <c:v>113.8103448</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>49.261194029850749</c:v>
+                  <c:v>137.52083329999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>61.691588785046726</c:v>
+                  <c:v>165.02500000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>74.168539325842701</c:v>
+                  <c:v>200.030303</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>88.013333333333335</c:v>
+                  <c:v>244.4814815</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>104.77777777777777</c:v>
+                  <c:v>300.04545450000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>124.54716981132076</c:v>
+                  <c:v>366.72222219999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>146.6888888888889</c:v>
+                  <c:v>471.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>161</c:v>
+                  <c:v>1.564218009</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>173.71052631578948</c:v>
+                  <c:v>1.856821378</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>200.03030303030303</c:v>
+                  <c:v>2.3267536130000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>264.04000000000002</c:v>
+                  <c:v>3.1781415499999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>300.04545454545456</c:v>
+                  <c:v>4.8358974359999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2012738853503184</c:v>
+                  <c:v>7.6048387100000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.3529411764705883</c:v>
+                  <c:v>11.580701749999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.5557388640113128</c:v>
+                  <c:v>17.012886600000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.8485018202184262</c:v>
+                  <c:v>23.491103200000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.292013888888889</c:v>
+                  <c:v>31.284360190000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0419354838709678</c:v>
+                  <c:v>40.746913579999998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.4036024016010673</c:v>
+                  <c:v>51.5703125</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.8688865764828302</c:v>
+                  <c:v>63.47115385</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10.62962962962963</c:v>
+                  <c:v>77.658823530000006</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>15.531764705882352</c:v>
+                  <c:v>94.3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>21.431818181818183</c:v>
+                  <c:v>113.8103448</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>29.734234234234233</c:v>
+                  <c:v>137.52083329999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>39.765060240963855</c:v>
+                  <c:v>165.02500000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>51.976377952755904</c:v>
+                  <c:v>200.030303</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>64.715686274509807</c:v>
+                  <c:v>244.4814815</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>77.658823529411762</c:v>
+                  <c:v>300.04545450000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>92.971830985915489</c:v>
+                  <c:v>366.72222219999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>110.01666666666667</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>132.02000000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>157.16666666666666</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>183.36111111111111</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>212.93548387096774</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>244.4814814814815</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>330.05</c:v>
+                  <c:v>471.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>medium!$F$5:$F$80</c:f>
+              <c:f>veryslow!$N$5:$N$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7654,19 +7622,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -7675,46 +7643,46 @@
                   <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.64814799999999995</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="#,##0">
-                  <c:v>1.111111</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="#,##0">
-                  <c:v>1.111111</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="#,##0">
+                <c:pt idx="14">
                   <c:v>1.4351849999999999</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="#,##0">
-                  <c:v>2.2222219999999999</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="#,##0">
-                  <c:v>1.8981479999999999</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="#,##0">
-                  <c:v>2.8703699999999999</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="#,##0">
-                  <c:v>5.5555560000000002</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="#,##0">
-                  <c:v>8.5648149999999994</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="#,##0">
-                  <c:v>15.092593000000001</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="#,##0">
-                  <c:v>21.759259</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="#,##0">
-                  <c:v>28.101852000000001</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="#,##0">
-                  <c:v>32.870370000000001</c:v>
+                <c:pt idx="15">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0092590000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6759260000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.768519</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.138888999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.324074000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -7723,19 +7691,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
@@ -7747,124 +7715,103 @@
                   <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0092590000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.6759260000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.768519</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.333333</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30.138888999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40.324074000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>0.32407399999999997</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.78703699999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.78703699999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.78703699999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.78703699999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.4351849999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.4351849999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.2222219999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.1203700000000003</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.8796299999999997</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9.6759260000000005</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>11.898148000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>16.666667</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>32.222222000000002</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>37.314815000000003</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>0.32407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.32407399999999997</c:v>
+                  <c:v>0.64814799999999995</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.32407399999999997</c:v>
+                  <c:v>1.4351849999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>1.4351849999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.64814799999999995</c:v>
+                  <c:v>3.0092590000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.64814799999999995</c:v>
-                </c:pt>
-                <c:pt idx="64" formatCode="#,##0">
-                  <c:v>1.4351849999999999</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="#,##0">
-                  <c:v>1.4351849999999999</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="#,##0">
-                  <c:v>1.7592589999999999</c:v>
-                </c:pt>
-                <c:pt idx="67" formatCode="#,##0">
-                  <c:v>1.7592589999999999</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="#,##0">
-                  <c:v>3.6574070000000001</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="#,##0">
-                  <c:v>3.7962959999999999</c:v>
-                </c:pt>
-                <c:pt idx="70" formatCode="#,##0">
-                  <c:v>7.4537040000000001</c:v>
-                </c:pt>
-                <c:pt idx="71" formatCode="#,##0">
-                  <c:v>13.333333</c:v>
-                </c:pt>
-                <c:pt idx="72" formatCode="#,##0">
-                  <c:v>20.462962999999998</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="#,##0">
-                  <c:v>28.101852000000001</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="#,##0">
-                  <c:v>34.120370000000001</c:v>
-                </c:pt>
-                <c:pt idx="75" formatCode="#,##0">
-                  <c:v>41.435184999999997</c:v>
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.6759260000000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.768519</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>23.333333</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>30.138888999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40.324074000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7872,7 +7819,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9527-4773-A68E-97A4FE115A57}"/>
+              <c16:uniqueId val="{00000004-D40D-44CB-9911-6AB6E4A84553}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14066,16 +14013,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14408,7 +14355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AD97"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C39" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -19706,10 +19653,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O77"/>
+  <dimension ref="B3:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="Q111" sqref="Q111"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="Q79" sqref="Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22465,6 +22412,9 @@
         <v>388.29411759999999</v>
       </c>
     </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L79" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="GOP1" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'jp2'!$B$37:$L$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -205,7 +205,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -231,7 +230,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -426,7 +425,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D285-4029-9E0F-22CD3577BBD4}"/>
             </c:ext>
@@ -593,7 +592,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D285-4029-9E0F-22CD3577BBD4}"/>
             </c:ext>
@@ -832,7 +831,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D285-4029-9E0F-22CD3577BBD4}"/>
             </c:ext>
@@ -918,7 +917,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361171968"/>
@@ -994,7 +993,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361171576"/>
@@ -1011,7 +1010,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1037,7 +1035,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1067,14 +1065,14 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1113,7 +1111,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1139,7 +1136,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1647,7 +1644,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1AAB-4EBA-9B4C-BBD6DA2B7DE3}"/>
             </c:ext>
@@ -2145,7 +2142,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1AAB-4EBA-9B4C-BBD6DA2B7DE3}"/>
             </c:ext>
@@ -2231,7 +2228,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="414239072"/>
@@ -2307,7 +2304,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="414240248"/>
@@ -2324,7 +2321,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2350,7 +2346,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2380,7 +2376,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2392,7 +2388,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -2436,7 +2432,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2462,7 +2457,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2948,7 +2943,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-86BD-4E3F-A94A-DC42D3B97878}"/>
             </c:ext>
@@ -3442,7 +3437,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-86BD-4E3F-A94A-DC42D3B97878}"/>
             </c:ext>
@@ -3528,7 +3523,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="414239856"/>
@@ -3604,7 +3599,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="414241032"/>
@@ -3621,7 +3616,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3647,7 +3641,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3677,7 +3671,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3689,7 +3683,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -3753,7 +3747,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3948,7 +3942,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E2DA-4B0D-85FD-C550B21BD27C}"/>
             </c:ext>
@@ -4127,7 +4121,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E2DA-4B0D-85FD-C550B21BD27C}"/>
             </c:ext>
@@ -4306,9 +4300,308 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E2DA-4B0D-85FD-C550B21BD27C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>jp2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'jp2'!$BH$4:$BH$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.1275185420359641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1897295135326802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4117647832868006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.675032554939403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.914322020556419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.150975406391758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.345931581096782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.529323657327105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.616326933063384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.652022629418241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.855946977199473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.284896370712282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.362087744349793</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.353218136947518</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.576598308454976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.991535465561711</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.164751370476509</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.894905677117407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.03665543713025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.182018902046281</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.305665872816775</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.878486172161487</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.077934747394593</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.135889130251229</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102.09414428083176</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105.12720881470213</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>108.52672837855619</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112.24650685021707</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116.36626801008474</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120.33663548059185</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>124.75527658785531</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.48894139500703</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>136.44731828878488</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>142.48351164604927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>147.837321708362</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>151.19853236831523</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>154.45446418324264</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>157.07987885787301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>160.25175793735352</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>163.02673322877217</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>166.19063434290914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'jp2'!$BB$4:$BB$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7592589999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2222219999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5462959999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1203700000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7685190000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0925929999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0185190000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5555560000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8796299999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.3425929999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9907409999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.7777779999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.8888890000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.5370369999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6759260000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.324074</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.787037</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.111110999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6AC0-4CE9-A9FC-0AFC8EFAEDCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4392,7 +4685,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="414237112"/>
@@ -4468,7 +4761,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="414235544"/>
@@ -4510,7 +4803,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4540,7 +4833,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4552,7 +4845,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -4616,7 +4909,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4787,7 +5080,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2D0C-420E-8E8D-8CC6A31392E5}"/>
             </c:ext>
@@ -4960,7 +5253,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2D0C-420E-8E8D-8CC6A31392E5}"/>
             </c:ext>
@@ -5127,9 +5420,308 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2D0C-420E-8E8D-8CC6A31392E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>jp2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'jp2'!$BH$4:$BH$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.1275185420359641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1897295135326802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4117647832868006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.675032554939403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.914322020556419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.150975406391758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.345931581096782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.529323657327105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.616326933063384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.652022629418241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.855946977199473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.284896370712282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.362087744349793</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.353218136947518</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.576598308454976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.991535465561711</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.164751370476509</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.894905677117407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.03665543713025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.182018902046281</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.305665872816775</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.878486172161487</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.077934747394593</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.135889130251229</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102.09414428083176</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105.12720881470213</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>108.52672837855619</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112.24650685021707</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116.36626801008474</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120.33663548059185</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>124.75527658785531</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.48894139500703</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>136.44731828878488</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>142.48351164604927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>147.837321708362</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>151.19853236831523</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>154.45446418324264</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>157.07987885787301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>160.25175793735352</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>163.02673322877217</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>166.19063434290914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'jp2'!$BB$4:$BB$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7592589999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2222219999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5462959999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1203700000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7685190000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0925929999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0185190000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5555560000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8796299999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.3425929999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9907409999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.7777779999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.8888890000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.5370369999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6759260000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.324074</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.787037</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.111110999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8553-4904-98FC-2A4C7A992E9F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5213,7 +5805,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="414236720"/>
@@ -5289,7 +5881,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="414234760"/>
@@ -5331,7 +5923,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5361,7 +5953,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5373,7 +5965,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -5442,7 +6034,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5698,7 +6290,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C770-4868-9DA2-8BEDB9EAFFBC}"/>
             </c:ext>
@@ -5950,7 +6542,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C770-4868-9DA2-8BEDB9EAFFBC}"/>
             </c:ext>
@@ -6202,9 +6794,308 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C770-4868-9DA2-8BEDB9EAFFBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>jp2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'jp2'!$BH$4:$BH$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.1275185420359641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1897295135326802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4117647832868006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.675032554939403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.914322020556419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.150975406391758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.345931581096782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.529323657327105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.616326933063384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.652022629418241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.855946977199473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.284896370712282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.362087744349793</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.353218136947518</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.576598308454976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.991535465561711</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.164751370476509</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.894905677117407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.03665543713025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.182018902046281</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.305665872816775</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.878486172161487</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.077934747394593</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.135889130251229</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102.09414428083176</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105.12720881470213</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>108.52672837855619</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112.24650685021707</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116.36626801008474</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120.33663548059185</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>124.75527658785531</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.48894139500703</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>136.44731828878488</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>142.48351164604927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>147.837321708362</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>151.19853236831523</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>154.45446418324264</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>157.07987885787301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>160.25175793735352</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>163.02673322877217</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>166.19063434290914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'jp2'!$BB$4:$BB$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7592589999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2222219999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5462959999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1203700000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7685190000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0925929999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0185190000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5555560000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8796299999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.3425929999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9907409999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.7777779999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.8888890000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.5370369999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6759260000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.324074</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.787037</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.111110999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C8D3-4ABD-8BC5-708F019AFAF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6288,7 +7179,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="414237896"/>
@@ -6364,7 +7255,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="414237504"/>
@@ -6406,7 +7297,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6436,7 +7327,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6448,7 +7339,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -6512,7 +7403,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6695,7 +7586,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F23C-469C-B9E8-07CA49F6327A}"/>
             </c:ext>
@@ -6868,7 +7759,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F23C-469C-B9E8-07CA49F6327A}"/>
             </c:ext>
@@ -7035,7 +7926,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F23C-469C-B9E8-07CA49F6327A}"/>
             </c:ext>
@@ -7121,7 +8012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="414238680"/>
@@ -7197,7 +8088,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="414242208"/>
@@ -7239,7 +8130,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7269,7 +8160,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7281,7 +8172,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -7345,7 +8236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7510,7 +8401,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BE37-45BD-B325-1971FE481954}"/>
             </c:ext>
@@ -7671,7 +8562,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BE37-45BD-B325-1971FE481954}"/>
             </c:ext>
@@ -7832,7 +8723,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BE37-45BD-B325-1971FE481954}"/>
             </c:ext>
@@ -7918,7 +8809,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="413286784"/>
@@ -7994,7 +8885,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="414238288"/>
@@ -8036,7 +8927,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8066,7 +8957,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8078,7 +8969,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -8150,7 +9041,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8393,7 +9284,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E5BE-4C11-95EF-1CDADAD89520}"/>
             </c:ext>
@@ -8632,7 +9523,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E5BE-4C11-95EF-1CDADAD89520}"/>
             </c:ext>
@@ -8835,7 +9726,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E5BE-4C11-95EF-1CDADAD89520}"/>
             </c:ext>
@@ -8921,7 +9812,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="413287960"/>
@@ -8997,7 +9888,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="413284824"/>
@@ -9039,7 +9930,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9069,7 +9960,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9081,7 +9972,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -9145,7 +10036,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9340,7 +10231,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3A8C-4B6F-A2BC-46D55D3C8B04}"/>
             </c:ext>
@@ -9507,7 +10398,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3A8C-4B6F-A2BC-46D55D3C8B04}"/>
             </c:ext>
@@ -9746,9 +10637,308 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3A8C-4B6F-A2BC-46D55D3C8B04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>jp2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'jp2'!$BH$4:$BH$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.1275185420359641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1897295135326802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4117647832868006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.675032554939403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.914322020556419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.150975406391758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.345931581096782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.529323657327105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.616326933063384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.652022629418241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.855946977199473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.284896370712282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.362087744349793</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.353218136947518</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.576598308454976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.991535465561711</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.164751370476509</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.894905677117407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.03665543713025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.182018902046281</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.305665872816775</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.878486172161487</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.077934747394593</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.135889130251229</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102.09414428083176</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105.12720881470213</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>108.52672837855619</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112.24650685021707</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116.36626801008474</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120.33663548059185</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>124.75527658785531</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.48894139500703</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>136.44731828878488</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>142.48351164604927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>147.837321708362</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>151.19853236831523</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>154.45446418324264</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>157.07987885787301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>160.25175793735352</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>163.02673322877217</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>166.19063434290914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'jp2'!$BB$4:$BB$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7592589999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2222219999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5462959999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1203700000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7685190000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0925929999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0185190000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5555560000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8796299999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.3425929999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9907409999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.7777779999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.8888890000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.5370369999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6759260000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.324074</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.787037</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.111110999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA5E-4420-92A8-96AE2DE1810F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9832,7 +11022,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="415618624"/>
@@ -9908,7 +11098,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="415623328"/>
@@ -9950,7 +11140,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9980,7 +11170,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9992,7 +11182,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -10056,7 +11246,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10239,7 +11429,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AEF1-44DE-991F-BC16898B703F}"/>
             </c:ext>
@@ -10412,7 +11602,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AEF1-44DE-991F-BC16898B703F}"/>
             </c:ext>
@@ -10651,9 +11841,308 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AEF1-44DE-991F-BC16898B703F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>jp2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'jp2'!$BH$4:$BH$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.1275185420359641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1897295135326802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4117647832868006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.675032554939403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.914322020556419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.150975406391758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.345931581096782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.529323657327105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.616326933063384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.652022629418241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.855946977199473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.284896370712282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.362087744349793</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.353218136947518</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.576598308454976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.991535465561711</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.164751370476509</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.894905677117407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.03665543713025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.182018902046281</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.305665872816775</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.878486172161487</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.077934747394593</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.135889130251229</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102.09414428083176</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105.12720881470213</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>108.52672837855619</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112.24650685021707</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116.36626801008474</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120.33663548059185</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>124.75527658785531</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.48894139500703</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>136.44731828878488</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>142.48351164604927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>147.837321708362</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>151.19853236831523</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>154.45446418324264</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>157.07987885787301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>160.25175793735352</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>163.02673322877217</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>166.19063434290914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'jp2'!$BB$4:$BB$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7592589999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2222219999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5462959999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1203700000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7685190000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0925929999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0185190000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5555560000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8796299999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.3425929999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9907409999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.7777779999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.8888890000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.5370369999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6759260000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.324074</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.787037</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.111110999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0DE-4CA5-92F2-0FCF77EFCA9F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10737,7 +12226,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="415621760"/>
@@ -10813,7 +12302,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="415620584"/>
@@ -10855,7 +12344,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10885,7 +12374,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10897,7 +12386,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -10936,7 +12425,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10962,7 +12450,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11151,7 +12639,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B252-4A64-A3A5-E10538E0B150}"/>
             </c:ext>
@@ -11324,7 +12812,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B252-4A64-A3A5-E10538E0B150}"/>
             </c:ext>
@@ -11563,7 +13051,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B252-4A64-A3A5-E10538E0B150}"/>
             </c:ext>
@@ -11649,7 +13137,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361173536"/>
@@ -11725,7 +13213,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361168832"/>
@@ -11742,7 +13230,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11768,7 +13255,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11798,14 +13285,14 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -11869,7 +13356,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12052,7 +13539,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EDDD-46E1-8627-70E4DB3773CC}"/>
             </c:ext>
@@ -12219,7 +13706,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EDDD-46E1-8627-70E4DB3773CC}"/>
             </c:ext>
@@ -12458,9 +13945,308 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EDDD-46E1-8627-70E4DB3773CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>jp2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'jp2'!$BH$4:$BH$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.1275185420359641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1897295135326802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4117647832868006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.675032554939403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.914322020556419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.150975406391758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.345931581096782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.529323657327105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.616326933063384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.652022629418241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.855946977199473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.284896370712282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.362087744349793</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.353218136947518</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.576598308454976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.991535465561711</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.164751370476509</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.894905677117407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.03665543713025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.182018902046281</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.305665872816775</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.878486172161487</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.077934747394593</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.135889130251229</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102.09414428083176</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105.12720881470213</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>108.52672837855619</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112.24650685021707</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116.36626801008474</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120.33663548059185</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>124.75527658785531</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.48894139500703</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>136.44731828878488</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>142.48351164604927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>147.837321708362</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>151.19853236831523</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>154.45446418324264</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>157.07987885787301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>160.25175793735352</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>163.02673322877217</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>166.19063434290914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'jp2'!$BB$4:$BB$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7592589999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2222219999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5462959999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1203700000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7685190000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0925929999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0185190000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5555560000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8796299999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.3425929999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9907409999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.7777779999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.8888890000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.5370369999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6759260000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.324074</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.787037</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.111110999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F048-4ABA-AA1A-D8D3810CFCBD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12544,7 +14330,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="415624112"/>
@@ -12620,7 +14406,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="415613920"/>
@@ -12662,7 +14448,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12692,7 +14478,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12704,7 +14490,7 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -12768,7 +14554,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12951,7 +14737,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4727-4F5D-8AEF-94D1F2F67454}"/>
             </c:ext>
@@ -13112,7 +14898,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4727-4F5D-8AEF-94D1F2F67454}"/>
             </c:ext>
@@ -13351,7 +15137,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4727-4F5D-8AEF-94D1F2F67454}"/>
             </c:ext>
@@ -13437,7 +15223,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="415617840"/>
@@ -13513,7 +15299,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="415616272"/>
@@ -13555,7 +15341,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13585,7 +15371,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13597,7 +15383,7 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -13661,7 +15447,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13832,7 +15618,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-470E-4F6D-A566-1FBE0DD1A790}"/>
             </c:ext>
@@ -13993,7 +15779,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-470E-4F6D-A566-1FBE0DD1A790}"/>
             </c:ext>
@@ -14232,7 +16018,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-470E-4F6D-A566-1FBE0DD1A790}"/>
             </c:ext>
@@ -14318,7 +16104,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="415616664"/>
@@ -14394,7 +16180,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="415622936"/>
@@ -14436,7 +16222,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14466,7 +16252,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14478,7 +16264,7 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -14542,7 +16328,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14713,7 +16499,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A6B5-471C-B9EA-0699F2957790}"/>
             </c:ext>
@@ -14874,7 +16660,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A6B5-471C-B9EA-0699F2957790}"/>
             </c:ext>
@@ -15077,7 +16863,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A6B5-471C-B9EA-0699F2957790}"/>
             </c:ext>
@@ -15163,7 +16949,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="415619408"/>
@@ -15239,7 +17025,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="415613528"/>
@@ -15281,7 +17067,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15311,7 +17097,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15323,7 +17109,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -15362,7 +17148,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15388,7 +17173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15571,7 +17356,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DF8D-45A0-8E36-E537B8795729}"/>
             </c:ext>
@@ -15738,7 +17523,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DF8D-45A0-8E36-E537B8795729}"/>
             </c:ext>
@@ -15977,7 +17762,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DF8D-45A0-8E36-E537B8795729}"/>
             </c:ext>
@@ -16063,7 +17848,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361173144"/>
@@ -16139,7 +17924,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361172752"/>
@@ -16156,7 +17941,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16182,7 +17966,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16212,14 +17996,14 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -16258,7 +18042,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16284,7 +18067,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16479,7 +18262,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-612C-4D05-B8AA-CCAD68B49667}"/>
             </c:ext>
@@ -16664,7 +18447,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-612C-4D05-B8AA-CCAD68B49667}"/>
             </c:ext>
@@ -16843,7 +18626,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-612C-4D05-B8AA-CCAD68B49667}"/>
             </c:ext>
@@ -16929,7 +18712,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="413290704"/>
@@ -17005,7 +18788,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361170792"/>
@@ -17022,7 +18805,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17048,7 +18830,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -17078,14 +18860,14 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -17265,7 +19047,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-49C1-44D4-AFA2-5833A1D8535E}"/>
             </c:ext>
@@ -17438,7 +19220,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-49C1-44D4-AFA2-5833A1D8535E}"/>
             </c:ext>
@@ -17605,7 +19387,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-49C1-44D4-AFA2-5833A1D8535E}"/>
             </c:ext>
@@ -17691,7 +19473,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="413289528"/>
@@ -17767,7 +19549,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="413290312"/>
@@ -17784,7 +19566,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17810,7 +19591,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -17840,14 +19621,14 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -17886,7 +19667,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17912,7 +19692,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -18155,7 +19935,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3347-428F-8A08-76C3C577EB41}"/>
             </c:ext>
@@ -18394,7 +20174,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3347-428F-8A08-76C3C577EB41}"/>
             </c:ext>
@@ -18633,7 +20413,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3347-428F-8A08-76C3C577EB41}"/>
             </c:ext>
@@ -18719,7 +20499,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="413291096"/>
@@ -18795,7 +20575,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="413287176"/>
@@ -18812,7 +20592,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18838,7 +20617,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -18868,14 +20647,14 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -19037,6 +20816,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A61-4817-A650-054A21D0E90A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -19159,6 +20943,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A61-4817-A650-054A21D0E90A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -19341,6 +21130,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A61-4817-A650-054A21D0E90A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -19667,6 +21461,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1A61-4817-A650-054A21D0E90A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -20011,6 +21810,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1A61-4817-A650-054A21D0E90A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -20337,6 +22141,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1A61-4817-A650-054A21D0E90A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -20683,9 +22492,13 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1A61-4817-A650-054A21D0E90A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -20743,7 +22556,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20769,7 +22581,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-AT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20807,7 +22619,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="413943368"/>
@@ -20861,7 +22673,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20887,7 +22698,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-AT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20925,7 +22736,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="413944544"/>
@@ -20942,7 +22753,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20968,7 +22778,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -20998,7 +22808,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21010,7 +22820,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -21049,7 +22859,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21075,7 +22884,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -21583,7 +23392,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-06F4-4577-9B86-3B13A665F932}"/>
             </c:ext>
@@ -22081,9 +23890,308 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-06F4-4577-9B86-3B13A665F932}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>jp2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'jp2'!$BH$4:$BH$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.1275185420359641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1897295135326802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4117647832868006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.675032554939403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.914322020556419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.150975406391758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.345931581096782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.529323657327105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.616326933063384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.652022629418241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.855946977199473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.284896370712282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.362087744349793</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.353218136947518</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.576598308454976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.991535465561711</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.164751370476509</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.894905677117407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.03665543713025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.182018902046281</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.305665872816775</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.878486172161487</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.077934747394593</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.135889130251229</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102.09414428083176</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105.12720881470213</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>108.52672837855619</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112.24650685021707</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116.36626801008474</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120.33663548059185</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>124.75527658785531</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.48894139500703</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>136.44731828878488</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>142.48351164604927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>147.837321708362</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>151.19853236831523</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>154.45446418324264</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>157.07987885787301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>160.25175793735352</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>163.02673322877217</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>166.19063434290914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'jp2'!$BB$4:$BB$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7592589999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2222219999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5462959999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1203700000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7685190000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0925929999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0185190000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5555560000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8796299999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.3425929999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9907409999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.7777779999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.8888890000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.5370369999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6759260000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.324074</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.787037</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.111110999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-938E-4BF3-AE22-CAEE805603F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22167,7 +24275,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="413287568"/>
@@ -22243,7 +24351,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="413289136"/>
@@ -22260,7 +24368,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22286,7 +24393,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -22316,7 +24423,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22328,7 +24435,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -22367,7 +24474,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22393,7 +24499,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -22879,7 +24985,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-81F2-446F-A1DA-DF20505A8F4E}"/>
             </c:ext>
@@ -23373,9 +25479,322 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-81F2-446F-A1DA-DF20505A8F4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>jp2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'jp2'!$BH$4:$BH$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.1275185420359641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1897295135326802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4117647832868006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.675032554939403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.914322020556419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.150975406391758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.345931581096782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.529323657327105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.616326933063384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.652022629418241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.855946977199473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.284896370712282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.362087744349793</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.353218136947518</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.576598308454976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.991535465561711</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.164751370476509</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.894905677117407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.03665543713025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.182018902046281</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.305665872816775</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.878486172161487</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.077934747394593</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.135889130251229</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102.09414428083176</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105.12720881470213</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>108.52672837855619</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112.24650685021707</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116.36626801008474</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120.33663548059185</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>124.75527658785531</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.48894139500703</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>136.44731828878488</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>142.48351164604927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>147.837321708362</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>151.19853236831523</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>154.45446418324264</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>157.07987885787301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>160.25175793735352</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>163.02673322877217</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>166.19063434290914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'jp2'!$BB$4:$BB$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32407399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78703699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.111111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7592589999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4351849999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2222219999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8981479999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5462959999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1203700000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7685190000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0925929999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0185190000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5555560000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8796299999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.3425929999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9907409999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.7777779999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.8888890000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.5370369999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6759260000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.324074</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.787037</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.111110999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-E4CB-44EF-BD17-32FC61EF4E87}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23459,7 +25878,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="413288744"/>
@@ -23535,7 +25954,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="413288352"/>
@@ -23552,7 +25971,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23578,7 +25996,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -23608,7 +26026,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -36483,7 +38901,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E8F331-C253-439C-B3D1-3AD22E973ABD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E8F331-C253-439C-B3D1-3AD22E973ABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36516,7 +38934,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E00430-68ED-4ECB-8768-746562E49869}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E00430-68ED-4ECB-8768-746562E49869}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36549,7 +38967,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A00B3B-1CDE-4762-8D33-2961CAA9EC0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A00B3B-1CDE-4762-8D33-2961CAA9EC0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36582,7 +39000,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59758313-3158-475B-AA96-AD219374597F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59758313-3158-475B-AA96-AD219374597F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36615,7 +39033,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CD7BF8-148D-44CF-B0C7-25E2BAF6F3F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CD7BF8-148D-44CF-B0C7-25E2BAF6F3F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36648,7 +39066,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BEBACB8-7D85-4E4B-A90B-21C318BEBA6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BEBACB8-7D85-4E4B-A90B-21C318BEBA6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36688,7 +39106,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -36726,7 +39150,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E6B78C-79C3-4814-8962-A9313BD95439}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E6B78C-79C3-4814-8962-A9313BD95439}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36762,7 +39186,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0E8C9F-4B94-471D-84A4-2B212A7275CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0E8C9F-4B94-471D-84A4-2B212A7275CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36800,7 +39224,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD75DA56-7D0D-47EE-9F31-8838624AA876}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD75DA56-7D0D-47EE-9F31-8838624AA876}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36838,7 +39262,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17906342-39A6-4603-A43E-EE28DD2A3750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17906342-39A6-4603-A43E-EE28DD2A3750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36881,7 +39305,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D08C87-B6F3-4B32-B031-3B6B7E815620}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D08C87-B6F3-4B32-B031-3B6B7E815620}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36919,7 +39343,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030C95F4-11EA-4E4A-8EAF-FBC89EDBF84E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030C95F4-11EA-4E4A-8EAF-FBC89EDBF84E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36957,7 +39381,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3712D1D9-0F61-4371-A0A8-E7DCE15E2056}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3712D1D9-0F61-4371-A0A8-E7DCE15E2056}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36995,7 +39419,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377E569D-BD5D-443B-9F47-BFE9771C532D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377E569D-BD5D-443B-9F47-BFE9771C532D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37033,7 +39457,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B403918F-9F3A-4940-BD97-29FD2E2E36DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B403918F-9F3A-4940-BD97-29FD2E2E36DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37071,7 +39495,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E41E0E5D-E06A-4D0A-8D65-8CE1F164685C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E41E0E5D-E06A-4D0A-8D65-8CE1F164685C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37109,7 +39533,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60100FF-4F2D-46B9-9128-24E177BCD29A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60100FF-4F2D-46B9-9128-24E177BCD29A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37147,7 +39571,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFCAA8-D3BF-4B6B-9C3A-7E68FC03ED97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFCAA8-D3BF-4B6B-9C3A-7E68FC03ED97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37185,7 +39609,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C804C7-29EA-4105-BCE4-E8BA35FA6732}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C804C7-29EA-4105-BCE4-E8BA35FA6732}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37223,7 +39647,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D475AC54-4E1E-4576-8B2E-3348CBE3DD5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D475AC54-4E1E-4576-8B2E-3348CBE3DD5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37261,7 +39685,7 @@
         <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2E76C6-7DF9-49DF-A211-C923D745F35A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2E76C6-7DF9-49DF-A211-C923D745F35A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37299,7 +39723,7 @@
         <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F9A433-266E-4C52-ACA8-896E8ADF1B07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F9A433-266E-4C52-ACA8-896E8ADF1B07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -42424,8 +44848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CF266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="V45" sqref="V45"/>
+    <sheetView topLeftCell="AR10" workbookViewId="0">
+      <selection activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42700,7 +45124,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <f>$B$2/E4</f>
+        <f t="shared" ref="L4:L19" si="0">$B$2/E4</f>
         <v>0.80861132898704446</v>
       </c>
       <c r="N4" t="s">
@@ -42734,7 +45158,7 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <f>$B$2/Q4</f>
+        <f t="shared" ref="X4:X17" si="1">$B$2/Q4</f>
         <v>1.0171148758149717</v>
       </c>
       <c r="Z4" t="s">
@@ -42768,7 +45192,7 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>$B$2/AC4</f>
+        <f t="shared" ref="AJ4:AJ27" si="2">$B$2/AC4</f>
         <v>1.094079833998258</v>
       </c>
       <c r="AL4" t="s">
@@ -42802,7 +45226,7 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <f>$B$2/AO4</f>
+        <f t="shared" ref="AV4:AV51" si="3">$B$2/AO4</f>
         <v>1.120282464395342</v>
       </c>
       <c r="AX4" t="s">
@@ -42836,7 +45260,7 @@
         <v>0</v>
       </c>
       <c r="BH4">
-        <f>$B$2/BA4</f>
+        <f t="shared" ref="BH4:BH35" si="4">$B$2/BA4</f>
         <v>1.1275185420359641</v>
       </c>
       <c r="BJ4" t="s">
@@ -42870,7 +45294,7 @@
         <v>0</v>
       </c>
       <c r="BT4">
-        <f t="shared" ref="BT4:BT51" si="0">$B$2/BM4</f>
+        <f t="shared" ref="BT4:BT51" si="5">$B$2/BM4</f>
         <v>1.1287229571500417</v>
       </c>
       <c r="BV4" t="s">
@@ -42904,7 +45328,7 @@
         <v>0</v>
       </c>
       <c r="CF4">
-        <f>$B$2/BY4</f>
+        <f t="shared" ref="CF4:CF35" si="6">$B$2/BY4</f>
         <v>1.1287770192588009</v>
       </c>
     </row>
@@ -42940,7 +45364,7 @@
         <v>45.925925999999997</v>
       </c>
       <c r="L5">
-        <f>$B$2/E5</f>
+        <f t="shared" si="0"/>
         <v>4.194808889157204</v>
       </c>
       <c r="N5" t="s">
@@ -42974,7 +45398,7 @@
         <v>0.74074099999999998</v>
       </c>
       <c r="X5">
-        <f>$B$2/Q5</f>
+        <f t="shared" si="1"/>
         <v>4.1926835391107771</v>
       </c>
       <c r="Z5" t="s">
@@ -43008,7 +45432,7 @@
         <v>0.37036999999999998</v>
       </c>
       <c r="AJ5">
-        <f>$B$2/AC5</f>
+        <f t="shared" si="2"/>
         <v>4.194784803547952</v>
       </c>
       <c r="AL5" t="s">
@@ -43042,7 +45466,7 @@
         <v>0.37036999999999998</v>
       </c>
       <c r="AV5">
-        <f>$B$2/AO5</f>
+        <f t="shared" si="3"/>
         <v>4.1891364626415388</v>
       </c>
       <c r="AX5" t="s">
@@ -43076,7 +45500,7 @@
         <v>0</v>
       </c>
       <c r="BH5">
-        <f>$B$2/BA5</f>
+        <f t="shared" si="4"/>
         <v>4.1897295135326802</v>
       </c>
       <c r="BJ5" t="s">
@@ -43110,7 +45534,7 @@
         <v>0</v>
       </c>
       <c r="BT5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.1903893426503753</v>
       </c>
       <c r="BV5" t="s">
@@ -43144,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="CF5">
-        <f>$B$2/BY5</f>
+        <f t="shared" si="6"/>
         <v>4.1896855780786995</v>
       </c>
     </row>
@@ -43180,7 +45604,7 @@
         <v>80.740741</v>
       </c>
       <c r="L6">
-        <f>$B$2/E6</f>
+        <f t="shared" si="0"/>
         <v>8.3947036404387561</v>
       </c>
       <c r="N6" t="s">
@@ -43214,7 +45638,7 @@
         <v>13.333333</v>
       </c>
       <c r="X6">
-        <f>$B$2/Q6</f>
+        <f t="shared" si="1"/>
         <v>8.4259484677811596</v>
       </c>
       <c r="Z6" t="s">
@@ -43248,7 +45672,7 @@
         <v>0.37036999999999998</v>
       </c>
       <c r="AJ6">
-        <f>$B$2/AC6</f>
+        <f t="shared" si="2"/>
         <v>8.4299791674427915</v>
       </c>
       <c r="AL6" t="s">
@@ -43282,7 +45706,7 @@
         <v>0.74074099999999998</v>
       </c>
       <c r="AV6">
-        <f>$B$2/AO6</f>
+        <f t="shared" si="3"/>
         <v>8.4092473766826252</v>
       </c>
       <c r="AX6" t="s">
@@ -43316,7 +45740,7 @@
         <v>0.37036999999999998</v>
       </c>
       <c r="BH6">
-        <f>$B$2/BA6</f>
+        <f t="shared" si="4"/>
         <v>8.4117647832868006</v>
       </c>
       <c r="BJ6" t="s">
@@ -43350,7 +45774,7 @@
         <v>0.37036999999999998</v>
       </c>
       <c r="BT6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8.4122435376960603</v>
       </c>
       <c r="BV6" t="s">
@@ -43384,7 +45808,7 @@
         <v>0.37036999999999998</v>
       </c>
       <c r="CF6">
-        <f>$B$2/BY6</f>
+        <f t="shared" si="6"/>
         <v>8.4130517323520664</v>
       </c>
     </row>
@@ -43420,7 +45844,7 @@
         <v>91.851851999999994</v>
       </c>
       <c r="L7">
-        <f>$B$2/E7</f>
+        <f t="shared" si="0"/>
         <v>12.572717447742525</v>
       </c>
       <c r="N7" t="s">
@@ -43454,7 +45878,7 @@
         <v>39.259259</v>
       </c>
       <c r="X7">
-        <f>$B$2/Q7</f>
+        <f t="shared" si="1"/>
         <v>12.708009546131352</v>
       </c>
       <c r="Z7" t="s">
@@ -43488,7 +45912,7 @@
         <v>4.0740740000000004</v>
       </c>
       <c r="AJ7">
-        <f>$B$2/AC7</f>
+        <f t="shared" si="2"/>
         <v>12.667484906326834</v>
       </c>
       <c r="AL7" t="s">
@@ -43522,7 +45946,7 @@
         <v>1.111111</v>
       </c>
       <c r="AV7">
-        <f>$B$2/AO7</f>
+        <f t="shared" si="3"/>
         <v>12.687094784714612</v>
       </c>
       <c r="AX7" t="s">
@@ -43556,7 +45980,7 @@
         <v>5.9259259999999996</v>
       </c>
       <c r="BH7">
-        <f>$B$2/BA7</f>
+        <f t="shared" si="4"/>
         <v>12.675032554939403</v>
       </c>
       <c r="BJ7" t="s">
@@ -43590,7 +46014,7 @@
         <v>5.1851849999999997</v>
       </c>
       <c r="BT7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12.676345834469425</v>
       </c>
       <c r="BV7" t="s">
@@ -43624,7 +46048,7 @@
         <v>5.1851849999999997</v>
       </c>
       <c r="CF7">
-        <f>$B$2/BY7</f>
+        <f t="shared" si="6"/>
         <v>12.676697764209303</v>
       </c>
     </row>
@@ -43660,7 +46084,7 @@
         <v>99.629630000000006</v>
       </c>
       <c r="L8">
-        <f>$B$2/E8</f>
+        <f t="shared" si="0"/>
         <v>25.355105064160981</v>
       </c>
       <c r="N8" t="s">
@@ -43694,7 +46118,7 @@
         <v>87.777777999999998</v>
       </c>
       <c r="X8">
-        <f>$B$2/Q8</f>
+        <f t="shared" si="1"/>
         <v>16.871477670939395</v>
       </c>
       <c r="Z8" t="s">
@@ -43728,7 +46152,7 @@
         <v>10.740741</v>
       </c>
       <c r="AJ8">
-        <f>$B$2/AC8</f>
+        <f t="shared" si="2"/>
         <v>17.052775384336311</v>
       </c>
       <c r="AL8" t="s">
@@ -43762,7 +46186,7 @@
         <v>1.8518520000000001</v>
       </c>
       <c r="AV8">
-        <f>$B$2/AO8</f>
+        <f t="shared" si="3"/>
         <v>16.81949594314149</v>
       </c>
       <c r="AX8" t="s">
@@ -43796,7 +46220,7 @@
         <v>2.2222219999999999</v>
       </c>
       <c r="BH8">
-        <f>$B$2/BA8</f>
+        <f t="shared" si="4"/>
         <v>16.914322020556419</v>
       </c>
       <c r="BJ8" t="s">
@@ -43830,7 +46254,7 @@
         <v>2.5925929999999999</v>
       </c>
       <c r="BT8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>16.938164987871072</v>
       </c>
       <c r="BV8" t="s">
@@ -43864,7 +46288,7 @@
         <v>2.5925929999999999</v>
       </c>
       <c r="CF8">
-        <f>$B$2/BY8</f>
+        <f t="shared" si="6"/>
         <v>16.942530769103346</v>
       </c>
     </row>
@@ -43900,7 +46324,7 @@
         <v>99.629630000000006</v>
       </c>
       <c r="L9">
-        <f>$B$2/E9</f>
+        <f t="shared" si="0"/>
         <v>171.30667604595854</v>
       </c>
       <c r="N9" t="s">
@@ -43934,7 +46358,7 @@
         <v>92.962963000000002</v>
       </c>
       <c r="X9">
-        <f>$B$2/Q9</f>
+        <f t="shared" si="1"/>
         <v>21.148876144284944</v>
       </c>
       <c r="Z9" t="s">
@@ -43968,7 +46392,7 @@
         <v>84.814814999999996</v>
       </c>
       <c r="AJ9">
-        <f>$B$2/AC9</f>
+        <f t="shared" si="2"/>
         <v>42.454218675805002</v>
       </c>
       <c r="AL9" t="s">
@@ -44002,7 +46426,7 @@
         <v>8.8888890000000007</v>
       </c>
       <c r="AV9">
-        <f>$B$2/AO9</f>
+        <f t="shared" si="3"/>
         <v>21.230722414896825</v>
       </c>
       <c r="AX9" t="s">
@@ -44036,7 +46460,7 @@
         <v>3.7037040000000001</v>
       </c>
       <c r="BH9">
-        <f>$B$2/BA9</f>
+        <f t="shared" si="4"/>
         <v>21.150975406391758</v>
       </c>
       <c r="BJ9" t="s">
@@ -44070,7 +46494,7 @@
         <v>6.2962959999999999</v>
       </c>
       <c r="BT9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>21.156487952759228</v>
       </c>
       <c r="BV9" t="s">
@@ -44104,7 +46528,7 @@
         <v>6.2962959999999999</v>
       </c>
       <c r="CF9">
-        <f>$B$2/BY9</f>
+        <f t="shared" si="6"/>
         <v>21.163001709090459</v>
       </c>
     </row>
@@ -44140,7 +46564,7 @@
         <v>99.629630000000006</v>
       </c>
       <c r="L10">
-        <f>$B$2/E10</f>
+        <f t="shared" si="0"/>
         <v>174.68892228864217</v>
       </c>
       <c r="N10" t="s">
@@ -44174,7 +46598,7 @@
         <v>97.407407000000006</v>
       </c>
       <c r="X10">
-        <f>$B$2/Q10</f>
+        <f t="shared" si="1"/>
         <v>25.506070762386411</v>
       </c>
       <c r="Z10" t="s">
@@ -44208,7 +46632,7 @@
         <v>94.444444000000004</v>
       </c>
       <c r="AJ10">
-        <f>$B$2/AC10</f>
+        <f t="shared" si="2"/>
         <v>46.858358882073858</v>
       </c>
       <c r="AL10" t="s">
@@ -44242,7 +46666,7 @@
         <v>6.2962959999999999</v>
       </c>
       <c r="AV10">
-        <f>$B$2/AO10</f>
+        <f t="shared" si="3"/>
         <v>25.305221249184783</v>
       </c>
       <c r="AX10" t="s">
@@ -44276,7 +46700,7 @@
         <v>6.2962959999999999</v>
       </c>
       <c r="BH10">
-        <f>$B$2/BA10</f>
+        <f t="shared" si="4"/>
         <v>25.345931581096782</v>
       </c>
       <c r="BJ10" t="s">
@@ -44310,7 +46734,7 @@
         <v>7.7777779999999996</v>
       </c>
       <c r="BT10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>41.843138698792657</v>
       </c>
       <c r="BV10" t="s">
@@ -44344,7 +46768,7 @@
         <v>5.5555560000000002</v>
       </c>
       <c r="CF10">
-        <f>$B$2/BY10</f>
+        <f t="shared" si="6"/>
         <v>25.348720622801078</v>
       </c>
     </row>
@@ -44380,7 +46804,7 @@
         <v>99.629630000000006</v>
       </c>
       <c r="L11">
-        <f>$B$2/E11</f>
+        <f t="shared" si="0"/>
         <v>179.56524578651684</v>
       </c>
       <c r="N11" t="s">
@@ -44414,7 +46838,7 @@
         <v>99.259259</v>
       </c>
       <c r="X11">
-        <f>$B$2/Q11</f>
+        <f t="shared" si="1"/>
         <v>29.719739322666655</v>
       </c>
       <c r="Z11" t="s">
@@ -44448,7 +46872,7 @@
         <v>88.888889000000006</v>
       </c>
       <c r="AJ11">
-        <f>$B$2/AC11</f>
+        <f t="shared" si="2"/>
         <v>51.875464838622641</v>
       </c>
       <c r="AL11" t="s">
@@ -44482,7 +46906,7 @@
         <v>5.5555560000000002</v>
       </c>
       <c r="AV11">
-        <f>$B$2/AO11</f>
+        <f t="shared" si="3"/>
         <v>29.923618392720055</v>
       </c>
       <c r="AX11" t="s">
@@ -44516,7 +46940,7 @@
         <v>3.3333330000000001</v>
       </c>
       <c r="BH11">
-        <f>$B$2/BA11</f>
+        <f t="shared" si="4"/>
         <v>29.529323657327105</v>
       </c>
       <c r="BJ11" t="s">
@@ -44550,7 +46974,7 @@
         <v>1.8518520000000001</v>
       </c>
       <c r="BT11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>46.064766073969984</v>
       </c>
       <c r="BV11" t="s">
@@ -44584,7 +47008,7 @@
         <v>3.7037040000000001</v>
       </c>
       <c r="CF11">
-        <f>$B$2/BY11</f>
+        <f t="shared" si="6"/>
         <v>29.62151438729326</v>
       </c>
     </row>
@@ -44620,7 +47044,7 @@
         <v>99.259259</v>
       </c>
       <c r="L12">
-        <f>$B$2/E12</f>
+        <f t="shared" si="0"/>
         <v>183.25610612619329</v>
       </c>
       <c r="N12" t="s">
@@ -44654,7 +47078,7 @@
         <v>97.777777999999998</v>
       </c>
       <c r="X12">
-        <f>$B$2/Q12</f>
+        <f t="shared" si="1"/>
         <v>33.814105073287877</v>
       </c>
       <c r="Z12" t="s">
@@ -44688,7 +47112,7 @@
         <v>90.370369999999994</v>
       </c>
       <c r="AJ12">
-        <f>$B$2/AC12</f>
+        <f t="shared" si="2"/>
         <v>56.424693052527516</v>
       </c>
       <c r="AL12" t="s">
@@ -44722,7 +47146,7 @@
         <v>5.9259259999999996</v>
       </c>
       <c r="AV12">
-        <f>$B$2/AO12</f>
+        <f t="shared" si="3"/>
         <v>34.061618407328616</v>
       </c>
       <c r="AX12" t="s">
@@ -44756,7 +47180,7 @@
         <v>3.7037040000000001</v>
       </c>
       <c r="BH12">
-        <f>$B$2/BA12</f>
+        <f t="shared" si="4"/>
         <v>33.616326933063384</v>
       </c>
       <c r="BJ12" t="s">
@@ -44790,7 +47214,7 @@
         <v>18.518519000000001</v>
       </c>
       <c r="BT12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>50.181711313904422</v>
       </c>
       <c r="BV12" t="s">
@@ -44824,7 +47248,7 @@
         <v>2.5925929999999999</v>
       </c>
       <c r="CF12">
-        <f>$B$2/BY12</f>
+        <f t="shared" si="6"/>
         <v>33.605237772310538</v>
       </c>
     </row>
@@ -44860,7 +47284,7 @@
         <v>99.629630000000006</v>
       </c>
       <c r="L13">
-        <f>$B$2/E13</f>
+        <f t="shared" si="0"/>
         <v>187.21283761522298</v>
       </c>
       <c r="N13" t="s">
@@ -44894,7 +47318,7 @@
         <v>94.074073999999996</v>
       </c>
       <c r="X13">
-        <f>$B$2/Q13</f>
+        <f t="shared" si="1"/>
         <v>37.872414702205688</v>
       </c>
       <c r="Z13" t="s">
@@ -44928,7 +47352,7 @@
         <v>88.518518999999998</v>
       </c>
       <c r="AJ13">
-        <f>$B$2/AC13</f>
+        <f t="shared" si="2"/>
         <v>60.778424567992204</v>
       </c>
       <c r="AL13" t="s">
@@ -44962,7 +47386,7 @@
         <v>11.111110999999999</v>
       </c>
       <c r="AV13">
-        <f>$B$2/AO13</f>
+        <f t="shared" si="3"/>
         <v>37.671326579921271</v>
       </c>
       <c r="AX13" t="s">
@@ -44996,7 +47420,7 @@
         <v>7.0370369999999998</v>
       </c>
       <c r="BH13">
-        <f>$B$2/BA13</f>
+        <f t="shared" si="4"/>
         <v>37.652022629418241</v>
       </c>
       <c r="BJ13" t="s">
@@ -45030,7 +47454,7 @@
         <v>16.296296000000002</v>
       </c>
       <c r="BT13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>54.262327817991604</v>
       </c>
       <c r="BV13" t="s">
@@ -45064,7 +47488,7 @@
         <v>12.962963</v>
       </c>
       <c r="CF13">
-        <f>$B$2/BY13</f>
+        <f t="shared" si="6"/>
         <v>37.729413049284148</v>
       </c>
     </row>
@@ -45100,7 +47524,7 @@
         <v>99.259259</v>
       </c>
       <c r="L14">
-        <f>$B$2/E14</f>
+        <f t="shared" si="0"/>
         <v>191.54200125846467</v>
       </c>
       <c r="N14" t="s">
@@ -45134,7 +47558,7 @@
         <v>99.259259</v>
       </c>
       <c r="X14">
-        <f>$B$2/Q14</f>
+        <f t="shared" si="1"/>
         <v>42.03581333337717</v>
       </c>
       <c r="Z14" t="s">
@@ -45168,7 +47592,7 @@
         <v>94.444444000000004</v>
       </c>
       <c r="AJ14">
-        <f>$B$2/AC14</f>
+        <f t="shared" si="2"/>
         <v>65.028931031939592</v>
       </c>
       <c r="AL14" t="s">
@@ -45202,7 +47626,7 @@
         <v>14.814814999999999</v>
       </c>
       <c r="AV14">
-        <f>$B$2/AO14</f>
+        <f t="shared" si="3"/>
         <v>42.856529186583622</v>
       </c>
       <c r="AX14" t="s">
@@ -45236,7 +47660,7 @@
         <v>5.5555560000000002</v>
       </c>
       <c r="BH14">
-        <f>$B$2/BA14</f>
+        <f t="shared" si="4"/>
         <v>41.855946977199473</v>
       </c>
       <c r="BJ14" t="s">
@@ -45270,7 +47694,7 @@
         <v>19.259259</v>
       </c>
       <c r="BT14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>58.284723393585743</v>
       </c>
       <c r="BV14" t="s">
@@ -45304,7 +47728,7 @@
         <v>6.2962959999999999</v>
       </c>
       <c r="CF14">
-        <f>$B$2/BY14</f>
+        <f t="shared" si="6"/>
         <v>41.82616440552097</v>
       </c>
     </row>
@@ -45340,7 +47764,7 @@
         <v>99.259259</v>
       </c>
       <c r="L15">
-        <f>$B$2/E15</f>
+        <f t="shared" si="0"/>
         <v>194.81231953068453</v>
       </c>
       <c r="N15" t="s">
@@ -45374,7 +47798,7 @@
         <v>98.518518999999998</v>
       </c>
       <c r="X15">
-        <f>$B$2/Q15</f>
+        <f t="shared" si="1"/>
         <v>46.33362446522635</v>
       </c>
       <c r="Z15" t="s">
@@ -45408,7 +47832,7 @@
         <v>82.592592999999994</v>
       </c>
       <c r="AJ15">
-        <f>$B$2/AC15</f>
+        <f t="shared" si="2"/>
         <v>69.155080459770119</v>
       </c>
       <c r="AL15" t="s">
@@ -45442,7 +47866,7 @@
         <v>27.407406999999999</v>
       </c>
       <c r="AV15">
-        <f>$B$2/AO15</f>
+        <f t="shared" si="3"/>
         <v>48.830312879545957</v>
       </c>
       <c r="AX15" t="s">
@@ -45476,7 +47900,7 @@
         <v>4.0740740000000004</v>
       </c>
       <c r="BH15">
-        <f>$B$2/BA15</f>
+        <f t="shared" si="4"/>
         <v>46.284896370712282</v>
       </c>
       <c r="BJ15" t="s">
@@ -45510,7 +47934,7 @@
         <v>20.740741</v>
       </c>
       <c r="BT15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>62.40260396329559</v>
       </c>
       <c r="BV15" t="s">
@@ -45544,7 +47968,7 @@
         <v>1.8518520000000001</v>
       </c>
       <c r="CF15">
-        <f>$B$2/BY15</f>
+        <f t="shared" si="6"/>
         <v>46.070658842309903</v>
       </c>
     </row>
@@ -45580,7 +48004,7 @@
         <v>99.629630000000006</v>
       </c>
       <c r="L16">
-        <f>$B$2/E16</f>
+        <f t="shared" si="0"/>
         <v>199.31010265563984</v>
       </c>
       <c r="N16" t="s">
@@ -45614,7 +48038,7 @@
         <v>99.629630000000006</v>
       </c>
       <c r="X16">
-        <f>$B$2/Q16</f>
+        <f t="shared" si="1"/>
         <v>71.804314983095011</v>
       </c>
       <c r="Z16" t="s">
@@ -45648,7 +48072,7 @@
         <v>80.740741</v>
       </c>
       <c r="AJ16">
-        <f>$B$2/AC16</f>
+        <f t="shared" si="2"/>
         <v>72.503681880949202</v>
       </c>
       <c r="AL16" t="s">
@@ -45682,7 +48106,7 @@
         <v>31.481480999999999</v>
       </c>
       <c r="AV16">
-        <f>$B$2/AO16</f>
+        <f t="shared" si="3"/>
         <v>51.275652273306072</v>
       </c>
       <c r="AX16" t="s">
@@ -45716,7 +48140,7 @@
         <v>16.666667</v>
       </c>
       <c r="BH16">
-        <f>$B$2/BA16</f>
+        <f t="shared" si="4"/>
         <v>50.362087744349793</v>
       </c>
       <c r="BJ16" t="s">
@@ -45750,7 +48174,7 @@
         <v>31.481480999999999</v>
       </c>
       <c r="BT16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>66.516718867060689</v>
       </c>
       <c r="BV16" t="s">
@@ -45784,7 +48208,7 @@
         <v>16.666667</v>
       </c>
       <c r="CF16">
-        <f>$B$2/BY16</f>
+        <f t="shared" si="6"/>
         <v>50.211174843053819</v>
       </c>
     </row>
@@ -45820,7 +48244,7 @@
         <v>99.629630000000006</v>
       </c>
       <c r="L17">
-        <f>$B$2/E17</f>
+        <f t="shared" si="0"/>
         <v>203.19202650943245</v>
       </c>
       <c r="N17" t="s">
@@ -45854,7 +48278,7 @@
         <v>99.629630000000006</v>
       </c>
       <c r="X17">
-        <f>$B$2/Q17</f>
+        <f t="shared" si="1"/>
         <v>121.80932169074738</v>
       </c>
       <c r="Z17" t="s">
@@ -45888,7 +48312,7 @@
         <v>90.740741</v>
       </c>
       <c r="AJ17">
-        <f>$B$2/AC17</f>
+        <f t="shared" si="2"/>
         <v>76.936080395962151</v>
       </c>
       <c r="AL17" t="s">
@@ -45922,7 +48346,7 @@
         <v>47.407406999999999</v>
       </c>
       <c r="AV17">
-        <f>$B$2/AO17</f>
+        <f t="shared" si="3"/>
         <v>54.762619772726296</v>
       </c>
       <c r="AX17" t="s">
@@ -45956,7 +48380,7 @@
         <v>34.444443999999997</v>
       </c>
       <c r="BH17">
-        <f>$B$2/BA17</f>
+        <f t="shared" si="4"/>
         <v>54.353218136947518</v>
       </c>
       <c r="BJ17" t="s">
@@ -45990,7 +48414,7 @@
         <v>40.370370000000001</v>
       </c>
       <c r="BT17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>70.619223716043791</v>
       </c>
       <c r="BV17" t="s">
@@ -46024,7 +48448,7 @@
         <v>20</v>
       </c>
       <c r="CF17">
-        <f>$B$2/BY17</f>
+        <f t="shared" si="6"/>
         <v>54.264400600153223</v>
       </c>
     </row>
@@ -46060,7 +48484,7 @@
         <v>99.259259</v>
       </c>
       <c r="L18">
-        <f>$B$2/E18</f>
+        <f t="shared" si="0"/>
         <v>207.12912920210613</v>
       </c>
       <c r="Z18" t="s">
@@ -46094,7 +48518,7 @@
         <v>87.777777999999998</v>
       </c>
       <c r="AJ18">
-        <f>$B$2/AC18</f>
+        <f t="shared" si="2"/>
         <v>80.405804165238521</v>
       </c>
       <c r="AL18" t="s">
@@ -46128,7 +48552,7 @@
         <v>44.814815000000003</v>
       </c>
       <c r="AV18">
-        <f>$B$2/AO18</f>
+        <f t="shared" si="3"/>
         <v>58.813185423030212</v>
       </c>
       <c r="AX18" t="s">
@@ -46162,7 +48586,7 @@
         <v>35.185184999999997</v>
       </c>
       <c r="BH18">
-        <f>$B$2/BA18</f>
+        <f t="shared" si="4"/>
         <v>58.576598308454976</v>
       </c>
       <c r="BJ18" t="s">
@@ -46196,7 +48620,7 @@
         <v>30</v>
       </c>
       <c r="BT18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>74.759790076893836</v>
       </c>
       <c r="BV18" t="s">
@@ -46230,7 +48654,7 @@
         <v>21.481480999999999</v>
       </c>
       <c r="CF18">
-        <f>$B$2/BY18</f>
+        <f t="shared" si="6"/>
         <v>58.258164543983959</v>
       </c>
     </row>
@@ -46266,7 +48690,7 @@
         <v>99.259259</v>
       </c>
       <c r="L19">
-        <f>$B$2/E19</f>
+        <f t="shared" si="0"/>
         <v>212.89957869846134</v>
       </c>
       <c r="Z19" t="s">
@@ -46300,7 +48724,7 @@
         <v>84.814814999999996</v>
       </c>
       <c r="AJ19">
-        <f>$B$2/AC19</f>
+        <f t="shared" si="2"/>
         <v>84.603341770476618</v>
       </c>
       <c r="AL19" t="s">
@@ -46334,7 +48758,7 @@
         <v>46.296295999999998</v>
       </c>
       <c r="AV19">
-        <f>$B$2/AO19</f>
+        <f t="shared" si="3"/>
         <v>64.287487492017519</v>
       </c>
       <c r="AX19" t="s">
@@ -46368,7 +48792,7 @@
         <v>38.518518999999998</v>
       </c>
       <c r="BH19">
-        <f>$B$2/BA19</f>
+        <f t="shared" si="4"/>
         <v>62.991535465561711</v>
       </c>
       <c r="BJ19" t="s">
@@ -46402,7 +48826,7 @@
         <v>35.555556000000003</v>
       </c>
       <c r="BT19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>79.004402849957046</v>
       </c>
       <c r="BV19" t="s">
@@ -46436,7 +48860,7 @@
         <v>22.592593000000001</v>
       </c>
       <c r="CF19">
-        <f>$B$2/BY19</f>
+        <f t="shared" si="6"/>
         <v>62.384943251129613</v>
       </c>
     </row>
@@ -46472,7 +48896,7 @@
         <v>90.370369999999994</v>
       </c>
       <c r="AJ20">
-        <f>$B$2/AC20</f>
+        <f t="shared" si="2"/>
         <v>88.601681935993568</v>
       </c>
       <c r="AL20" t="s">
@@ -46506,7 +48930,7 @@
         <v>95.555555999999996</v>
       </c>
       <c r="AV20">
-        <f>$B$2/AO20</f>
+        <f t="shared" si="3"/>
         <v>73.690934347000351</v>
       </c>
       <c r="AX20" t="s">
@@ -46540,7 +48964,7 @@
         <v>26.666667</v>
       </c>
       <c r="BH20">
-        <f>$B$2/BA20</f>
+        <f t="shared" si="4"/>
         <v>67.164751370476509</v>
       </c>
       <c r="BJ20" t="s">
@@ -46574,7 +48998,7 @@
         <v>29.629629999999999</v>
       </c>
       <c r="BT20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>83.173971876433257</v>
       </c>
       <c r="BV20" t="s">
@@ -46608,7 +49032,7 @@
         <v>26.296296000000002</v>
       </c>
       <c r="CF20">
-        <f>$B$2/BY20</f>
+        <f t="shared" si="6"/>
         <v>66.525544729618986</v>
       </c>
     </row>
@@ -46644,7 +49068,7 @@
         <v>98.888889000000006</v>
       </c>
       <c r="AJ21">
-        <f>$B$2/AC21</f>
+        <f t="shared" si="2"/>
         <v>93.04914447493104</v>
       </c>
       <c r="AL21" t="s">
@@ -46678,7 +49102,7 @@
         <v>96.296295999999998</v>
       </c>
       <c r="AV21">
-        <f>$B$2/AO21</f>
+        <f t="shared" si="3"/>
         <v>78.231883126816584</v>
       </c>
       <c r="AX21" t="s">
@@ -46712,7 +49136,7 @@
         <v>33.703704000000002</v>
       </c>
       <c r="BH21">
-        <f>$B$2/BA21</f>
+        <f t="shared" si="4"/>
         <v>70.894905677117407</v>
       </c>
       <c r="BJ21" t="s">
@@ -46746,7 +49170,7 @@
         <v>36.666666999999997</v>
       </c>
       <c r="BT21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>87.401484828701214</v>
       </c>
       <c r="BV21" t="s">
@@ -46780,7 +49204,7 @@
         <v>39.629629999999999</v>
       </c>
       <c r="CF21">
-        <f>$B$2/BY21</f>
+        <f t="shared" si="6"/>
         <v>70.612203137081636</v>
       </c>
     </row>
@@ -46816,7 +49240,7 @@
         <v>98.148148000000006</v>
       </c>
       <c r="AJ22">
-        <f>$B$2/AC22</f>
+        <f t="shared" si="2"/>
         <v>96.975788375841475</v>
       </c>
       <c r="AL22" t="s">
@@ -46850,7 +49274,7 @@
         <v>95.555555999999996</v>
       </c>
       <c r="AV22">
-        <f>$B$2/AO22</f>
+        <f t="shared" si="3"/>
         <v>80.043859621663415</v>
       </c>
       <c r="AX22" t="s">
@@ -46884,7 +49308,7 @@
         <v>27.037037000000002</v>
       </c>
       <c r="BH22">
-        <f>$B$2/BA22</f>
+        <f t="shared" si="4"/>
         <v>75.03665543713025</v>
       </c>
       <c r="BJ22" t="s">
@@ -46918,7 +49342,7 @@
         <v>31.111111000000001</v>
       </c>
       <c r="BT22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>91.299254826489189</v>
       </c>
       <c r="BV22" t="s">
@@ -46952,7 +49376,7 @@
         <v>22.962962999999998</v>
       </c>
       <c r="CF22">
-        <f>$B$2/BY22</f>
+        <f t="shared" si="6"/>
         <v>74.753233350874112</v>
       </c>
     </row>
@@ -46988,7 +49412,7 @@
         <v>99.259259</v>
       </c>
       <c r="AJ23">
-        <f>$B$2/AC23</f>
+        <f t="shared" si="2"/>
         <v>105.94917192543393</v>
       </c>
       <c r="AL23" t="s">
@@ -47022,7 +49446,7 @@
         <v>94.444444000000004</v>
       </c>
       <c r="AV23">
-        <f>$B$2/AO23</f>
+        <f t="shared" si="3"/>
         <v>82.342323223865989</v>
       </c>
       <c r="AX23" t="s">
@@ -47056,7 +49480,7 @@
         <v>36.666666999999997</v>
       </c>
       <c r="BH23">
-        <f>$B$2/BA23</f>
+        <f t="shared" si="4"/>
         <v>79.182018902046281</v>
       </c>
       <c r="BJ23" t="s">
@@ -47090,7 +49514,7 @@
         <v>25.555555999999999</v>
       </c>
       <c r="BT23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>95.395125427168679</v>
       </c>
       <c r="BV23" t="s">
@@ -47124,7 +49548,7 @@
         <v>36.296295999999998</v>
       </c>
       <c r="CF23">
-        <f>$B$2/BY23</f>
+        <f t="shared" si="6"/>
         <v>78.964634345942301</v>
       </c>
     </row>
@@ -47160,7 +49584,7 @@
         <v>99.259259</v>
       </c>
       <c r="AJ24">
-        <f>$B$2/AC24</f>
+        <f t="shared" si="2"/>
         <v>109.80320090006528</v>
       </c>
       <c r="AL24" t="s">
@@ -47194,7 +49618,7 @@
         <v>92.962963000000002</v>
       </c>
       <c r="AV24">
-        <f>$B$2/AO24</f>
+        <f t="shared" si="3"/>
         <v>84.915204649232052</v>
       </c>
       <c r="AX24" t="s">
@@ -47228,7 +49652,7 @@
         <v>31.851852000000001</v>
       </c>
       <c r="BH24">
-        <f>$B$2/BA24</f>
+        <f t="shared" si="4"/>
         <v>83.305665872816775</v>
       </c>
       <c r="BJ24" t="s">
@@ -47262,7 +49686,7 @@
         <v>59.259259</v>
       </c>
       <c r="BT24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.429907414248333</v>
       </c>
       <c r="BV24" t="s">
@@ -47296,7 +49720,7 @@
         <v>40.370370000000001</v>
       </c>
       <c r="CF24">
-        <f>$B$2/BY24</f>
+        <f t="shared" si="6"/>
         <v>83.08127769907594</v>
       </c>
     </row>
@@ -47332,7 +49756,7 @@
         <v>97.407407000000006</v>
       </c>
       <c r="AJ25">
-        <f>$B$2/AC25</f>
+        <f t="shared" si="2"/>
         <v>114.48696411381495</v>
       </c>
       <c r="AL25" t="s">
@@ -47366,7 +49790,7 @@
         <v>92.222222000000002</v>
       </c>
       <c r="AV25">
-        <f>$B$2/AO25</f>
+        <f t="shared" si="3"/>
         <v>88.740359888250708</v>
       </c>
       <c r="AX25" t="s">
@@ -47400,7 +49824,7 @@
         <v>62.222222000000002</v>
       </c>
       <c r="BH25">
-        <f>$B$2/BA25</f>
+        <f t="shared" si="4"/>
         <v>87.878486172161487</v>
       </c>
       <c r="BJ25" t="s">
@@ -47434,7 +49858,7 @@
         <v>55.185184999999997</v>
       </c>
       <c r="BT25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>103.4974945357403</v>
       </c>
       <c r="BV25" t="s">
@@ -47468,7 +49892,7 @@
         <v>38.888888999999999</v>
       </c>
       <c r="CF25">
-        <f>$B$2/BY25</f>
+        <f t="shared" si="6"/>
         <v>87.269041613908385</v>
       </c>
     </row>
@@ -47504,7 +49928,7 @@
         <v>99.259259</v>
       </c>
       <c r="AJ26">
-        <f>$B$2/AC26</f>
+        <f t="shared" si="2"/>
         <v>130.88435433344935</v>
       </c>
       <c r="AL26" t="s">
@@ -47538,7 +49962,7 @@
         <v>91.851851999999994</v>
       </c>
       <c r="AV26">
-        <f>$B$2/AO26</f>
+        <f t="shared" si="3"/>
         <v>91.914602759225573</v>
       </c>
       <c r="AX26" t="s">
@@ -47572,7 +49996,7 @@
         <v>53.333333000000003</v>
       </c>
       <c r="BH26">
-        <f>$B$2/BA26</f>
+        <f t="shared" si="4"/>
         <v>93.077934747394593</v>
       </c>
       <c r="BJ26" t="s">
@@ -47606,7 +50030,7 @@
         <v>63.333333000000003</v>
       </c>
       <c r="BT26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>107.50194864981901</v>
       </c>
       <c r="BV26" t="s">
@@ -47640,7 +50064,7 @@
         <v>30.370370000000001</v>
       </c>
       <c r="CF26">
-        <f>$B$2/BY26</f>
+        <f t="shared" si="6"/>
         <v>91.222711770078206</v>
       </c>
     </row>
@@ -47676,7 +50100,7 @@
         <v>99.629630000000006</v>
       </c>
       <c r="AJ27">
-        <f>$B$2/AC27</f>
+        <f t="shared" si="2"/>
         <v>135.23138393518224</v>
       </c>
       <c r="AL27" t="s">
@@ -47710,7 +50134,7 @@
         <v>88.888889000000006</v>
       </c>
       <c r="AV27">
-        <f>$B$2/AO27</f>
+        <f t="shared" si="3"/>
         <v>96.569622786875343</v>
       </c>
       <c r="AX27" t="s">
@@ -47744,7 +50168,7 @@
         <v>60.370370000000001</v>
       </c>
       <c r="BH27">
-        <f>$B$2/BA27</f>
+        <f t="shared" si="4"/>
         <v>98.135889130251229</v>
       </c>
       <c r="BJ27" t="s">
@@ -47778,7 +50202,7 @@
         <v>59.259259</v>
       </c>
       <c r="BT27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>111.77302332494055</v>
       </c>
       <c r="BV27" t="s">
@@ -47812,7 +50236,7 @@
         <v>38.888888999999999</v>
       </c>
       <c r="CF27">
-        <f>$B$2/BY27</f>
+        <f t="shared" si="6"/>
         <v>95.251206001884896</v>
       </c>
     </row>
@@ -47848,7 +50272,7 @@
         <v>86.296295999999998</v>
       </c>
       <c r="AV28">
-        <f>$B$2/AO28</f>
+        <f t="shared" si="3"/>
         <v>102.51574013935998</v>
       </c>
       <c r="AX28" t="s">
@@ -47882,7 +50306,7 @@
         <v>62.222222000000002</v>
       </c>
       <c r="BH28">
-        <f>$B$2/BA28</f>
+        <f t="shared" si="4"/>
         <v>102.09414428083176</v>
       </c>
       <c r="BJ28" t="s">
@@ -47916,7 +50340,7 @@
         <v>61.481481000000002</v>
       </c>
       <c r="BT28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>115.87216948000453</v>
       </c>
       <c r="BV28" t="s">
@@ -47950,7 +50374,7 @@
         <v>57.037036999999998</v>
       </c>
       <c r="CF28">
-        <f>$B$2/BY28</f>
+        <f t="shared" si="6"/>
         <v>99.330641276648649</v>
       </c>
     </row>
@@ -47986,7 +50410,7 @@
         <v>89.259259</v>
       </c>
       <c r="AV29">
-        <f>$B$2/AO29</f>
+        <f t="shared" si="3"/>
         <v>109.26782272779717</v>
       </c>
       <c r="AX29" t="s">
@@ -48020,7 +50444,7 @@
         <v>54.074074000000003</v>
       </c>
       <c r="BH29">
-        <f>$B$2/BA29</f>
+        <f t="shared" si="4"/>
         <v>105.12720881470213</v>
       </c>
       <c r="BJ29" t="s">
@@ -48054,7 +50478,7 @@
         <v>90.370369999999994</v>
       </c>
       <c r="BT29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>119.82516460085756</v>
       </c>
       <c r="BV29" t="s">
@@ -48088,7 +50512,7 @@
         <v>80.740741</v>
       </c>
       <c r="CF29">
-        <f>$B$2/BY29</f>
+        <f t="shared" si="6"/>
         <v>103.34648635321982</v>
       </c>
     </row>
@@ -48124,7 +50548,7 @@
         <v>86.296295999999998</v>
       </c>
       <c r="AV30">
-        <f>$B$2/AO30</f>
+        <f t="shared" si="3"/>
         <v>116.22874298857262</v>
       </c>
       <c r="AX30" t="s">
@@ -48158,7 +50582,7 @@
         <v>62.592593000000001</v>
       </c>
       <c r="BH30">
-        <f>$B$2/BA30</f>
+        <f t="shared" si="4"/>
         <v>108.52672837855619</v>
       </c>
       <c r="BJ30" t="s">
@@ -48192,7 +50616,7 @@
         <v>80.370369999999994</v>
       </c>
       <c r="BT30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>123.9239254229731</v>
       </c>
       <c r="BV30" t="s">
@@ -48226,7 +50650,7 @@
         <v>82.592592999999994</v>
       </c>
       <c r="CF30">
-        <f>$B$2/BY30</f>
+        <f t="shared" si="6"/>
         <v>107.34399492878043</v>
       </c>
     </row>
@@ -48262,7 +50686,7 @@
         <v>78.888889000000006</v>
       </c>
       <c r="AV31">
-        <f>$B$2/AO31</f>
+        <f t="shared" si="3"/>
         <v>124.36209814697729</v>
       </c>
       <c r="AX31" t="s">
@@ -48296,7 +50720,7 @@
         <v>63.703704000000002</v>
       </c>
       <c r="BH31">
-        <f>$B$2/BA31</f>
+        <f t="shared" si="4"/>
         <v>112.24650685021707</v>
       </c>
       <c r="BJ31" t="s">
@@ -48330,7 +50754,7 @@
         <v>87.777777999999998</v>
       </c>
       <c r="BT31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>128.14454673475626</v>
       </c>
       <c r="BV31" t="s">
@@ -48364,7 +50788,7 @@
         <v>86.666667000000004</v>
       </c>
       <c r="CF31">
-        <f>$B$2/BY31</f>
+        <f t="shared" si="6"/>
         <v>111.51515719787001</v>
       </c>
     </row>
@@ -48400,7 +50824,7 @@
         <v>76.296295999999998</v>
       </c>
       <c r="AV32">
-        <f>$B$2/AO32</f>
+        <f t="shared" si="3"/>
         <v>130.16147193419158</v>
       </c>
       <c r="AX32" t="s">
@@ -48434,7 +50858,7 @@
         <v>87.407407000000006</v>
       </c>
       <c r="BH32">
-        <f>$B$2/BA32</f>
+        <f t="shared" si="4"/>
         <v>116.36626801008474</v>
       </c>
       <c r="BJ32" t="s">
@@ -48468,7 +50892,7 @@
         <v>85.185185000000004</v>
       </c>
       <c r="BT32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>132.2907955527273</v>
       </c>
       <c r="BV32" t="s">
@@ -48502,7 +50926,7 @@
         <v>77.777777999999998</v>
       </c>
       <c r="CF32">
-        <f>$B$2/BY32</f>
+        <f t="shared" si="6"/>
         <v>115.64263973624345</v>
       </c>
     </row>
@@ -48538,7 +50962,7 @@
         <v>97.037036999999998</v>
       </c>
       <c r="AV33">
-        <f>$B$2/AO33</f>
+        <f t="shared" si="3"/>
         <v>133.68723989376164</v>
       </c>
       <c r="AX33" t="s">
@@ -48572,7 +50996,7 @@
         <v>87.407407000000006</v>
       </c>
       <c r="BH33">
-        <f>$B$2/BA33</f>
+        <f t="shared" si="4"/>
         <v>120.33663548059185</v>
       </c>
       <c r="BJ33" t="s">
@@ -48606,7 +51030,7 @@
         <v>90.740741</v>
       </c>
       <c r="BT33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>136.22125086569707</v>
       </c>
       <c r="BV33" t="s">
@@ -48640,7 +51064,7 @@
         <v>68.888889000000006</v>
       </c>
       <c r="CF33">
-        <f>$B$2/BY33</f>
+        <f t="shared" si="6"/>
         <v>119.60153699355455</v>
       </c>
     </row>
@@ -48676,7 +51100,7 @@
         <v>95.925926000000004</v>
       </c>
       <c r="AV34">
-        <f>$B$2/AO34</f>
+        <f t="shared" si="3"/>
         <v>136.45168709610283</v>
       </c>
       <c r="AX34" t="s">
@@ -48710,7 +51134,7 @@
         <v>86.666667000000004</v>
       </c>
       <c r="BH34">
-        <f>$B$2/BA34</f>
+        <f t="shared" si="4"/>
         <v>124.75527658785531</v>
       </c>
       <c r="BJ34" t="s">
@@ -48744,7 +51168,7 @@
         <v>92.222222000000002</v>
       </c>
       <c r="BT34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>140.36312585427976</v>
       </c>
       <c r="BV34" t="s">
@@ -48778,7 +51202,7 @@
         <v>76.666667000000004</v>
       </c>
       <c r="CF34">
-        <f>$B$2/BY34</f>
+        <f t="shared" si="6"/>
         <v>123.73622550205661</v>
       </c>
     </row>
@@ -48814,7 +51238,7 @@
         <v>92.962963000000002</v>
       </c>
       <c r="AV35">
-        <f>$B$2/AO35</f>
+        <f t="shared" si="3"/>
         <v>138.73715994053367</v>
       </c>
       <c r="AX35" t="s">
@@ -48848,7 +51272,7 @@
         <v>90.740741</v>
       </c>
       <c r="BH35">
-        <f>$B$2/BA35</f>
+        <f t="shared" si="4"/>
         <v>130.48894139500703</v>
       </c>
       <c r="BJ35" t="s">
@@ -48882,7 +51306,7 @@
         <v>95.185185000000004</v>
       </c>
       <c r="BT35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>144.551992176017</v>
       </c>
       <c r="BV35" t="s">
@@ -48916,7 +51340,7 @@
         <v>85.555555999999996</v>
       </c>
       <c r="CF35">
-        <f>$B$2/BY35</f>
+        <f t="shared" si="6"/>
         <v>127.92593129946668</v>
       </c>
     </row>
@@ -48952,7 +51376,7 @@
         <v>91.851851999999994</v>
       </c>
       <c r="AV36">
-        <f>$B$2/AO36</f>
+        <f t="shared" si="3"/>
         <v>140.45487553006834</v>
       </c>
       <c r="AX36" t="s">
@@ -48986,7 +51410,7 @@
         <v>92.222222000000002</v>
       </c>
       <c r="BH36">
-        <f>$B$2/BA36</f>
+        <f t="shared" ref="BH36:BH54" si="7">$B$2/BA36</f>
         <v>136.44731828878488</v>
       </c>
       <c r="BJ36" t="s">
@@ -49020,7 +51444,7 @@
         <v>96.296295999999998</v>
       </c>
       <c r="BT36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>148.44927662440202</v>
       </c>
       <c r="BV36" t="s">
@@ -49054,7 +51478,7 @@
         <v>82.962963000000002</v>
       </c>
       <c r="CF36">
-        <f>$B$2/BY36</f>
+        <f t="shared" ref="CF36:CF54" si="8">$B$2/BY36</f>
         <v>132.05372506894452</v>
       </c>
     </row>
@@ -49096,7 +51520,7 @@
         <v>91.111110999999994</v>
       </c>
       <c r="AV37">
-        <f>$B$2/AO37</f>
+        <f t="shared" si="3"/>
         <v>142.72847079574885</v>
       </c>
       <c r="AX37" t="s">
@@ -49130,7 +51554,7 @@
         <v>61.481481000000002</v>
       </c>
       <c r="BH37">
-        <f>$B$2/BA37</f>
+        <f t="shared" si="7"/>
         <v>142.48351164604927</v>
       </c>
       <c r="BJ37" t="s">
@@ -49164,7 +51588,7 @@
         <v>93.703704000000002</v>
       </c>
       <c r="BT37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>152.69098845715172</v>
       </c>
       <c r="BV37" t="s">
@@ -49198,7 +51622,7 @@
         <v>85.925926000000004</v>
       </c>
       <c r="CF37">
-        <f>$B$2/BY37</f>
+        <f t="shared" si="8"/>
         <v>136.12045312990753</v>
       </c>
     </row>
@@ -49240,7 +51664,7 @@
         <v>91.851851999999994</v>
       </c>
       <c r="AV38">
-        <f>$B$2/AO38</f>
+        <f t="shared" si="3"/>
         <v>145.32919759471656</v>
       </c>
       <c r="AX38" t="s">
@@ -49274,7 +51698,7 @@
         <v>92.962963000000002</v>
       </c>
       <c r="BH38">
-        <f>$B$2/BA38</f>
+        <f t="shared" si="7"/>
         <v>147.837321708362</v>
       </c>
       <c r="BJ38" t="s">
@@ -49308,7 +51732,7 @@
         <v>95.925926000000004</v>
       </c>
       <c r="BT38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>156.96609618052571</v>
       </c>
       <c r="BV38" t="s">
@@ -49342,7 +51766,7 @@
         <v>80.740741</v>
       </c>
       <c r="CF38">
-        <f>$B$2/BY38</f>
+        <f t="shared" si="8"/>
         <v>140.09396726951968</v>
       </c>
     </row>
@@ -49384,7 +51808,7 @@
         <v>91.851851999999994</v>
       </c>
       <c r="AV39">
-        <f>$B$2/AO39</f>
+        <f t="shared" si="3"/>
         <v>149.13239316687955</v>
       </c>
       <c r="AX39" t="s">
@@ -49418,7 +51842,7 @@
         <v>94.074073999999996</v>
       </c>
       <c r="BH39">
-        <f>$B$2/BA39</f>
+        <f t="shared" si="7"/>
         <v>151.19853236831523</v>
       </c>
       <c r="BJ39" t="s">
@@ -49452,7 +51876,7 @@
         <v>88.888889000000006</v>
       </c>
       <c r="BT39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>161.01159883885674</v>
       </c>
       <c r="BV39" t="s">
@@ -49486,7 +51910,7 @@
         <v>85.925926000000004</v>
       </c>
       <c r="CF39">
-        <f>$B$2/BY39</f>
+        <f t="shared" si="8"/>
         <v>144.38466490115587</v>
       </c>
     </row>
@@ -49528,7 +51952,7 @@
         <v>91.481481000000002</v>
       </c>
       <c r="AV40">
-        <f>$B$2/AO40</f>
+        <f t="shared" si="3"/>
         <v>152.93756915660344</v>
       </c>
       <c r="AX40" t="s">
@@ -49562,7 +51986,7 @@
         <v>92.592592999999994</v>
       </c>
       <c r="BH40">
-        <f>$B$2/BA40</f>
+        <f t="shared" si="7"/>
         <v>154.45446418324264</v>
       </c>
       <c r="BJ40" t="s">
@@ -49596,7 +52020,7 @@
         <v>94.074073999999996</v>
       </c>
       <c r="BT40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>164.80564990686614</v>
       </c>
       <c r="BV40" t="s">
@@ -49630,7 +52054,7 @@
         <v>87.407407000000006</v>
       </c>
       <c r="CF40">
-        <f>$B$2/BY40</f>
+        <f t="shared" si="8"/>
         <v>148.42514917922404</v>
       </c>
     </row>
@@ -49672,7 +52096,7 @@
         <v>91.111110999999994</v>
       </c>
       <c r="AV41">
-        <f>$B$2/AO41</f>
+        <f t="shared" si="3"/>
         <v>156.15608835581722</v>
       </c>
       <c r="AX41" t="s">
@@ -49706,7 +52130,7 @@
         <v>92.962963000000002</v>
       </c>
       <c r="BH41">
-        <f>$B$2/BA41</f>
+        <f t="shared" si="7"/>
         <v>157.07987885787301</v>
       </c>
       <c r="BJ41" t="s">
@@ -49740,7 +52164,7 @@
         <v>92.962963000000002</v>
       </c>
       <c r="BT41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>169.02269271955686</v>
       </c>
       <c r="BV41" t="s">
@@ -49774,7 +52198,7 @@
         <v>87.037036999999998</v>
       </c>
       <c r="CF41">
-        <f>$B$2/BY41</f>
+        <f t="shared" si="8"/>
         <v>152.22013799179669</v>
       </c>
     </row>
@@ -49816,7 +52240,7 @@
         <v>98.148148000000006</v>
       </c>
       <c r="AV42">
-        <f>$B$2/AO42</f>
+        <f t="shared" si="3"/>
         <v>159.71624077902771</v>
       </c>
       <c r="AX42" t="s">
@@ -49850,7 +52274,7 @@
         <v>92.222222000000002</v>
       </c>
       <c r="BH42">
-        <f>$B$2/BA42</f>
+        <f t="shared" si="7"/>
         <v>160.25175793735352</v>
       </c>
       <c r="BJ42" t="s">
@@ -49884,7 +52308,7 @@
         <v>91.851851999999994</v>
       </c>
       <c r="BT42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>173.28136266298014</v>
       </c>
       <c r="BV42" t="s">
@@ -49918,7 +52342,7 @@
         <v>94.814814999999996</v>
       </c>
       <c r="CF42">
-        <f>$B$2/BY42</f>
+        <f t="shared" si="8"/>
         <v>156.41399707604128</v>
       </c>
     </row>
@@ -49960,7 +52384,7 @@
         <v>97.777777999999998</v>
       </c>
       <c r="AV43">
-        <f>$B$2/AO43</f>
+        <f t="shared" si="3"/>
         <v>164.47702025562353</v>
       </c>
       <c r="AX43" t="s">
@@ -49994,7 +52418,7 @@
         <v>93.703704000000002</v>
       </c>
       <c r="BH43">
-        <f>$B$2/BA43</f>
+        <f t="shared" si="7"/>
         <v>163.02673322877217</v>
       </c>
       <c r="BJ43" t="s">
@@ -50028,7 +52452,7 @@
         <v>91.481481000000002</v>
       </c>
       <c r="BT43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>177.19722389693908</v>
       </c>
       <c r="BV43" t="s">
@@ -50062,7 +52486,7 @@
         <v>84.814814999999996</v>
       </c>
       <c r="CF43">
-        <f>$B$2/BY43</f>
+        <f t="shared" si="8"/>
         <v>160.46495764041418</v>
       </c>
     </row>
@@ -50104,7 +52528,7 @@
         <v>97.037036999999998</v>
       </c>
       <c r="AV44">
-        <f>$B$2/AO44</f>
+        <f t="shared" si="3"/>
         <v>168.6492345845123</v>
       </c>
       <c r="AX44" t="s">
@@ -50138,7 +52562,7 @@
         <v>93.333332999999996</v>
       </c>
       <c r="BH44">
-        <f>$B$2/BA44</f>
+        <f t="shared" si="7"/>
         <v>166.19063434290914</v>
       </c>
       <c r="BJ44" t="s">
@@ -50172,7 +52596,7 @@
         <v>93.703704000000002</v>
       </c>
       <c r="BT44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>180.77634574325185</v>
       </c>
       <c r="BV44" t="s">
@@ -50206,7 +52630,7 @@
         <v>88.518518999999998</v>
       </c>
       <c r="CF44">
-        <f>$B$2/BY44</f>
+        <f t="shared" si="8"/>
         <v>164.33431663646061</v>
       </c>
     </row>
@@ -50248,7 +52672,7 @@
         <v>96.296295999999998</v>
       </c>
       <c r="AV45">
-        <f>$B$2/AO45</f>
+        <f t="shared" si="3"/>
         <v>173.37065388370578</v>
       </c>
       <c r="AX45" t="s">
@@ -50282,7 +52706,7 @@
         <v>94.444444000000004</v>
       </c>
       <c r="BH45">
-        <f>$B$2/BA45</f>
+        <f t="shared" si="7"/>
         <v>169.57193352432489</v>
       </c>
       <c r="BJ45" t="s">
@@ -50316,7 +52740,7 @@
         <v>94.444444000000004</v>
       </c>
       <c r="BT45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>184.56162979537334</v>
       </c>
       <c r="BV45" t="s">
@@ -50350,7 +52774,7 @@
         <v>88.148148000000006</v>
       </c>
       <c r="CF45">
-        <f>$B$2/BY45</f>
+        <f t="shared" si="8"/>
         <v>168.4437029815154</v>
       </c>
     </row>
@@ -50392,7 +52816,7 @@
         <v>99.629630000000006</v>
       </c>
       <c r="AV46">
-        <f>$B$2/AO46</f>
+        <f t="shared" si="3"/>
         <v>182.98595228212798</v>
       </c>
       <c r="AX46" t="s">
@@ -50426,7 +52850,7 @@
         <v>94.074073999999996</v>
       </c>
       <c r="BH46">
-        <f>$B$2/BA46</f>
+        <f t="shared" si="7"/>
         <v>173.78423510062052</v>
       </c>
       <c r="BJ46" t="s">
@@ -50460,7 +52884,7 @@
         <v>94.814814999999996</v>
       </c>
       <c r="BT46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>188.43658619266597</v>
       </c>
       <c r="BV46" t="s">
@@ -50494,7 +52918,7 @@
         <v>89.629630000000006</v>
       </c>
       <c r="CF46">
-        <f>$B$2/BY46</f>
+        <f t="shared" si="8"/>
         <v>172.59362681570281</v>
       </c>
     </row>
@@ -50536,7 +52960,7 @@
         <v>99.259259</v>
       </c>
       <c r="AV47">
-        <f>$B$2/AO47</f>
+        <f t="shared" si="3"/>
         <v>191.51330926630516</v>
       </c>
       <c r="AX47" t="s">
@@ -50570,7 +52994,7 @@
         <v>95.555555999999996</v>
       </c>
       <c r="BH47">
-        <f>$B$2/BA47</f>
+        <f t="shared" si="7"/>
         <v>177.67865779087219</v>
       </c>
       <c r="BJ47" t="s">
@@ -50604,7 +53028,7 @@
         <v>92.962963000000002</v>
       </c>
       <c r="BT47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>192.49513305981105</v>
       </c>
       <c r="BV47" t="s">
@@ -50638,7 +53062,7 @@
         <v>88.888889000000006</v>
       </c>
       <c r="CF47">
-        <f>$B$2/BY47</f>
+        <f t="shared" si="8"/>
         <v>176.37099855841191</v>
       </c>
     </row>
@@ -50680,7 +53104,7 @@
         <v>99.629630000000006</v>
       </c>
       <c r="AV48">
-        <f>$B$2/AO48</f>
+        <f t="shared" si="3"/>
         <v>195.69646109810043</v>
       </c>
       <c r="AX48" t="s">
@@ -50714,7 +53138,7 @@
         <v>82.962963000000002</v>
       </c>
       <c r="BH48">
-        <f>$B$2/BA48</f>
+        <f t="shared" si="7"/>
         <v>182.68134827928642</v>
       </c>
       <c r="BJ48" t="s">
@@ -50748,7 +53172,7 @@
         <v>95.925926000000004</v>
       </c>
       <c r="BT48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>196.80503517386819</v>
       </c>
       <c r="BV48" t="s">
@@ -50782,7 +53206,7 @@
         <v>94.814814999999996</v>
       </c>
       <c r="CF48">
-        <f>$B$2/BY48</f>
+        <f t="shared" si="8"/>
         <v>180.38864902998236</v>
       </c>
     </row>
@@ -50824,7 +53248,7 @@
         <v>99.259259</v>
       </c>
       <c r="AV49">
-        <f>$B$2/AO49</f>
+        <f t="shared" si="3"/>
         <v>200.43026117765098</v>
       </c>
       <c r="AX49" t="s">
@@ -50858,7 +53282,7 @@
         <v>94.444444000000004</v>
       </c>
       <c r="BH49">
-        <f>$B$2/BA49</f>
+        <f t="shared" si="7"/>
         <v>188.30336838694473</v>
       </c>
       <c r="BJ49" t="s">
@@ -50892,7 +53316,7 @@
         <v>97.037036999999998</v>
       </c>
       <c r="BT49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>200.57962363018802</v>
       </c>
       <c r="BV49" t="s">
@@ -50926,7 +53350,7 @@
         <v>91.481481000000002</v>
       </c>
       <c r="CF49">
-        <f>$B$2/BY49</f>
+        <f t="shared" si="8"/>
         <v>184.43649333881518</v>
       </c>
     </row>
@@ -50968,7 +53392,7 @@
         <v>98.518518999999998</v>
       </c>
       <c r="AV50">
-        <f>$B$2/AO50</f>
+        <f t="shared" si="3"/>
         <v>204.56563757530182</v>
       </c>
       <c r="AX50" t="s">
@@ -51002,7 +53426,7 @@
         <v>94.444444000000004</v>
       </c>
       <c r="BH50">
-        <f>$B$2/BA50</f>
+        <f t="shared" si="7"/>
         <v>195.02479559460613</v>
       </c>
       <c r="BJ50" t="s">
@@ -51036,7 +53460,7 @@
         <v>95.555555999999996</v>
       </c>
       <c r="BT50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>204.54109205516269</v>
       </c>
       <c r="BV50" t="s">
@@ -51070,7 +53494,7 @@
         <v>89.259259</v>
       </c>
       <c r="CF50">
-        <f>$B$2/BY50</f>
+        <f t="shared" si="8"/>
         <v>188.20634908951732</v>
       </c>
     </row>
@@ -51112,7 +53536,7 @@
         <v>93.703704000000002</v>
       </c>
       <c r="AV51">
-        <f>$B$2/AO51</f>
+        <f t="shared" si="3"/>
         <v>208.1000944056513</v>
       </c>
       <c r="AX51" t="s">
@@ -51146,7 +53570,7 @@
         <v>92.962963000000002</v>
       </c>
       <c r="BH51">
-        <f>$B$2/BA51</f>
+        <f t="shared" si="7"/>
         <v>203.3487693347648</v>
       </c>
       <c r="BJ51" t="s">
@@ -51180,7 +53604,7 @@
         <v>97.777777999999998</v>
       </c>
       <c r="BT51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>209.07678659035159</v>
       </c>
       <c r="BV51" t="s">
@@ -51214,7 +53638,7 @@
         <v>91.851851999999994</v>
       </c>
       <c r="CF51">
-        <f>$B$2/BY51</f>
+        <f t="shared" si="8"/>
         <v>192.36769407852665</v>
       </c>
     </row>
@@ -51260,7 +53684,7 @@
         <v>97.777777999999998</v>
       </c>
       <c r="BH52">
-        <f>$B$2/BA52</f>
+        <f t="shared" si="7"/>
         <v>211.55560243904458</v>
       </c>
       <c r="BV52" t="s">
@@ -51294,7 +53718,7 @@
         <v>97.407407000000006</v>
       </c>
       <c r="CF52">
-        <f>$B$2/BY52</f>
+        <f t="shared" si="8"/>
         <v>196.65367695691631</v>
       </c>
     </row>
@@ -51340,7 +53764,7 @@
         <v>98.148148000000006</v>
       </c>
       <c r="BH53">
-        <f>$B$2/BA53</f>
+        <f t="shared" si="7"/>
         <v>215.83600067527644</v>
       </c>
       <c r="BV53" t="s">
@@ -51374,7 +53798,7 @@
         <v>95.925926000000004</v>
       </c>
       <c r="CF53">
-        <f>$B$2/BY53</f>
+        <f t="shared" si="8"/>
         <v>200.13063623627383</v>
       </c>
     </row>
@@ -51420,7 +53844,7 @@
         <v>97.407407000000006</v>
       </c>
       <c r="BH54">
-        <f>$B$2/BA54</f>
+        <f t="shared" si="7"/>
         <v>219.75172526405348</v>
       </c>
       <c r="BV54" t="s">
@@ -51454,7 +53878,7 @@
         <v>95.555555999999996</v>
       </c>
       <c r="CF54">
-        <f>$B$2/BY54</f>
+        <f t="shared" si="8"/>
         <v>204.42498980676831</v>
       </c>
     </row>
@@ -54015,8 +56439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y79"/>
   <sheetViews>
-    <sheetView topLeftCell="B73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB96" sqref="AB96"/>
+    <sheetView topLeftCell="C46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O104" sqref="O104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59092,8 +61516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AJ97"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:K4"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
